--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF598E-8398-437F-9A9E-7F3CAB7D7638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3965382-1A97-42C6-8F6A-82A1C297C147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="246">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1535,7 +1535,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1859,6 +1859,10 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -5279,10 +5283,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5300,21 +5304,35 @@
       <c r="A2" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="135">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="136"/>
+      <c r="C4" s="119"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="117"/>
+      <c r="C5" s="118"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5418,7 +5436,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17952,7 +17970,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18567,7 +18585,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3965382-1A97-42C6-8F6A-82A1C297C147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D523FA-666A-4DF6-BC28-C0D440716AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -21,99 +21,101 @@
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
     <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
     <sheet name="FreshwaterSources" sheetId="35" r:id="rId8"/>
-    <sheet name="StorageSites" sheetId="36" r:id="rId9"/>
-    <sheet name="TreatmentSites" sheetId="37" r:id="rId10"/>
-    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId11"/>
-    <sheet name="ReuseOptions" sheetId="38" r:id="rId12"/>
-    <sheet name="NetworkNodes" sheetId="39" r:id="rId13"/>
-    <sheet name="PipelineDiameters" sheetId="53" r:id="rId14"/>
-    <sheet name="StorageCapacities" sheetId="54" r:id="rId15"/>
-    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId16"/>
-    <sheet name="InjectionCapacities" sheetId="55" r:id="rId17"/>
-    <sheet name="PNA" sheetId="56" r:id="rId18"/>
-    <sheet name="CNA" sheetId="57" r:id="rId19"/>
-    <sheet name="CCA" sheetId="73" r:id="rId20"/>
-    <sheet name="NNA" sheetId="58" r:id="rId21"/>
-    <sheet name="NCA" sheetId="59" r:id="rId22"/>
-    <sheet name="NKA" sheetId="60" r:id="rId23"/>
-    <sheet name="NRA" sheetId="61" r:id="rId24"/>
-    <sheet name="NSA" sheetId="76" r:id="rId25"/>
-    <sheet name="NOA" sheetId="119" r:id="rId26"/>
-    <sheet name="SNA" sheetId="77" r:id="rId27"/>
-    <sheet name="SOA" sheetId="120" r:id="rId28"/>
-    <sheet name="FCA" sheetId="41" r:id="rId29"/>
-    <sheet name="RCA" sheetId="83" r:id="rId30"/>
-    <sheet name="RSA" sheetId="105" r:id="rId31"/>
-    <sheet name="SCA" sheetId="108" r:id="rId32"/>
-    <sheet name="RNA" sheetId="62" r:id="rId33"/>
-    <sheet name="ROA" sheetId="121" r:id="rId34"/>
-    <sheet name="RKA" sheetId="133" r:id="rId35"/>
-    <sheet name="PCT" sheetId="42" r:id="rId36"/>
-    <sheet name="FCT" sheetId="70" r:id="rId37"/>
-    <sheet name="PKT" sheetId="43" r:id="rId38"/>
-    <sheet name="CKT" sheetId="44" r:id="rId39"/>
-    <sheet name="CCT" sheetId="74" r:id="rId40"/>
-    <sheet name="CST" sheetId="64" r:id="rId41"/>
-    <sheet name="RST" sheetId="122" r:id="rId42"/>
-    <sheet name="ROT" sheetId="123" r:id="rId43"/>
-    <sheet name="SOT" sheetId="124" r:id="rId44"/>
-    <sheet name="RKT" sheetId="134" r:id="rId45"/>
-    <sheet name="Elevation" sheetId="115" r:id="rId46"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId47"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId48"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId49"/>
-    <sheet name="WellPressure" sheetId="116" r:id="rId50"/>
-    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId51"/>
-    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId52"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId53"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId54"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId55"/>
-    <sheet name="ReuseMinimum" sheetId="125" r:id="rId56"/>
-    <sheet name="ReuseCapacity" sheetId="126" r:id="rId57"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId58"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId59"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId60"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId61"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId62"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId63"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId64"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId65"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId66"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId67"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId68"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId69"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId70"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId71"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId72"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId73"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId74"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId75"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId76"/>
-    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId77"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId78"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId79"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId80"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId81"/>
-    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId82"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId83"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId84"/>
-    <sheet name="BeneficialReuseCost" sheetId="135" r:id="rId85"/>
-    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId86"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId87"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId88"/>
-    <sheet name="Economics" sheetId="95" r:id="rId89"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId90"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId91"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId92"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId93"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId94"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
+    <sheet name="WaterQualityComponents" sheetId="136" r:id="rId9"/>
+    <sheet name="StorageSites" sheetId="36" r:id="rId10"/>
+    <sheet name="TreatmentSites" sheetId="37" r:id="rId11"/>
+    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId12"/>
+    <sheet name="ReuseOptions" sheetId="38" r:id="rId13"/>
+    <sheet name="NetworkNodes" sheetId="39" r:id="rId14"/>
+    <sheet name="PipelineDiameters" sheetId="53" r:id="rId15"/>
+    <sheet name="StorageCapacities" sheetId="54" r:id="rId16"/>
+    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId17"/>
+    <sheet name="InjectionCapacities" sheetId="55" r:id="rId18"/>
+    <sheet name="PNA" sheetId="56" r:id="rId19"/>
+    <sheet name="CNA" sheetId="57" r:id="rId20"/>
+    <sheet name="CCA" sheetId="73" r:id="rId21"/>
+    <sheet name="NNA" sheetId="58" r:id="rId22"/>
+    <sheet name="NCA" sheetId="59" r:id="rId23"/>
+    <sheet name="NKA" sheetId="60" r:id="rId24"/>
+    <sheet name="NRA" sheetId="61" r:id="rId25"/>
+    <sheet name="NSA" sheetId="76" r:id="rId26"/>
+    <sheet name="NOA" sheetId="119" r:id="rId27"/>
+    <sheet name="SNA" sheetId="77" r:id="rId28"/>
+    <sheet name="SOA" sheetId="120" r:id="rId29"/>
+    <sheet name="FCA" sheetId="41" r:id="rId30"/>
+    <sheet name="RCA" sheetId="83" r:id="rId31"/>
+    <sheet name="RSA" sheetId="105" r:id="rId32"/>
+    <sheet name="SCA" sheetId="108" r:id="rId33"/>
+    <sheet name="RNA" sheetId="62" r:id="rId34"/>
+    <sheet name="ROA" sheetId="121" r:id="rId35"/>
+    <sheet name="RKA" sheetId="133" r:id="rId36"/>
+    <sheet name="PCT" sheetId="42" r:id="rId37"/>
+    <sheet name="FCT" sheetId="70" r:id="rId38"/>
+    <sheet name="PKT" sheetId="43" r:id="rId39"/>
+    <sheet name="CKT" sheetId="44" r:id="rId40"/>
+    <sheet name="CCT" sheetId="74" r:id="rId41"/>
+    <sheet name="CST" sheetId="64" r:id="rId42"/>
+    <sheet name="RST" sheetId="122" r:id="rId43"/>
+    <sheet name="ROT" sheetId="123" r:id="rId44"/>
+    <sheet name="SOT" sheetId="124" r:id="rId45"/>
+    <sheet name="RKT" sheetId="134" r:id="rId46"/>
+    <sheet name="Elevation" sheetId="115" r:id="rId47"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId48"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId49"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId50"/>
+    <sheet name="WellPressure" sheetId="116" r:id="rId51"/>
+    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId52"/>
+    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId53"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId54"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId55"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId56"/>
+    <sheet name="ReuseMinimum" sheetId="125" r:id="rId57"/>
+    <sheet name="ReuseCapacity" sheetId="126" r:id="rId58"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId59"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId60"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId61"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId62"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId63"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId64"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId65"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId66"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId67"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId68"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId69"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId70"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId71"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId72"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId73"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId74"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId75"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId76"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId77"/>
+    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId78"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId79"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId80"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId81"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId82"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId83"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId84"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId85"/>
+    <sheet name="BeneficialReuseCost" sheetId="135" r:id="rId86"/>
+    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId87"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId88"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId89"/>
+    <sheet name="Economics" sheetId="95" r:id="rId90"/>
+    <sheet name="FreshwaterQuality" sheetId="137" r:id="rId91"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId92"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId93"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId94"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId95"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId96"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId97"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId98"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId99"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="76">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="77" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="77">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="246">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -990,7 +992,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1529,13 +1531,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1859,10 +1891,13 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2843,6 +2878,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -2903,7 +2991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -2964,7 +3052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E027-57F4-45A3-888B-4C0E11BBDC89}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3017,7 +3105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3161,7 +3249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3221,7 +3309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D1DC6-FF6C-4D1F-9E23-B1795807F580}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3285,7 +3373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75646C-6D5B-41D2-BD66-0AABE8C35A83}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3350,7 +3438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691EF25-02B9-4EAE-A04E-51FF0E4ADDCA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3414,7 +3502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3532,99 +3620,6 @@
       <c r="J6" s="9">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113">
-        <v>1</v>
-      </c>
-      <c r="J3" s="114"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3708,6 +3703,99 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113">
+        <v>1</v>
+      </c>
+      <c r="J3" s="114"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10C60C-760C-4F1B-AB9A-B14851122200}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3761,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4002,7 +4090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037676BC-0D9E-4EC2-B7DF-9077076036FD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4111,7 +4199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4223,7 +4311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AC5F8-3DBD-4182-95AF-F72C7FA4D2FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4335,7 +4423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A514516D-9002-4617-9A63-E1CA29CE5849}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4449,7 +4537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA78038-CDE7-4F76-A235-C6722F09C3AA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4563,7 +4651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4665,7 +4753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74ECBE8-579F-4C46-8EE6-A1073B2E4481}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4727,55 +4815,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="104">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5166,6 +5205,55 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="104">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5219,7 +5307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E0DBD1-9C53-4E86-8483-588C08719311}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5278,7 +5366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E8874E-11ED-45FA-AE95-642AF80BF911}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5315,7 +5403,7 @@
       <c r="A3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="135">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="29"/>
@@ -5324,7 +5412,7 @@
       <c r="A4" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="136"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="119"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5340,7 +5428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5428,7 +5516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525A3BF6-1973-4856-86F5-89173E1F6931}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5485,7 +5573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37172789-356D-454C-8F35-29F71BAFFC7F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5536,7 +5624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5604,7 +5692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5653,7 +5741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5731,64 +5819,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="113">
-        <v>1</v>
-      </c>
-      <c r="C3" s="114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5881,6 +5911,64 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="113">
+        <v>1</v>
+      </c>
+      <c r="C3" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5934,7 +6022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5993,7 +6081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE35D21-A9CB-462D-A985-6B6D4051745F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6052,7 +6140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C8F968-B569-4630-B489-36D60677DD57}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6109,7 +6197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6131FC4-DDA8-4CA5-9995-BA95F5C41F90}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6174,7 +6262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6613D63-6E3B-4ADA-BB26-770DF5E350F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6225,7 +6313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B5B5E2-5BB6-4D8A-A59D-BCD5CAC9BC96}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6477,7 +6565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -6603,7 +6691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -6852,119 +6940,6 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113">
-        <v>14830.817816703033</v>
-      </c>
-      <c r="H3" s="72">
-        <v>14293.87494883082</v>
-      </c>
-      <c r="I3" s="113">
-        <v>13824.917187280023</v>
-      </c>
-      <c r="J3" s="113">
-        <v>13410.239747200454</v>
-      </c>
-      <c r="K3" s="114">
-        <v>13039.766210409243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7080,6 +7055,119 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113">
+        <v>14830.817816703033</v>
+      </c>
+      <c r="H3" s="72">
+        <v>14293.87494883082</v>
+      </c>
+      <c r="I3" s="113">
+        <v>13824.917187280023</v>
+      </c>
+      <c r="J3" s="113">
+        <v>13410.239747200454</v>
+      </c>
+      <c r="K3" s="114">
+        <v>13039.766210409243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="118"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D444DCF-56F0-450B-930F-1DD02EF4264D}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -7529,7 +7617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44F1704-24BE-48F1-9574-42F155399A4D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -8727,7 +8815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E21CA-E0F8-4445-8FC2-328828AC1FFE}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12902,7 +12990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -12955,7 +13043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13016,7 +13104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13096,7 +13184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F8A3C4-CDFB-42B9-A561-3BE030B562A7}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13264,7 +13352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F0BCF9-7789-4700-AF4D-19AFDD7DEF21}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13432,7 +13520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13527,61 +13615,6 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Completions Pad Storage Capacity [bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13643,6 +13676,61 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Completions Pad Storage Capacity [bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13696,7 +13784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13792,7 +13880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13937,7 +14025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -13991,7 +14079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14120,7 +14208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14174,7 +14262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15701,7 +15789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15746,7 +15834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15834,110 +15922,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="29">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="7">
-        <v>3</v>
-      </c>
-      <c r="C5" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="78">
-        <v>3</v>
-      </c>
-      <c r="C6" s="81">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="29">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15996,6 +15980,110 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="29">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="78">
+        <v>3</v>
+      </c>
+      <c r="C6" s="81">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16076,7 +16164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16145,7 +16233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16242,7 +16330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16311,7 +16399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16521,7 +16609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16643,7 +16731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16688,7 +16776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE67BAE-6607-47A3-AB16-0544FAF51C24}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17788,7 +17876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17877,83 +17965,6 @@
       </c>
       <c r="G4" s="9">
         <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="35">
-        <v>14285.714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="35">
-        <v>35714.285714285717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="35">
-        <v>42857.142857142855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="37">
-        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -18010,6 +18021,83 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="35">
+        <v>14285.714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="35">
+        <v>35714.285714285717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="35">
+        <v>42857.142857142855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -18086,7 +18174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -18213,7 +18301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD92FF-3AD4-4D23-8578-311AD898F13B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -18340,7 +18428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -18407,7 +18495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -18458,7 +18546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7AD71D-4C0B-472C-8430-CF831478B551}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -18517,7 +18605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FBE079-FAED-46A7-9D21-827D4D11C1A7}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -18577,7 +18665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -18629,7 +18717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -18703,7 +18791,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624A72FF-331D-44D9-9DE9-7BA773EEAB8B}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -18754,60 +18873,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C88FF0-C67E-439F-8CF7-E0739B2717EB}">
   <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>227</v>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="137">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -18891,7 +19001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -18954,7 +19064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -19009,7 +19119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C23A90-09F8-4256-9A57-7AE4D67F1B30}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -19218,7 +19328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F42A651-E51E-4797-AA8E-6DBE69CB6369}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -19298,7 +19408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EACECE5-F82F-4E80-B99E-F7DABB62B09A}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -19394,7 +19504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC23D97D-374C-4B13-BA6B-20365AC2D937}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -19438,7 +19548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F7B70E-50E1-4C11-B6BC-F4B3E009AA2B}">
   <sheetPr>
     <tabColor theme="0"/>

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D523FA-666A-4DF6-BC28-C0D440716AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FBD5FE-3110-4D16-922B-5FFF3673ED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="247">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>List of all Water Quality Components [-]</t>
   </si>
 </sst>
 </file>
@@ -18809,7 +18812,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -18892,8 +18895,8 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+        <f>_xlfn.CONCAT( "Table of Water Quality of Freshwater Sources [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Freshwater Sources [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3965382-1A97-42C6-8F6A-82A1C297C147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20C4357-FB72-44C3-88A2-4B18C3FEA647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="245">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -811,9 +811,6 @@
   </si>
   <si>
     <t>max_allowable_pressure</t>
-  </si>
-  <si>
-    <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
   </si>
   <si>
     <t>S03</t>
@@ -1535,7 +1532,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1859,10 +1856,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2929,7 +2923,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2990,17 +2984,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3008,7 +3002,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3614,7 +3608,7 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3737,7 +3731,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3749,7 +3743,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="104"/>
       <c r="C4" s="9"/>
@@ -4032,7 +4026,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4365,10 +4359,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,7 +4462,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,13 +4470,13 @@
         <v>158</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4633,7 +4627,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -4647,7 +4641,7 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -4684,7 +4678,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,13 +4686,13 @@
         <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4711,7 +4705,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -4719,7 +4713,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="117"/>
       <c r="C5" s="117"/>
@@ -4760,7 +4754,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5195,7 +5189,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5238,7 +5232,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,10 +5243,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5308,28 +5302,28 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="135">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="136"/>
+        <v>225</v>
+      </c>
+      <c r="B4" s="135"/>
       <c r="C4" s="119"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="117"/>
       <c r="C5" s="118"/>
@@ -5447,7 +5441,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5455,13 +5449,13 @@
         <v>167</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5503,7 +5497,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -5566,7 +5560,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5634,7 +5628,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5782,7 +5776,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -5910,7 +5904,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5922,7 +5916,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="106"/>
       <c r="C4" s="33"/>
@@ -5964,10 +5958,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5980,7 +5974,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="104"/>
       <c r="C4" s="8"/>
@@ -6012,7 +6006,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,10 +6017,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6071,7 +6065,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,13 +6073,13 @@
         <v>167</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6128,7 +6122,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6136,13 +6130,13 @@
         <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6155,7 +6149,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -6163,7 +6157,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6192,7 +6186,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6305,7 +6299,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="100">
         <v>600</v>
@@ -6345,7 +6339,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="100">
         <v>500</v>
@@ -6353,7 +6347,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="100">
         <v>500</v>
@@ -6377,7 +6371,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B17" s="100">
         <v>500</v>
@@ -6385,7 +6379,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B18" s="100">
         <v>500</v>
@@ -6393,7 +6387,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B19" s="100">
         <v>500</v>
@@ -6569,7 +6563,7 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6946,7 +6940,7 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="117"/>
       <c r="C4" s="117"/>
@@ -7100,8 +7094,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>225</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Well pressure at production or completions pad [",VLOOKUP("pressure", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Well pressure at production or completions pad [psi]</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7251,37 +7246,37 @@
       <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="130">
         <v>20</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="130">
         <v>19.724654089867183</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="130">
         <v>19.565347714583421</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="130">
         <v>19.45309894824571</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="130">
         <v>19.366475714512596</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="130">
         <v>19.29598579090657</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="130">
         <v>19.236587614095988</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="130">
         <v>19.185282386505289</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="130">
         <v>19.14014155962774</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="131">
         <v>19.099851720428717</v>
       </c>
       <c r="L6" s="83"/>
@@ -7324,7 +7319,7 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="36">
         <v>0</v>
@@ -7598,25 +7593,25 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q2" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>229</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>230</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -7893,7 +7888,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="78">
         <v>0</v>
@@ -8505,7 +8500,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8531,7 +8526,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -8802,16 +8797,16 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q2" s="80" t="s">
         <v>226</v>
-      </c>
-      <c r="Q2" s="80" t="s">
-        <v>227</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="T2" s="101"/>
       <c r="U2" s="101"/>
@@ -9203,7 +9198,7 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -9960,7 +9955,7 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -10027,7 +10022,7 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -12996,7 +12991,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="35">
         <v>0</v>
@@ -13004,7 +12999,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="37">
         <v>0</v>
@@ -13121,7 +13116,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>177</v>
@@ -13156,7 +13151,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -13191,7 +13186,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -13226,7 +13221,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -13289,7 +13284,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>177</v>
@@ -13324,7 +13319,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="34">
         <v>36000</v>
@@ -13359,7 +13354,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="34">
         <v>12580</v>
@@ -13394,7 +13389,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="36">
         <v>51112</v>
@@ -13577,7 +13572,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="37">
         <v>0</v>
@@ -13626,7 +13621,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -13683,7 +13678,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="37">
         <v>30000</v>
@@ -14161,7 +14156,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -14245,25 +14240,25 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q2" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>229</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>230</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -14608,7 +14603,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="78">
         <v>0</v>
@@ -15356,7 +15351,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -15424,7 +15419,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="78">
         <v>0</v>
@@ -15818,7 +15813,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="81">
         <v>95</v>
@@ -15928,7 +15923,7 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="8">
         <v>3.5</v>
@@ -16204,7 +16199,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="34">
         <v>18</v>
@@ -16221,7 +16216,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="36">
         <v>21</v>
@@ -16759,25 +16754,25 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q2" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>229</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>230</v>
       </c>
       <c r="U2" s="73" t="s">
         <v>109</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -17038,7 +17033,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>199</v>
@@ -17566,7 +17561,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -17596,7 +17591,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -18482,7 +18477,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -18490,7 +18485,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="29">
         <v>0</v>
@@ -18498,7 +18493,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="29">
         <v>0</v>
@@ -18506,7 +18501,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -18542,7 +18537,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -18550,7 +18545,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="29">
         <v>0.21</v>
@@ -18558,7 +18553,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="29">
         <v>0.25</v>
@@ -18566,7 +18561,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="9">
         <v>1.55</v>
@@ -18617,7 +18612,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="37">
         <v>1</v>
@@ -18780,7 +18775,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -18790,7 +18785,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -18798,7 +18793,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -18933,7 +18928,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="49">
         <v>150000</v>
@@ -18941,7 +18936,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="50">
         <v>150000</v>
@@ -18996,7 +18991,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="50">
         <v>150000</v>
@@ -19357,7 +19352,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -19374,7 +19369,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -19427,7 +19422,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="132">
         <v>0.2</v>

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20C4357-FB72-44C3-88A2-4B18C3FEA647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF9384-E936-4E38-81FB-49B53C9968FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="244">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -712,9 +712,6 @@
   </si>
   <si>
     <t>PipelineDiameters</t>
-  </si>
-  <si>
-    <t>InjectionCapacities</t>
   </si>
   <si>
     <t>StorageCapacities</t>
@@ -955,7 +952,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,12 +975,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1763,12 +1754,6 @@
     <xf numFmtId="43" fontId="1" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1857,6 +1842,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2923,7 +2914,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2941,12 +2932,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2984,17 +2975,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3002,7 +2993,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3593,22 +3584,22 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111">
         <v>1</v>
       </c>
-      <c r="J3" s="114"/>
+      <c r="J3" s="112"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3731,21 +3722,21 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="114"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="112"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="104"/>
+        <v>237</v>
+      </c>
+      <c r="B4" s="102"/>
       <c r="C4" s="9"/>
     </row>
   </sheetData>
@@ -4026,70 +4017,70 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="9">
         <v>1</v>
       </c>
@@ -4359,17 +4350,17 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>225</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -4377,7 +4368,7 @@
       <c r="A4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="7"/>
       <c r="D4" s="29"/>
     </row>
@@ -4385,7 +4376,7 @@
       <c r="A5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="7"/>
       <c r="D5" s="29"/>
     </row>
@@ -4393,7 +4384,7 @@
       <c r="A6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="7"/>
       <c r="D6" s="29"/>
     </row>
@@ -4401,7 +4392,7 @@
       <c r="A7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="7"/>
       <c r="D7" s="29"/>
     </row>
@@ -4409,7 +4400,7 @@
       <c r="A8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="7"/>
       <c r="D8" s="29"/>
     </row>
@@ -4417,7 +4408,7 @@
       <c r="A9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="7"/>
       <c r="D9" s="29"/>
     </row>
@@ -4425,7 +4416,7 @@
       <c r="A10" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="7"/>
       <c r="D10" s="29"/>
     </row>
@@ -4433,7 +4424,7 @@
       <c r="A11" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
@@ -4462,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4470,20 +4461,20 @@
         <v>158</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -4491,7 +4482,7 @@
       <c r="A4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="105"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="7"/>
       <c r="D4" s="29"/>
     </row>
@@ -4499,7 +4490,7 @@
       <c r="A5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="105"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="7"/>
       <c r="D5" s="29"/>
     </row>
@@ -4507,7 +4498,7 @@
       <c r="A6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="7"/>
       <c r="D6" s="29"/>
     </row>
@@ -4515,7 +4506,7 @@
       <c r="A7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="7"/>
       <c r="D7" s="29"/>
     </row>
@@ -4523,7 +4514,7 @@
       <c r="A8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="7"/>
       <c r="D8" s="29"/>
     </row>
@@ -4531,7 +4522,7 @@
       <c r="A9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="7"/>
       <c r="D9" s="29"/>
     </row>
@@ -4539,7 +4530,7 @@
       <c r="A10" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="7"/>
       <c r="D10" s="29"/>
     </row>
@@ -4547,7 +4538,7 @@
       <c r="A11" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="106"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
@@ -4627,7 +4618,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -4641,7 +4632,7 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -4678,7 +4669,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4686,13 +4677,13 @@
         <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4701,22 +4692,22 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="119"/>
+      <c r="D3" s="117"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="119"/>
+      <c r="D4" s="117"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
+        <v>225</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="9"/>
     </row>
   </sheetData>
@@ -4754,14 +4745,14 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="102">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
@@ -4987,7 +4978,7 @@
         <v>73</v>
       </c>
       <c r="AZ8" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BA8" s="30" t="s">
         <v>76</v>
@@ -4995,22 +4986,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="D9" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E9" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="52" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="52"/>
@@ -5035,7 +5026,7 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
@@ -5043,13 +5034,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="52"/>
@@ -5077,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
@@ -5189,21 +5180,21 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="9"/>
     </row>
   </sheetData>
@@ -5232,7 +5223,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,10 +5234,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>225</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5264,8 +5255,8 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5302,7 +5293,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5316,17 +5307,17 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="119"/>
+        <v>224</v>
+      </c>
+      <c r="B4" s="133"/>
+      <c r="C4" s="117"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
+        <v>225</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5441,7 +5432,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5449,20 +5440,20 @@
         <v>167</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -5470,7 +5461,7 @@
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
@@ -5497,7 +5488,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -5515,14 +5506,14 @@
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="9"/>
     </row>
   </sheetData>
@@ -5560,35 +5551,35 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="9"/>
     </row>
   </sheetData>
@@ -5628,14 +5619,14 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="102">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
@@ -5767,16 +5758,16 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="111">
         <v>1</v>
       </c>
-      <c r="C3" s="114">
+      <c r="C3" s="112">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -5904,21 +5895,21 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="106"/>
+        <v>237</v>
+      </c>
+      <c r="B4" s="104"/>
       <c r="C4" s="33"/>
     </row>
   </sheetData>
@@ -5958,25 +5949,25 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>225</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="104"/>
+        <v>237</v>
+      </c>
+      <c r="B4" s="102"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
@@ -6006,7 +5997,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,17 +6008,17 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>225</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -6035,7 +6026,7 @@
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="102">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
@@ -6065,7 +6056,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6073,20 +6064,20 @@
         <v>167</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -6094,7 +6085,7 @@
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
@@ -6122,7 +6113,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6130,13 +6121,13 @@
         <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6149,7 +6140,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -6157,7 +6148,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6186,7 +6177,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6204,14 +6195,14 @@
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="9"/>
     </row>
   </sheetData>
@@ -6245,223 +6236,223 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="96" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="100">
+      <c r="B3" s="98">
         <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="100">
+      <c r="B4" s="98">
         <v>550</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="100">
+      <c r="B5" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="98">
         <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="98">
         <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="B8" s="100">
+      <c r="A8" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="100">
+      <c r="B10" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="98">
         <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="98">
         <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="100">
+      <c r="B14" s="98">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="98">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B17" s="98">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="100">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="98">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="100">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="B17" s="100">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="98">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="100">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="100">
-        <v>500</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="100">
+      <c r="B20" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="100">
+      <c r="B21" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="100">
+      <c r="B22" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="100">
+      <c r="B23" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="100">
+      <c r="B24" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="100">
+      <c r="B25" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="100">
+      <c r="B26" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="100">
+      <c r="B27" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="109">
+      <c r="B28" s="107">
         <v>500</v>
       </c>
     </row>
@@ -6538,32 +6529,32 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="111">
         <v>50000</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="111">
         <v>50000</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="111">
         <v>50000</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3" s="111">
         <v>50000</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="111">
         <v>50000</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="114"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
       <c r="L3" s="75"/>
       <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6917,41 +6908,41 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111">
         <v>14830.817816703033</v>
       </c>
       <c r="H3" s="72">
         <v>14293.87494883082</v>
       </c>
-      <c r="I3" s="113">
+      <c r="I3" s="111">
         <v>13824.917187280023</v>
       </c>
-      <c r="J3" s="113">
+      <c r="J3" s="111">
         <v>13410.239747200454</v>
       </c>
-      <c r="K3" s="114">
+      <c r="K3" s="112">
         <v>13039.766210409243</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+        <v>237</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="10"/>
@@ -7249,34 +7240,34 @@
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="130">
+      <c r="B6" s="128">
         <v>20</v>
       </c>
-      <c r="C6" s="130">
+      <c r="C6" s="128">
         <v>19.724654089867183</v>
       </c>
-      <c r="D6" s="130">
+      <c r="D6" s="128">
         <v>19.565347714583421</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="128">
         <v>19.45309894824571</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="128">
         <v>19.366475714512596</v>
       </c>
-      <c r="G6" s="130">
+      <c r="G6" s="128">
         <v>19.29598579090657</v>
       </c>
-      <c r="H6" s="130">
+      <c r="H6" s="128">
         <v>19.236587614095988</v>
       </c>
-      <c r="I6" s="130">
+      <c r="I6" s="128">
         <v>19.185282386505289</v>
       </c>
-      <c r="J6" s="130">
+      <c r="J6" s="128">
         <v>19.14014155962774</v>
       </c>
-      <c r="K6" s="131">
+      <c r="K6" s="129">
         <v>19.099851720428717</v>
       </c>
       <c r="L6" s="83"/>
@@ -7319,7 +7310,7 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="36">
         <v>0</v>
@@ -7593,56 +7584,56 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>228</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>229</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="112">
+      <c r="B3" s="110">
         <v>14206</v>
       </c>
-      <c r="C3" s="113">
-        <v>0</v>
-      </c>
-      <c r="D3" s="113">
-        <v>0</v>
-      </c>
-      <c r="E3" s="113">
-        <v>0</v>
-      </c>
-      <c r="F3" s="113">
-        <v>0</v>
-      </c>
-      <c r="G3" s="113">
-        <v>0</v>
-      </c>
-      <c r="H3" s="113">
-        <v>0</v>
-      </c>
-      <c r="I3" s="113">
-        <v>0</v>
-      </c>
-      <c r="J3" s="110">
+      <c r="C3" s="111">
+        <v>0</v>
+      </c>
+      <c r="D3" s="111">
+        <v>0</v>
+      </c>
+      <c r="E3" s="111">
+        <v>0</v>
+      </c>
+      <c r="F3" s="111">
+        <v>0</v>
+      </c>
+      <c r="G3" s="111">
+        <v>0</v>
+      </c>
+      <c r="H3" s="111">
+        <v>0</v>
+      </c>
+      <c r="I3" s="111">
+        <v>0</v>
+      </c>
+      <c r="J3" s="108">
         <v>0</v>
       </c>
       <c r="K3" s="7">
@@ -7657,7 +7648,7 @@
       <c r="N3" s="77">
         <v>0</v>
       </c>
-      <c r="O3" s="103">
+      <c r="O3" s="101">
         <v>0</v>
       </c>
       <c r="P3" s="7"/>
@@ -7676,7 +7667,7 @@
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="101">
         <v>0</v>
       </c>
       <c r="C4" s="7">
@@ -7715,7 +7706,7 @@
       <c r="N4" s="77">
         <v>0</v>
       </c>
-      <c r="O4" s="103">
+      <c r="O4" s="101">
         <v>0</v>
       </c>
       <c r="P4" s="7"/>
@@ -7734,7 +7725,7 @@
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="101">
         <v>0</v>
       </c>
       <c r="C5" s="7">
@@ -7773,7 +7764,7 @@
       <c r="N5" s="77">
         <v>0</v>
       </c>
-      <c r="O5" s="103">
+      <c r="O5" s="101">
         <v>0</v>
       </c>
       <c r="P5" s="7"/>
@@ -7792,7 +7783,7 @@
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="109">
         <v>0</v>
       </c>
       <c r="C6" s="78">
@@ -7829,7 +7820,7 @@
       <c r="N6" s="79">
         <v>0</v>
       </c>
-      <c r="O6" s="111">
+      <c r="O6" s="109">
         <v>0</v>
       </c>
       <c r="P6" s="78"/>
@@ -7848,47 +7839,47 @@
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="113">
-        <v>0</v>
-      </c>
-      <c r="C7" s="113">
-        <v>0</v>
-      </c>
-      <c r="D7" s="113">
-        <v>0</v>
-      </c>
-      <c r="E7" s="113">
-        <v>0</v>
-      </c>
-      <c r="F7" s="113">
-        <v>0</v>
-      </c>
-      <c r="G7" s="113">
-        <v>0</v>
-      </c>
-      <c r="H7" s="113">
-        <v>0</v>
-      </c>
-      <c r="I7" s="113">
+      <c r="B7" s="111">
+        <v>0</v>
+      </c>
+      <c r="C7" s="111">
+        <v>0</v>
+      </c>
+      <c r="D7" s="111">
+        <v>0</v>
+      </c>
+      <c r="E7" s="111">
+        <v>0</v>
+      </c>
+      <c r="F7" s="111">
+        <v>0</v>
+      </c>
+      <c r="G7" s="111">
+        <v>0</v>
+      </c>
+      <c r="H7" s="111">
+        <v>0</v>
+      </c>
+      <c r="I7" s="111">
         <v>42857</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="114"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="112"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="78">
         <v>0</v>
@@ -7927,7 +7918,7 @@
       <c r="N8" s="79">
         <v>0</v>
       </c>
-      <c r="O8" s="111">
+      <c r="O8" s="109">
         <v>0</v>
       </c>
       <c r="P8" s="78"/>
@@ -7946,31 +7937,31 @@
       <c r="A9" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="112">
-        <v>0</v>
-      </c>
-      <c r="C9" s="113">
+      <c r="B9" s="110">
+        <v>0</v>
+      </c>
+      <c r="C9" s="111">
         <v>42857</v>
       </c>
-      <c r="D9" s="113">
-        <v>0</v>
-      </c>
-      <c r="E9" s="113">
-        <v>0</v>
-      </c>
-      <c r="F9" s="113">
-        <v>0</v>
-      </c>
-      <c r="G9" s="113">
-        <v>0</v>
-      </c>
-      <c r="H9" s="113">
-        <v>0</v>
-      </c>
-      <c r="I9" s="113">
-        <v>0</v>
-      </c>
-      <c r="J9" s="110">
+      <c r="D9" s="111">
+        <v>0</v>
+      </c>
+      <c r="E9" s="111">
+        <v>0</v>
+      </c>
+      <c r="F9" s="111">
+        <v>0</v>
+      </c>
+      <c r="G9" s="111">
+        <v>0</v>
+      </c>
+      <c r="H9" s="111">
+        <v>0</v>
+      </c>
+      <c r="I9" s="111">
+        <v>0</v>
+      </c>
+      <c r="J9" s="108">
         <v>0</v>
       </c>
       <c r="K9" s="7">
@@ -7985,7 +7976,7 @@
       <c r="N9" s="77">
         <v>0</v>
       </c>
-      <c r="O9" s="103">
+      <c r="O9" s="101">
         <v>0</v>
       </c>
       <c r="P9" s="7"/>
@@ -8004,7 +7995,7 @@
       <c r="A10" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="7">
         <v>0</v>
       </c>
@@ -8039,7 +8030,7 @@
       <c r="N10" s="77">
         <v>0</v>
       </c>
-      <c r="O10" s="103">
+      <c r="O10" s="101">
         <v>0</v>
       </c>
       <c r="P10" s="7"/>
@@ -8058,7 +8049,7 @@
       <c r="A11" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="103">
+      <c r="B11" s="101">
         <v>0</v>
       </c>
       <c r="C11" s="7"/>
@@ -8095,7 +8086,7 @@
       <c r="N11" s="77">
         <v>0</v>
       </c>
-      <c r="O11" s="103">
+      <c r="O11" s="101">
         <v>0</v>
       </c>
       <c r="P11" s="7"/>
@@ -8114,7 +8105,7 @@
       <c r="A12" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="103">
+      <c r="B12" s="101">
         <v>0</v>
       </c>
       <c r="C12" s="7">
@@ -8151,7 +8142,7 @@
       <c r="N12" s="77">
         <v>0</v>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="101">
         <v>0</v>
       </c>
       <c r="P12" s="7"/>
@@ -8170,7 +8161,7 @@
       <c r="A13" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="101">
         <v>0</v>
       </c>
       <c r="C13" s="7"/>
@@ -8207,7 +8198,7 @@
       <c r="N13" s="77">
         <v>0</v>
       </c>
-      <c r="O13" s="103">
+      <c r="O13" s="101">
         <v>0</v>
       </c>
       <c r="P13" s="7"/>
@@ -8226,7 +8217,7 @@
       <c r="A14" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="101">
         <v>0</v>
       </c>
       <c r="C14" s="7">
@@ -8263,7 +8254,7 @@
       <c r="N14" s="77">
         <v>0</v>
       </c>
-      <c r="O14" s="103">
+      <c r="O14" s="101">
         <v>0</v>
       </c>
       <c r="P14" s="7"/>
@@ -8282,7 +8273,7 @@
       <c r="A15" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="101">
         <v>0</v>
       </c>
       <c r="C15" s="7">
@@ -8317,7 +8308,7 @@
       <c r="N15" s="77">
         <v>0</v>
       </c>
-      <c r="O15" s="103">
+      <c r="O15" s="101">
         <v>0</v>
       </c>
       <c r="P15" s="7"/>
@@ -8336,7 +8327,7 @@
       <c r="A16" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="101">
         <v>0</v>
       </c>
       <c r="C16" s="7">
@@ -8371,7 +8362,7 @@
       <c r="N16" s="77">
         <v>0</v>
       </c>
-      <c r="O16" s="103">
+      <c r="O16" s="101">
         <v>0</v>
       </c>
       <c r="P16" s="7"/>
@@ -8390,7 +8381,7 @@
       <c r="A17" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="111">
+      <c r="B17" s="109">
         <v>0</v>
       </c>
       <c r="C17" s="78">
@@ -8429,7 +8420,7 @@
       <c r="N17" s="79">
         <v>0</v>
       </c>
-      <c r="O17" s="111">
+      <c r="O17" s="109">
         <v>0</v>
       </c>
       <c r="P17" s="78"/>
@@ -8487,7 +8478,7 @@
       <c r="N18" s="77">
         <v>0</v>
       </c>
-      <c r="O18" s="103">
+      <c r="O18" s="101">
         <v>0</v>
       </c>
       <c r="P18" s="7"/>
@@ -8500,7 +8491,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8515,7 +8506,7 @@
       <c r="L19" s="77"/>
       <c r="M19" s="7"/>
       <c r="N19" s="77"/>
-      <c r="O19" s="103"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="77"/>
       <c r="R19" s="7"/>
@@ -8526,7 +8517,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -8541,7 +8532,7 @@
       <c r="L20" s="79"/>
       <c r="M20" s="78"/>
       <c r="N20" s="79"/>
-      <c r="O20" s="111"/>
+      <c r="O20" s="109"/>
       <c r="P20" s="78"/>
       <c r="Q20" s="79"/>
       <c r="R20" s="78"/>
@@ -8593,7 +8584,7 @@
       <c r="N21" s="92">
         <v>0</v>
       </c>
-      <c r="O21" s="115">
+      <c r="O21" s="113">
         <v>0</v>
       </c>
       <c r="P21" s="91"/>
@@ -8649,7 +8640,7 @@
       <c r="N22" s="77">
         <v>0</v>
       </c>
-      <c r="O22" s="103">
+      <c r="O22" s="101">
         <v>0</v>
       </c>
       <c r="P22" s="7"/>
@@ -8705,7 +8696,7 @@
       <c r="N23" s="82">
         <v>0</v>
       </c>
-      <c r="O23" s="104"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="82"/>
       <c r="R23" s="8"/>
@@ -8747,7 +8738,7 @@
   <sheetData>
     <row r="1" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -8797,61 +8788,61 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="80" t="s">
         <v>225</v>
-      </c>
-      <c r="Q2" s="80" t="s">
-        <v>226</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
-      <c r="BH2" s="101"/>
-      <c r="BI2" s="101"/>
-      <c r="BJ2" s="101"/>
-      <c r="BK2" s="101"/>
+        <v>237</v>
+      </c>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="99"/>
+      <c r="AX2" s="99"/>
+      <c r="AY2" s="99"/>
+      <c r="AZ2" s="99"/>
+      <c r="BA2" s="99"/>
+      <c r="BB2" s="99"/>
+      <c r="BC2" s="99"/>
+      <c r="BD2" s="99"/>
+      <c r="BE2" s="99"/>
+      <c r="BF2" s="99"/>
+      <c r="BG2" s="99"/>
+      <c r="BH2" s="99"/>
+      <c r="BI2" s="99"/>
+      <c r="BJ2" s="99"/>
+      <c r="BK2" s="99"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -8872,7 +8863,7 @@
       <c r="L3" s="77"/>
       <c r="M3" s="7"/>
       <c r="N3" s="77"/>
-      <c r="O3" s="103"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="77"/>
       <c r="R3" s="7"/>
@@ -8941,7 +8932,7 @@
       <c r="L4" s="77"/>
       <c r="M4" s="7"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="103"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="77"/>
       <c r="R4" s="7"/>
@@ -9010,7 +9001,7 @@
       <c r="L5" s="77"/>
       <c r="M5" s="7"/>
       <c r="N5" s="77"/>
-      <c r="O5" s="103"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="77"/>
       <c r="R5" s="7"/>
@@ -9077,7 +9068,7 @@
       <c r="L6" s="79"/>
       <c r="M6" s="78"/>
       <c r="N6" s="79"/>
-      <c r="O6" s="111"/>
+      <c r="O6" s="109"/>
       <c r="P6" s="78"/>
       <c r="Q6" s="79"/>
       <c r="R6" s="78"/>
@@ -9131,26 +9122,26 @@
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113">
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111">
         <v>6</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="114"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="112"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -9198,7 +9189,7 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -9213,7 +9204,7 @@
       <c r="L8" s="79"/>
       <c r="M8" s="78"/>
       <c r="N8" s="79"/>
-      <c r="O8" s="111"/>
+      <c r="O8" s="109"/>
       <c r="P8" s="78"/>
       <c r="Q8" s="79"/>
       <c r="R8" s="78"/>
@@ -9284,7 +9275,7 @@
       <c r="L9" s="77"/>
       <c r="M9" s="7"/>
       <c r="N9" s="77"/>
-      <c r="O9" s="103"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="7"/>
@@ -9355,7 +9346,7 @@
       <c r="L10" s="77"/>
       <c r="M10" s="7"/>
       <c r="N10" s="77"/>
-      <c r="O10" s="103"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="77"/>
       <c r="R10" s="7"/>
@@ -9424,7 +9415,7 @@
       <c r="L11" s="77"/>
       <c r="M11" s="7"/>
       <c r="N11" s="77"/>
-      <c r="O11" s="103"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="7"/>
@@ -9495,7 +9486,7 @@
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="77"/>
-      <c r="O12" s="103"/>
+      <c r="O12" s="101"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="7"/>
@@ -9564,7 +9555,7 @@
       <c r="L13" s="77"/>
       <c r="M13" s="7"/>
       <c r="N13" s="77"/>
-      <c r="O13" s="103"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="7"/>
@@ -9633,7 +9624,7 @@
       <c r="L14" s="77"/>
       <c r="M14" s="7"/>
       <c r="N14" s="77"/>
-      <c r="O14" s="103"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="7"/>
@@ -9702,7 +9693,7 @@
       <c r="L15" s="77"/>
       <c r="M15" s="7"/>
       <c r="N15" s="77"/>
-      <c r="O15" s="103"/>
+      <c r="O15" s="101"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="77"/>
       <c r="R15" s="7"/>
@@ -9769,7 +9760,7 @@
       <c r="L16" s="77"/>
       <c r="M16" s="7"/>
       <c r="N16" s="77"/>
-      <c r="O16" s="103"/>
+      <c r="O16" s="101"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="77"/>
       <c r="R16" s="7"/>
@@ -9836,7 +9827,7 @@
       <c r="L17" s="79"/>
       <c r="M17" s="78"/>
       <c r="N17" s="79"/>
-      <c r="O17" s="111"/>
+      <c r="O17" s="109"/>
       <c r="P17" s="78"/>
       <c r="Q17" s="79"/>
       <c r="R17" s="78"/>
@@ -9903,7 +9894,7 @@
       <c r="L18" s="77"/>
       <c r="M18" s="7"/>
       <c r="N18" s="77"/>
-      <c r="O18" s="103"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="77"/>
       <c r="R18" s="7"/>
@@ -9955,7 +9946,7 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -9970,7 +9961,7 @@
       <c r="L19" s="77"/>
       <c r="M19" s="7"/>
       <c r="N19" s="77"/>
-      <c r="O19" s="103"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="77"/>
       <c r="R19" s="7"/>
@@ -10022,7 +10013,7 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -10037,7 +10028,7 @@
       <c r="L20" s="79"/>
       <c r="M20" s="78"/>
       <c r="N20" s="79"/>
-      <c r="O20" s="111"/>
+      <c r="O20" s="109"/>
       <c r="P20" s="78"/>
       <c r="Q20" s="79"/>
       <c r="R20" s="78"/>
@@ -10104,7 +10095,7 @@
       <c r="L21" s="92"/>
       <c r="M21" s="91"/>
       <c r="N21" s="92"/>
-      <c r="O21" s="115"/>
+      <c r="O21" s="113"/>
       <c r="P21" s="91"/>
       <c r="Q21" s="92"/>
       <c r="R21" s="91">
@@ -10173,7 +10164,7 @@
       <c r="L22" s="77"/>
       <c r="M22" s="7"/>
       <c r="N22" s="77"/>
-      <c r="O22" s="103"/>
+      <c r="O22" s="101"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="77"/>
       <c r="R22" s="7"/>
@@ -10240,7 +10231,7 @@
       <c r="L23" s="82"/>
       <c r="M23" s="8"/>
       <c r="N23" s="82"/>
-      <c r="O23" s="104"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="82"/>
       <c r="R23" s="8"/>
@@ -10291,7 +10282,7 @@
       <c r="BK23" s="6"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -10356,7 +10347,7 @@
       <c r="BK24" s="6"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -10421,7 +10412,7 @@
       <c r="BK25" s="6"/>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -10486,7 +10477,7 @@
       <c r="BK26" s="6"/>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -10551,7 +10542,7 @@
       <c r="BK27" s="6"/>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -10616,7 +10607,7 @@
       <c r="BK28" s="6"/>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -10681,7 +10672,7 @@
       <c r="BK29" s="6"/>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -10746,7 +10737,7 @@
       <c r="BK30" s="6"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -10811,7 +10802,7 @@
       <c r="BK31" s="6"/>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -10876,7 +10867,7 @@
       <c r="BK32" s="6"/>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -10941,7 +10932,7 @@
       <c r="BK33" s="6"/>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -11006,7 +10997,7 @@
       <c r="BK34" s="6"/>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A35" s="102"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -11071,7 +11062,7 @@
       <c r="BK35" s="6"/>
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A36" s="102"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -11136,7 +11127,7 @@
       <c r="BK36" s="6"/>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A37" s="102"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -11201,7 +11192,7 @@
       <c r="BK37" s="6"/>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A38" s="102"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -11266,7 +11257,7 @@
       <c r="BK38" s="6"/>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A39" s="102"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -11331,7 +11322,7 @@
       <c r="BK39" s="6"/>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A40" s="102"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -11396,7 +11387,7 @@
       <c r="BK40" s="6"/>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A41" s="102"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -11461,7 +11452,7 @@
       <c r="BK41" s="6"/>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A42" s="102"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -11526,7 +11517,7 @@
       <c r="BK42" s="6"/>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A43" s="102"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -11591,7 +11582,7 @@
       <c r="BK43" s="6"/>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A44" s="102"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -11656,7 +11647,7 @@
       <c r="BK44" s="6"/>
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A45" s="102"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -11721,7 +11712,7 @@
       <c r="BK45" s="6"/>
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A46" s="102"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -11786,7 +11777,7 @@
       <c r="BK46" s="6"/>
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A47" s="102"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -11851,7 +11842,7 @@
       <c r="BK47" s="6"/>
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A48" s="102"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -11916,7 +11907,7 @@
       <c r="BK48" s="6"/>
     </row>
     <row r="49" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A49" s="102"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -11981,7 +11972,7 @@
       <c r="BK49" s="6"/>
     </row>
     <row r="50" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A50" s="102"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -12046,7 +12037,7 @@
       <c r="BK50" s="6"/>
     </row>
     <row r="51" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A51" s="102"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -12111,7 +12102,7 @@
       <c r="BK51" s="6"/>
     </row>
     <row r="52" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A52" s="102"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -12176,7 +12167,7 @@
       <c r="BK52" s="6"/>
     </row>
     <row r="53" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -12241,7 +12232,7 @@
       <c r="BK53" s="6"/>
     </row>
     <row r="54" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A54" s="102"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -12306,7 +12297,7 @@
       <c r="BK54" s="6"/>
     </row>
     <row r="55" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A55" s="102"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -12371,7 +12362,7 @@
       <c r="BK55" s="6"/>
     </row>
     <row r="56" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -12436,7 +12427,7 @@
       <c r="BK56" s="6"/>
     </row>
     <row r="57" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -12501,7 +12492,7 @@
       <c r="BK57" s="6"/>
     </row>
     <row r="58" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A58" s="102"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -12566,7 +12557,7 @@
       <c r="BK58" s="6"/>
     </row>
     <row r="59" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A59" s="102"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -12631,7 +12622,7 @@
       <c r="BK59" s="6"/>
     </row>
     <row r="60" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A60" s="102"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -12696,7 +12687,7 @@
       <c r="BK60" s="6"/>
     </row>
     <row r="61" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A61" s="102"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -12761,7 +12752,7 @@
       <c r="BK61" s="6"/>
     </row>
     <row r="62" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A62" s="102"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -12826,7 +12817,7 @@
       <c r="BK62" s="6"/>
     </row>
     <row r="63" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A63" s="102"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -12991,7 +12982,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="35">
         <v>0</v>
@@ -12999,7 +12990,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="37">
         <v>0</v>
@@ -13045,10 +13036,10 @@
         <v>120</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>211</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13116,7 +13107,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>177</v>
@@ -13151,7 +13142,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -13186,7 +13177,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -13221,7 +13212,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -13284,7 +13275,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>177</v>
@@ -13319,7 +13310,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="34">
         <v>36000</v>
@@ -13354,7 +13345,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="34">
         <v>12580</v>
@@ -13389,7 +13380,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="36">
         <v>51112</v>
@@ -13572,7 +13563,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="37">
         <v>0</v>
@@ -13621,7 +13612,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -13678,7 +13669,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="37">
         <v>30000</v>
@@ -13922,7 +13913,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -14070,7 +14061,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="29">
         <v>0.5</v>
@@ -14081,7 +14072,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="29">
         <v>0.5</v>
@@ -14092,7 +14083,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
@@ -14103,7 +14094,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -14150,13 +14141,13 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="114">
+      <c r="B3" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -14240,25 +14231,25 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>228</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>229</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -14304,7 +14295,7 @@
       <c r="N3" s="77">
         <v>0</v>
       </c>
-      <c r="O3" s="103">
+      <c r="O3" s="101">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -14372,7 +14363,7 @@
       <c r="N4" s="77">
         <v>0</v>
       </c>
-      <c r="O4" s="103">
+      <c r="O4" s="101">
         <v>0</v>
       </c>
       <c r="P4" s="7">
@@ -14440,7 +14431,7 @@
       <c r="N5" s="77">
         <v>0</v>
       </c>
-      <c r="O5" s="103">
+      <c r="O5" s="101">
         <v>0</v>
       </c>
       <c r="P5" s="7">
@@ -14508,7 +14499,7 @@
       <c r="N6" s="79">
         <v>0</v>
       </c>
-      <c r="O6" s="111">
+      <c r="O6" s="109">
         <v>0</v>
       </c>
       <c r="P6" s="78">
@@ -14537,73 +14528,73 @@
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="113">
-        <v>0</v>
-      </c>
-      <c r="C7" s="113">
-        <v>0</v>
-      </c>
-      <c r="D7" s="113">
-        <v>0</v>
-      </c>
-      <c r="E7" s="113">
-        <v>0</v>
-      </c>
-      <c r="F7" s="113">
-        <v>0</v>
-      </c>
-      <c r="G7" s="113">
-        <v>0</v>
-      </c>
-      <c r="H7" s="113">
-        <v>0</v>
-      </c>
-      <c r="I7" s="113">
+      <c r="B7" s="111">
+        <v>0</v>
+      </c>
+      <c r="C7" s="111">
+        <v>0</v>
+      </c>
+      <c r="D7" s="111">
+        <v>0</v>
+      </c>
+      <c r="E7" s="111">
+        <v>0</v>
+      </c>
+      <c r="F7" s="111">
+        <v>0</v>
+      </c>
+      <c r="G7" s="111">
+        <v>0</v>
+      </c>
+      <c r="H7" s="111">
+        <v>0</v>
+      </c>
+      <c r="I7" s="111">
         <v>1E-4</v>
       </c>
-      <c r="J7" s="110">
-        <v>0</v>
-      </c>
-      <c r="K7" s="113">
-        <v>0</v>
-      </c>
-      <c r="L7" s="110">
-        <v>0</v>
-      </c>
-      <c r="M7" s="113">
-        <v>0</v>
-      </c>
-      <c r="N7" s="110">
-        <v>0</v>
-      </c>
-      <c r="O7" s="112">
-        <v>0</v>
-      </c>
-      <c r="P7" s="113">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="110">
-        <v>0</v>
-      </c>
-      <c r="R7" s="113">
-        <v>0</v>
-      </c>
-      <c r="S7" s="113">
-        <v>0</v>
-      </c>
-      <c r="T7" s="110">
-        <v>0</v>
-      </c>
-      <c r="U7" s="113">
-        <v>0</v>
-      </c>
-      <c r="V7" s="114">
+      <c r="J7" s="108">
+        <v>0</v>
+      </c>
+      <c r="K7" s="111">
+        <v>0</v>
+      </c>
+      <c r="L7" s="108">
+        <v>0</v>
+      </c>
+      <c r="M7" s="111">
+        <v>0</v>
+      </c>
+      <c r="N7" s="108">
+        <v>0</v>
+      </c>
+      <c r="O7" s="110">
+        <v>0</v>
+      </c>
+      <c r="P7" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="108">
+        <v>0</v>
+      </c>
+      <c r="R7" s="111">
+        <v>0</v>
+      </c>
+      <c r="S7" s="111">
+        <v>0</v>
+      </c>
+      <c r="T7" s="108">
+        <v>0</v>
+      </c>
+      <c r="U7" s="111">
+        <v>0</v>
+      </c>
+      <c r="V7" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="78">
         <v>0</v>
@@ -14644,7 +14635,7 @@
       <c r="N8" s="79">
         <v>0</v>
       </c>
-      <c r="O8" s="111">
+      <c r="O8" s="109">
         <v>0</v>
       </c>
       <c r="P8" s="78">
@@ -14712,7 +14703,7 @@
       <c r="N9" s="77">
         <v>0</v>
       </c>
-      <c r="O9" s="103">
+      <c r="O9" s="101">
         <v>0</v>
       </c>
       <c r="P9" s="7">
@@ -14780,7 +14771,7 @@
       <c r="N10" s="77">
         <v>0</v>
       </c>
-      <c r="O10" s="103">
+      <c r="O10" s="101">
         <v>0</v>
       </c>
       <c r="P10" s="7">
@@ -14848,7 +14839,7 @@
       <c r="N11" s="77">
         <v>0</v>
       </c>
-      <c r="O11" s="103">
+      <c r="O11" s="101">
         <v>0</v>
       </c>
       <c r="P11" s="7">
@@ -14916,7 +14907,7 @@
       <c r="N12" s="77">
         <v>0</v>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="101">
         <v>0</v>
       </c>
       <c r="P12" s="7">
@@ -14984,7 +14975,7 @@
       <c r="N13" s="77">
         <v>0</v>
       </c>
-      <c r="O13" s="103">
+      <c r="O13" s="101">
         <v>0</v>
       </c>
       <c r="P13" s="7">
@@ -15052,7 +15043,7 @@
       <c r="N14" s="77">
         <v>0</v>
       </c>
-      <c r="O14" s="103">
+      <c r="O14" s="101">
         <v>0</v>
       </c>
       <c r="P14" s="7">
@@ -15120,7 +15111,7 @@
       <c r="N15" s="77">
         <v>0</v>
       </c>
-      <c r="O15" s="103">
+      <c r="O15" s="101">
         <v>0</v>
       </c>
       <c r="P15" s="7">
@@ -15188,7 +15179,7 @@
       <c r="N16" s="77">
         <v>0</v>
       </c>
-      <c r="O16" s="103">
+      <c r="O16" s="101">
         <v>0</v>
       </c>
       <c r="P16" s="7">
@@ -15256,7 +15247,7 @@
       <c r="N17" s="79">
         <v>1E-4</v>
       </c>
-      <c r="O17" s="111">
+      <c r="O17" s="109">
         <v>0</v>
       </c>
       <c r="P17" s="78">
@@ -15324,7 +15315,7 @@
       <c r="N18" s="77">
         <v>0</v>
       </c>
-      <c r="O18" s="103">
+      <c r="O18" s="101">
         <v>0</v>
       </c>
       <c r="P18" s="7">
@@ -15333,13 +15324,13 @@
       <c r="Q18" s="77">
         <v>0</v>
       </c>
-      <c r="R18" s="112">
-        <v>0</v>
-      </c>
-      <c r="S18" s="113">
-        <v>0</v>
-      </c>
-      <c r="T18" s="110">
+      <c r="R18" s="110">
+        <v>0</v>
+      </c>
+      <c r="S18" s="111">
+        <v>0</v>
+      </c>
+      <c r="T18" s="108">
         <v>0</v>
       </c>
       <c r="U18" s="7">
@@ -15351,7 +15342,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -15392,7 +15383,7 @@
       <c r="N19" s="77">
         <v>0</v>
       </c>
-      <c r="O19" s="103">
+      <c r="O19" s="101">
         <v>0</v>
       </c>
       <c r="P19" s="7">
@@ -15401,7 +15392,7 @@
       <c r="Q19" s="77">
         <v>0</v>
       </c>
-      <c r="R19" s="103">
+      <c r="R19" s="101">
         <v>1E-4</v>
       </c>
       <c r="S19" s="7">
@@ -15419,7 +15410,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="78">
         <v>0</v>
@@ -15460,7 +15451,7 @@
       <c r="N20" s="79">
         <v>0</v>
       </c>
-      <c r="O20" s="111">
+      <c r="O20" s="109">
         <v>0</v>
       </c>
       <c r="P20" s="78">
@@ -15469,7 +15460,7 @@
       <c r="Q20" s="79">
         <v>0</v>
       </c>
-      <c r="R20" s="111">
+      <c r="R20" s="109">
         <v>0</v>
       </c>
       <c r="S20" s="78">
@@ -15528,7 +15519,7 @@
       <c r="N21" s="92">
         <v>0</v>
       </c>
-      <c r="O21" s="115">
+      <c r="O21" s="113">
         <v>0</v>
       </c>
       <c r="P21" s="91">
@@ -15596,7 +15587,7 @@
       <c r="N22" s="77">
         <v>0</v>
       </c>
-      <c r="O22" s="103">
+      <c r="O22" s="101">
         <v>0</v>
       </c>
       <c r="P22" s="7">
@@ -15664,7 +15655,7 @@
       <c r="N23" s="82">
         <v>0</v>
       </c>
-      <c r="O23" s="104">
+      <c r="O23" s="102">
         <v>1E-4</v>
       </c>
       <c r="P23" s="8">
@@ -15807,13 +15798,13 @@
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="112">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="81">
         <v>95</v>
@@ -15923,7 +15914,7 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="8">
         <v>3.5</v>
@@ -16076,10 +16067,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16088,51 +16079,70 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="97">
+        <v>111</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="97">
+      <c r="D3" s="34">
         <v>20000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="96">
+      <c r="E3" s="43">
         <v>50000</v>
       </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="36">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="134"/>
+      <c r="B5" s="135"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="134"/>
+      <c r="B6" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16199,7 +16209,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="34">
         <v>18</v>
@@ -16216,7 +16226,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="36">
         <v>21</v>
@@ -16262,7 +16272,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -16435,7 +16445,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="34">
         <v>1000</v>
@@ -16455,7 +16465,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="34">
         <v>1000</v>
@@ -16475,7 +16485,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="34">
         <v>500</v>
@@ -16495,7 +16505,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="36">
         <v>500</v>
@@ -16543,7 +16553,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>143</v>
@@ -16594,7 +16604,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="34">
         <v>0</v>
@@ -16611,7 +16621,7 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="36">
         <v>0</v>
@@ -16667,12 +16677,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" s="37">
         <v>300000</v>
@@ -16754,25 +16764,25 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>228</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>229</v>
       </c>
       <c r="U2" s="73" t="s">
         <v>109</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -16783,626 +16793,626 @@
         <v>1.4259999999999999</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L3" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N3" s="77"/>
-      <c r="O3" s="103" t="s">
-        <v>199</v>
+      <c r="O3" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="77"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="77"/>
-      <c r="U3" s="103" t="s">
-        <v>199</v>
-      </c>
-      <c r="V3" s="119"/>
+      <c r="U3" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="V3" s="117"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7">
         <v>1.6847000000000001</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L4" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N4" s="77"/>
-      <c r="O4" s="103" t="s">
-        <v>199</v>
+      <c r="O4" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="77"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="77"/>
-      <c r="U4" s="103" t="s">
-        <v>199</v>
-      </c>
-      <c r="V4" s="119"/>
+      <c r="U4" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="V4" s="117"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7">
         <v>1.2563</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L5" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N5" s="77"/>
-      <c r="O5" s="103" t="s">
-        <v>199</v>
+      <c r="O5" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="77"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="77"/>
-      <c r="U5" s="103" t="s">
-        <v>199</v>
-      </c>
-      <c r="V5" s="119"/>
+      <c r="U5" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="V5" s="117"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J6" s="79">
         <v>2.5074000000000001</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L6" s="79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N6" s="79"/>
-      <c r="O6" s="111" t="s">
-        <v>199</v>
+      <c r="O6" s="109" t="s">
+        <v>198</v>
       </c>
       <c r="P6" s="78"/>
       <c r="Q6" s="79"/>
       <c r="R6" s="78"/>
       <c r="S6" s="78"/>
       <c r="T6" s="79"/>
-      <c r="U6" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="V6" s="124"/>
+      <c r="U6" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="V6" s="122"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="I7" s="113">
+      <c r="B7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="111">
         <v>3.3694000000000002</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="128"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="126"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I8" s="78"/>
       <c r="J8" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="K8" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" s="126" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="K8" s="123" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="124" t="s">
+        <v>198</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="79"/>
-      <c r="O8" s="111" t="s">
-        <v>199</v>
+      <c r="O8" s="109" t="s">
+        <v>198</v>
       </c>
       <c r="P8" s="78"/>
       <c r="Q8" s="79"/>
       <c r="R8" s="78"/>
       <c r="S8" s="78"/>
       <c r="T8" s="79"/>
-      <c r="U8" s="127" t="s">
-        <v>199</v>
-      </c>
-      <c r="V8" s="124"/>
+      <c r="U8" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="V8" s="122"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="122" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="122">
+      <c r="B9" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="120">
         <v>4.0752409775985399</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" s="122">
+        <v>198</v>
+      </c>
+      <c r="K9" s="120">
         <v>4.1717000000000004</v>
       </c>
       <c r="L9" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N9" s="77"/>
-      <c r="O9" s="103"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="119"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="117"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="122">
+      <c r="B10" s="120">
         <v>4.0752409775985399</v>
       </c>
-      <c r="C10" s="122" t="s">
-        <v>199</v>
+      <c r="C10" s="120" t="s">
+        <v>198</v>
       </c>
       <c r="D10" s="7">
         <v>8.2970000000000006</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7">
         <v>1.8142</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L10" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N10" s="77"/>
-      <c r="O10" s="103"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="77"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="119"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="117"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="7">
         <v>8.2970000000000006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" s="7">
         <v>8.3129999999999988</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L11" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>1.4</v>
       </c>
       <c r="N11" s="77"/>
-      <c r="O11" s="103"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="119"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="117"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="7">
         <v>8.3129999999999988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" s="7">
         <v>1.2533000000000001</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L12" s="77">
         <v>1.3163</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N12" s="77"/>
-      <c r="O12" s="103"/>
+      <c r="O12" s="101"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="119"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="117"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="122">
+        <v>198</v>
+      </c>
+      <c r="C13" s="120">
         <v>1.8142</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I13" s="7">
         <v>1.4431</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L13" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N13" s="77"/>
-      <c r="O13" s="103"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="119"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="117"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="7">
         <v>1.2533000000000001</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>1.153</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J14" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N14" s="77"/>
-      <c r="O14" s="103"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="119"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="117"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G15" s="7">
         <v>1.153</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I15" s="7">
         <v>6.0780000000000003</v>
@@ -17411,122 +17421,122 @@
         <v>2.4449000000000001</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L15" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N15" s="77"/>
-      <c r="O15" s="103"/>
+      <c r="O15" s="101"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="77"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="77"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="119"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="117"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7">
         <v>1.4431</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>6.0780000000000003</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L16" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="77"/>
-      <c r="O16" s="103"/>
+      <c r="O16" s="101"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="77"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="77"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="119"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="117"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>2.4449000000000001</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J17" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L17" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N17" s="77">
         <v>2.5</v>
       </c>
-      <c r="O17" s="103"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="77"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="77"/>
-      <c r="U17" s="103"/>
+      <c r="U17" s="101"/>
       <c r="V17" s="81">
         <v>2</v>
       </c>
@@ -17535,33 +17545,33 @@
       <c r="A18" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="112">
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="110">
         <v>2</v>
       </c>
-      <c r="V18" s="119"/>
+      <c r="V18" s="117"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -17586,12 +17596,12 @@
         <v>50</v>
       </c>
       <c r="T19" s="77"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="119"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="117"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -17614,102 +17624,102 @@
       <c r="T20" s="79">
         <v>2</v>
       </c>
-      <c r="U20" s="111"/>
-      <c r="V20" s="119"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="117"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>114</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L21" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N21" s="92"/>
-      <c r="O21" s="115" t="s">
-        <v>199</v>
+      <c r="O21" s="113" t="s">
+        <v>198</v>
       </c>
       <c r="P21" s="91"/>
       <c r="Q21" s="92"/>
       <c r="R21" s="91"/>
       <c r="S21" s="91"/>
       <c r="T21" s="92"/>
-      <c r="U21" s="115">
+      <c r="U21" s="113">
         <v>2.6</v>
       </c>
-      <c r="V21" s="123"/>
+      <c r="V21" s="121"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>117</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L22" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N22" s="77"/>
-      <c r="O22" s="103" t="s">
-        <v>199</v>
+      <c r="O22" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="P22" s="7">
         <v>0.01</v>
@@ -17726,47 +17736,47 @@
       <c r="T22" s="77">
         <v>2</v>
       </c>
-      <c r="U22" s="103"/>
-      <c r="V22" s="119"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="117"/>
     </row>
     <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J23" s="82"/>
       <c r="K23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L23" s="82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N23" s="82"/>
-      <c r="O23" s="104">
+      <c r="O23" s="102">
         <v>0.01</v>
       </c>
       <c r="P23" s="8"/>
@@ -17774,8 +17784,8 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="82"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="118"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="116"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -18101,7 +18111,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18164,7 +18174,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="29">
         <v>0.5</v>
@@ -18175,7 +18185,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="29">
         <v>0.5</v>
@@ -18186,7 +18196,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="29">
         <v>0.5</v>
@@ -18197,7 +18207,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="9">
         <v>0.5</v>
@@ -18228,7 +18238,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18239,7 +18249,7 @@
         <v>190</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -18291,7 +18301,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="29">
         <v>0.99</v>
@@ -18302,7 +18312,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="29">
         <v>0.99</v>
@@ -18313,7 +18323,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="29">
         <v>0.99</v>
@@ -18324,7 +18334,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="9">
         <v>0.99</v>
@@ -18354,7 +18364,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18383,15 +18393,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
-        <v>212</v>
+      <c r="A6" s="114" t="s">
+        <v>211</v>
       </c>
       <c r="B6" s="37">
         <v>1</v>
@@ -18421,7 +18431,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18477,7 +18487,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -18485,7 +18495,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="29">
         <v>0</v>
@@ -18493,7 +18503,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="29">
         <v>0</v>
@@ -18501,7 +18511,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -18537,7 +18547,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -18545,7 +18555,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B3" s="29">
         <v>0.21</v>
@@ -18553,7 +18563,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B4" s="29">
         <v>0.25</v>
@@ -18561,7 +18571,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B5" s="9">
         <v>1.55</v>
@@ -18591,7 +18601,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18612,7 +18622,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="37">
         <v>1</v>
@@ -18644,7 +18654,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18652,12 +18662,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="35">
         <v>110</v>
@@ -18665,7 +18675,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="41">
         <v>0.03</v>
@@ -18673,24 +18683,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="35">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="37">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -18717,7 +18727,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18725,12 +18735,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="41">
         <v>0.08</v>
@@ -18738,7 +18748,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="37">
         <v>20</v>
@@ -18775,7 +18785,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -18785,7 +18795,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -18793,7 +18803,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -18834,10 +18844,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -18912,10 +18922,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -18928,7 +18938,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="49">
         <v>150000</v>
@@ -18936,7 +18946,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="50">
         <v>150000</v>
@@ -18978,7 +18988,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -18991,7 +19001,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="50">
         <v>150000</v>
@@ -19072,19 +19082,19 @@
       <c r="A4" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="129">
-        <v>0</v>
-      </c>
-      <c r="D4" s="130">
+      <c r="C4" s="127">
+        <v>0</v>
+      </c>
+      <c r="D4" s="128">
         <v>68</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="128">
         <v>70</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="129">
         <v>72</v>
       </c>
     </row>
@@ -19112,19 +19122,19 @@
       <c r="A6" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="129">
-        <v>0</v>
-      </c>
-      <c r="D6" s="130">
+      <c r="C6" s="127">
+        <v>0</v>
+      </c>
+      <c r="D6" s="128">
         <v>68</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="128">
         <v>70</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="129">
         <v>72</v>
       </c>
     </row>
@@ -19133,7 +19143,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="34">
         <v>0</v>
@@ -19152,19 +19162,19 @@
       <c r="A8" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="126" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="129">
-        <v>0</v>
-      </c>
-      <c r="D8" s="130">
+      <c r="B8" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="127">
+        <v>0</v>
+      </c>
+      <c r="D8" s="128">
         <v>68</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="128">
         <v>70</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="129">
         <v>72</v>
       </c>
     </row>
@@ -19173,7 +19183,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="34">
         <v>0</v>
@@ -19193,7 +19203,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="42">
         <v>0</v>
@@ -19352,7 +19362,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -19369,7 +19379,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -19417,14 +19427,14 @@
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="132">
+        <v>241</v>
+      </c>
+      <c r="B3" s="130">
         <v>0.2</v>
       </c>
     </row>
@@ -19440,7 +19450,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -19482,7 +19492,7 @@
       <c r="A3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="131" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="7">
@@ -19505,7 +19515,7 @@
       <c r="A4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="131" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="7">
@@ -19528,7 +19538,7 @@
       <c r="A5" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="131" t="s">
         <v>126</v>
       </c>
       <c r="C5" s="7">
@@ -19551,7 +19561,7 @@
       <c r="A6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="132" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="8">

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF9384-E936-4E38-81FB-49B53C9968FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFADE7-28FE-4D90-9645-D0A2B63A6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -110,6 +110,14 @@
     <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
+    <sheet name="SWDDeep" sheetId="136" r:id="rId98"/>
+    <sheet name="SWDAveragePressure" sheetId="137" r:id="rId99"/>
+    <sheet name="SWDProxPAWell" sheetId="138" r:id="rId100"/>
+    <sheet name="SWDProxInactiveWell" sheetId="139" r:id="rId101"/>
+    <sheet name="SWDProxEQ" sheetId="140" r:id="rId102"/>
+    <sheet name="SWDProxFault" sheetId="141" r:id="rId103"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="142" r:id="rId104"/>
+    <sheet name="SWDRiskFactors" sheetId="143" r:id="rId105"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -136,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="265">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -868,6 +876,69 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>SWDs - shallow (0) or deep (1)</t>
+  </si>
+  <si>
+    <t>Average pressure/depth in vicinity of well [psi/ft]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to P&amp;A'd well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to inactive/temporarily abandoned formerly producing well (completed prior to 2000) [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to earthquakes &gt;= 3.0 magnitude [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to fault [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to high pressure or low pressure injection well [miles]</t>
+  </si>
+  <si>
+    <t>SWD risk factors</t>
+  </si>
+  <si>
+    <t>orphan_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>orphan_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_threshold</t>
+  </si>
+  <si>
+    <t>psi/ft</t>
+  </si>
+  <si>
+    <t>LP_threshold</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1594,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1842,10 +1913,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2888,6 +2978,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EF207-8B26-4E93-AAD9-4F6D1F5C590F}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BC5ACA-26E9-4576-B54F-73B77F3A56A8}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6853B7F8-846E-4467-BB0E-C7EF4435D8D7}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042D7ED9-F43C-4E3C-B3D3-C88C122008A3}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC59DBD-368E-464E-9846-1653485985D2}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDD4D73-CE90-48D4-AEC0-CA774BB1EF4B}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="135" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="136"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="139" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="140">
+        <v>1.86</v>
+      </c>
+      <c r="C3" s="136"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="139" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="140">
+        <v>2</v>
+      </c>
+      <c r="C4" s="136"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="140">
+        <v>1.86</v>
+      </c>
+      <c r="C5" s="136"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="140">
+        <v>2</v>
+      </c>
+      <c r="C6" s="136"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="139" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="140">
+        <v>5.59</v>
+      </c>
+      <c r="C7" s="136"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="140">
+        <v>1</v>
+      </c>
+      <c r="C8" s="136"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="139" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="140">
+        <v>5.59</v>
+      </c>
+      <c r="C9" s="136"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="139" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="140">
+        <v>1</v>
+      </c>
+      <c r="C10" s="136"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="140">
+        <v>1.86</v>
+      </c>
+      <c r="C11" s="136"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="139" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="140">
+        <v>2</v>
+      </c>
+      <c r="C12" s="136"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="139" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="140">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="136" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="141" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="142">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="136" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
@@ -16137,12 +16507,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="134"/>
-      <c r="B5" s="135"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="134"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="134"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19584,4 +19954,56 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC520D4-C260-43C9-829A-0168818F0C13}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A67AB7E-C43E-4460-BBE5-7CAF7901DC39}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3965382-1A97-42C6-8F6A-82A1C297C147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFADE7-28FE-4D90-9645-D0A2B63A6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -110,6 +110,14 @@
     <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
+    <sheet name="SWDDeep" sheetId="136" r:id="rId98"/>
+    <sheet name="SWDAveragePressure" sheetId="137" r:id="rId99"/>
+    <sheet name="SWDProxPAWell" sheetId="138" r:id="rId100"/>
+    <sheet name="SWDProxInactiveWell" sheetId="139" r:id="rId101"/>
+    <sheet name="SWDProxEQ" sheetId="140" r:id="rId102"/>
+    <sheet name="SWDProxFault" sheetId="141" r:id="rId103"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="142" r:id="rId104"/>
+    <sheet name="SWDRiskFactors" sheetId="143" r:id="rId105"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -136,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="265">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -714,9 +722,6 @@
     <t>PipelineDiameters</t>
   </si>
   <si>
-    <t>InjectionCapacities</t>
-  </si>
-  <si>
     <t>StorageCapacities</t>
   </si>
   <si>
@@ -813,9 +818,6 @@
     <t>max_allowable_pressure</t>
   </si>
   <si>
-    <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
-  </si>
-  <si>
     <t>S03</t>
   </si>
   <si>
@@ -874,6 +876,69 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>SWDs - shallow (0) or deep (1)</t>
+  </si>
+  <si>
+    <t>Average pressure/depth in vicinity of well [psi/ft]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to P&amp;A'd well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to inactive/temporarily abandoned formerly producing well (completed prior to 2000) [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to earthquakes &gt;= 3.0 magnitude [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to fault [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to high pressure or low pressure injection well [miles]</t>
+  </si>
+  <si>
+    <t>SWD risk factors</t>
+  </si>
+  <si>
+    <t>orphan_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>orphan_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_threshold</t>
+  </si>
+  <si>
+    <t>psi/ft</t>
+  </si>
+  <si>
+    <t>LP_threshold</t>
   </si>
 </sst>
 </file>
@@ -958,7 +1023,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,12 +1046,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE4D6"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1535,7 +1594,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1766,12 +1825,6 @@
     <xf numFmtId="43" fontId="1" fillId="3" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1859,10 +1912,32 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2903,6 +2978,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EF207-8B26-4E93-AAD9-4F6D1F5C590F}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BC5ACA-26E9-4576-B54F-73B77F3A56A8}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6853B7F8-846E-4467-BB0E-C7EF4435D8D7}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042D7ED9-F43C-4E3C-B3D3-C88C122008A3}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC59DBD-368E-464E-9846-1653485985D2}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDD4D73-CE90-48D4-AEC0-CA774BB1EF4B}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="135" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="136"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="139" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="140">
+        <v>1.86</v>
+      </c>
+      <c r="C3" s="136"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="139" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="140">
+        <v>2</v>
+      </c>
+      <c r="C4" s="136"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="139" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="140">
+        <v>1.86</v>
+      </c>
+      <c r="C5" s="136"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="140">
+        <v>2</v>
+      </c>
+      <c r="C6" s="136"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="139" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="140">
+        <v>5.59</v>
+      </c>
+      <c r="C7" s="136"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="140">
+        <v>1</v>
+      </c>
+      <c r="C8" s="136"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="139" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="140">
+        <v>5.59</v>
+      </c>
+      <c r="C9" s="136"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="139" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="140">
+        <v>1</v>
+      </c>
+      <c r="C10" s="136"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="140">
+        <v>1.86</v>
+      </c>
+      <c r="C11" s="136"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="139" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="140">
+        <v>2</v>
+      </c>
+      <c r="C12" s="136"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="139" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="140">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="136" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="141" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="142">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="136" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
@@ -2929,7 +3284,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2947,12 +3302,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2990,17 +3345,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3008,7 +3363,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3599,22 +3954,22 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111">
         <v>1</v>
       </c>
-      <c r="J3" s="114"/>
+      <c r="J3" s="112"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3737,21 +4092,21 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="114"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="112"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="104"/>
+        <v>237</v>
+      </c>
+      <c r="B4" s="102"/>
       <c r="C4" s="9"/>
     </row>
   </sheetData>
@@ -4032,70 +4387,70 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="9">
         <v>1</v>
       </c>
@@ -4365,17 +4720,17 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -4383,7 +4738,7 @@
       <c r="A4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="7"/>
       <c r="D4" s="29"/>
     </row>
@@ -4391,7 +4746,7 @@
       <c r="A5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="7"/>
       <c r="D5" s="29"/>
     </row>
@@ -4399,7 +4754,7 @@
       <c r="A6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="7"/>
       <c r="D6" s="29"/>
     </row>
@@ -4407,7 +4762,7 @@
       <c r="A7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="7"/>
       <c r="D7" s="29"/>
     </row>
@@ -4415,7 +4770,7 @@
       <c r="A8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="7"/>
       <c r="D8" s="29"/>
     </row>
@@ -4423,7 +4778,7 @@
       <c r="A9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="7"/>
       <c r="D9" s="29"/>
     </row>
@@ -4431,7 +4786,7 @@
       <c r="A10" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="7"/>
       <c r="D10" s="29"/>
     </row>
@@ -4439,7 +4794,7 @@
       <c r="A11" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
@@ -4468,7 +4823,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,20 +4831,20 @@
         <v>158</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="105"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -4497,7 +4852,7 @@
       <c r="A4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="105"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="7"/>
       <c r="D4" s="29"/>
     </row>
@@ -4505,7 +4860,7 @@
       <c r="A5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="105"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="7"/>
       <c r="D5" s="29"/>
     </row>
@@ -4513,7 +4868,7 @@
       <c r="A6" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="7"/>
       <c r="D6" s="29"/>
     </row>
@@ -4521,7 +4876,7 @@
       <c r="A7" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="7"/>
       <c r="D7" s="29"/>
     </row>
@@ -4529,7 +4884,7 @@
       <c r="A8" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="7"/>
       <c r="D8" s="29"/>
     </row>
@@ -4537,7 +4892,7 @@
       <c r="A9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="7"/>
       <c r="D9" s="29"/>
     </row>
@@ -4545,7 +4900,7 @@
       <c r="A10" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="7"/>
       <c r="D10" s="29"/>
     </row>
@@ -4553,7 +4908,7 @@
       <c r="A11" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="106"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
@@ -4633,7 +4988,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -4647,7 +5002,7 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -4684,7 +5039,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,13 +5047,13 @@
         <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,22 +5062,22 @@
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
-      <c r="D3" s="119"/>
+      <c r="D3" s="117"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="119"/>
+      <c r="D4" s="117"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
+        <v>225</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="9"/>
     </row>
   </sheetData>
@@ -4760,14 +5115,14 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="102">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
@@ -4993,7 +5348,7 @@
         <v>73</v>
       </c>
       <c r="AZ8" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BA8" s="30" t="s">
         <v>76</v>
@@ -5001,22 +5356,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="D9" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>216</v>
-      </c>
       <c r="E9" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="52" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="52"/>
@@ -5041,7 +5396,7 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
@@ -5049,13 +5404,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="52"/>
@@ -5083,7 +5438,7 @@
         <v>78</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
@@ -5195,21 +5550,21 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="9"/>
     </row>
   </sheetData>
@@ -5238,7 +5593,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,10 +5604,10 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5270,8 +5625,8 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5308,31 +5663,31 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="135">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="119"/>
+        <v>224</v>
+      </c>
+      <c r="B4" s="133"/>
+      <c r="C4" s="117"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
+        <v>225</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5447,7 +5802,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5455,20 +5810,20 @@
         <v>167</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -5476,7 +5831,7 @@
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
@@ -5503,7 +5858,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -5521,14 +5876,14 @@
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="9"/>
     </row>
   </sheetData>
@@ -5566,35 +5921,35 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="104"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="9"/>
     </row>
   </sheetData>
@@ -5634,14 +5989,14 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="104">
+      <c r="B3" s="102">
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
@@ -5773,16 +6128,16 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="111">
         <v>1</v>
       </c>
-      <c r="C3" s="114">
+      <c r="C3" s="112">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -5910,21 +6265,21 @@
         <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="121"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="106"/>
+        <v>237</v>
+      </c>
+      <c r="B4" s="104"/>
       <c r="C4" s="33"/>
     </row>
   </sheetData>
@@ -5964,25 +6319,25 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="114"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="104"/>
+        <v>237</v>
+      </c>
+      <c r="B4" s="102"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
@@ -6012,7 +6367,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6023,17 +6378,17 @@
         <v>115</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -6041,7 +6396,7 @@
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="102">
         <v>1</v>
       </c>
       <c r="C4" s="8"/>
@@ -6071,7 +6426,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,20 +6434,20 @@
         <v>167</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
@@ -6100,7 +6455,7 @@
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
     </row>
@@ -6128,7 +6483,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6136,13 +6491,13 @@
         <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6155,7 +6510,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -6163,7 +6518,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6192,7 +6547,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6210,14 +6565,14 @@
       <c r="A3" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="9"/>
     </row>
   </sheetData>
@@ -6251,223 +6606,223 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="96" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="100">
+      <c r="B3" s="98">
         <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="100">
+      <c r="B4" s="98">
         <v>550</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="100">
+      <c r="B5" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="98">
         <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="98">
         <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="100">
+      <c r="A8" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="100">
+      <c r="B10" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="98">
         <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="98">
         <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="98">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="98">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="100">
+      <c r="B17" s="98">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B18" s="98">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="100">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="98">
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="100">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="100">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="100">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="100">
-        <v>500</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="100">
+      <c r="B20" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="100">
+      <c r="B21" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="100">
+      <c r="B22" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B23" s="100">
+      <c r="B23" s="98">
         <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="100">
+      <c r="B24" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="B25" s="100">
+      <c r="B25" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="100">
+      <c r="B26" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="100">
+      <c r="B27" s="98">
         <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="109">
+      <c r="B28" s="107">
         <v>500</v>
       </c>
     </row>
@@ -6544,32 +6899,32 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="111">
         <v>50000</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="111">
         <v>50000</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="111">
         <v>50000</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E3" s="111">
         <v>50000</v>
       </c>
-      <c r="F3" s="113">
+      <c r="F3" s="111">
         <v>50000</v>
       </c>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="114"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
       <c r="L3" s="75"/>
       <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6923,41 +7278,41 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111">
         <v>14830.817816703033</v>
       </c>
       <c r="H3" s="72">
         <v>14293.87494883082</v>
       </c>
-      <c r="I3" s="113">
+      <c r="I3" s="111">
         <v>13824.917187280023</v>
       </c>
-      <c r="J3" s="113">
+      <c r="J3" s="111">
         <v>13410.239747200454</v>
       </c>
-      <c r="K3" s="114">
+      <c r="K3" s="112">
         <v>13039.766210409243</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
+        <v>237</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="10"/>
@@ -7100,8 +7455,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>225</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Well pressure at production or completions pad [",VLOOKUP("pressure", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Well pressure at production or completions pad [psi]</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7251,37 +7607,37 @@
       <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="128">
         <v>20</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="128">
         <v>19.724654089867183</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="128">
         <v>19.565347714583421</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="128">
         <v>19.45309894824571</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="128">
         <v>19.366475714512596</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="128">
         <v>19.29598579090657</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="128">
         <v>19.236587614095988</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="128">
         <v>19.185282386505289</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="128">
         <v>19.14014155962774</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="129">
         <v>19.099851720428717</v>
       </c>
       <c r="L6" s="83"/>
@@ -7324,7 +7680,7 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="36">
         <v>0</v>
@@ -7598,56 +7954,56 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="S2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>228</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>230</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="112">
+      <c r="B3" s="110">
         <v>14206</v>
       </c>
-      <c r="C3" s="113">
-        <v>0</v>
-      </c>
-      <c r="D3" s="113">
-        <v>0</v>
-      </c>
-      <c r="E3" s="113">
-        <v>0</v>
-      </c>
-      <c r="F3" s="113">
-        <v>0</v>
-      </c>
-      <c r="G3" s="113">
-        <v>0</v>
-      </c>
-      <c r="H3" s="113">
-        <v>0</v>
-      </c>
-      <c r="I3" s="113">
-        <v>0</v>
-      </c>
-      <c r="J3" s="110">
+      <c r="C3" s="111">
+        <v>0</v>
+      </c>
+      <c r="D3" s="111">
+        <v>0</v>
+      </c>
+      <c r="E3" s="111">
+        <v>0</v>
+      </c>
+      <c r="F3" s="111">
+        <v>0</v>
+      </c>
+      <c r="G3" s="111">
+        <v>0</v>
+      </c>
+      <c r="H3" s="111">
+        <v>0</v>
+      </c>
+      <c r="I3" s="111">
+        <v>0</v>
+      </c>
+      <c r="J3" s="108">
         <v>0</v>
       </c>
       <c r="K3" s="7">
@@ -7662,7 +8018,7 @@
       <c r="N3" s="77">
         <v>0</v>
       </c>
-      <c r="O3" s="103">
+      <c r="O3" s="101">
         <v>0</v>
       </c>
       <c r="P3" s="7"/>
@@ -7681,7 +8037,7 @@
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="103">
+      <c r="B4" s="101">
         <v>0</v>
       </c>
       <c r="C4" s="7">
@@ -7720,7 +8076,7 @@
       <c r="N4" s="77">
         <v>0</v>
       </c>
-      <c r="O4" s="103">
+      <c r="O4" s="101">
         <v>0</v>
       </c>
       <c r="P4" s="7"/>
@@ -7739,7 +8095,7 @@
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="101">
         <v>0</v>
       </c>
       <c r="C5" s="7">
@@ -7778,7 +8134,7 @@
       <c r="N5" s="77">
         <v>0</v>
       </c>
-      <c r="O5" s="103">
+      <c r="O5" s="101">
         <v>0</v>
       </c>
       <c r="P5" s="7"/>
@@ -7797,7 +8153,7 @@
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="109">
         <v>0</v>
       </c>
       <c r="C6" s="78">
@@ -7834,7 +8190,7 @@
       <c r="N6" s="79">
         <v>0</v>
       </c>
-      <c r="O6" s="111">
+      <c r="O6" s="109">
         <v>0</v>
       </c>
       <c r="P6" s="78"/>
@@ -7853,47 +8209,47 @@
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="113">
-        <v>0</v>
-      </c>
-      <c r="C7" s="113">
-        <v>0</v>
-      </c>
-      <c r="D7" s="113">
-        <v>0</v>
-      </c>
-      <c r="E7" s="113">
-        <v>0</v>
-      </c>
-      <c r="F7" s="113">
-        <v>0</v>
-      </c>
-      <c r="G7" s="113">
-        <v>0</v>
-      </c>
-      <c r="H7" s="113">
-        <v>0</v>
-      </c>
-      <c r="I7" s="113">
+      <c r="B7" s="111">
+        <v>0</v>
+      </c>
+      <c r="C7" s="111">
+        <v>0</v>
+      </c>
+      <c r="D7" s="111">
+        <v>0</v>
+      </c>
+      <c r="E7" s="111">
+        <v>0</v>
+      </c>
+      <c r="F7" s="111">
+        <v>0</v>
+      </c>
+      <c r="G7" s="111">
+        <v>0</v>
+      </c>
+      <c r="H7" s="111">
+        <v>0</v>
+      </c>
+      <c r="I7" s="111">
         <v>42857</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="114"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="112"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="78">
         <v>0</v>
@@ -7932,7 +8288,7 @@
       <c r="N8" s="79">
         <v>0</v>
       </c>
-      <c r="O8" s="111">
+      <c r="O8" s="109">
         <v>0</v>
       </c>
       <c r="P8" s="78"/>
@@ -7951,31 +8307,31 @@
       <c r="A9" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="112">
-        <v>0</v>
-      </c>
-      <c r="C9" s="113">
+      <c r="B9" s="110">
+        <v>0</v>
+      </c>
+      <c r="C9" s="111">
         <v>42857</v>
       </c>
-      <c r="D9" s="113">
-        <v>0</v>
-      </c>
-      <c r="E9" s="113">
-        <v>0</v>
-      </c>
-      <c r="F9" s="113">
-        <v>0</v>
-      </c>
-      <c r="G9" s="113">
-        <v>0</v>
-      </c>
-      <c r="H9" s="113">
-        <v>0</v>
-      </c>
-      <c r="I9" s="113">
-        <v>0</v>
-      </c>
-      <c r="J9" s="110">
+      <c r="D9" s="111">
+        <v>0</v>
+      </c>
+      <c r="E9" s="111">
+        <v>0</v>
+      </c>
+      <c r="F9" s="111">
+        <v>0</v>
+      </c>
+      <c r="G9" s="111">
+        <v>0</v>
+      </c>
+      <c r="H9" s="111">
+        <v>0</v>
+      </c>
+      <c r="I9" s="111">
+        <v>0</v>
+      </c>
+      <c r="J9" s="108">
         <v>0</v>
       </c>
       <c r="K9" s="7">
@@ -7990,7 +8346,7 @@
       <c r="N9" s="77">
         <v>0</v>
       </c>
-      <c r="O9" s="103">
+      <c r="O9" s="101">
         <v>0</v>
       </c>
       <c r="P9" s="7"/>
@@ -8009,7 +8365,7 @@
       <c r="A10" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="7">
         <v>0</v>
       </c>
@@ -8044,7 +8400,7 @@
       <c r="N10" s="77">
         <v>0</v>
       </c>
-      <c r="O10" s="103">
+      <c r="O10" s="101">
         <v>0</v>
       </c>
       <c r="P10" s="7"/>
@@ -8063,7 +8419,7 @@
       <c r="A11" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="103">
+      <c r="B11" s="101">
         <v>0</v>
       </c>
       <c r="C11" s="7"/>
@@ -8100,7 +8456,7 @@
       <c r="N11" s="77">
         <v>0</v>
       </c>
-      <c r="O11" s="103">
+      <c r="O11" s="101">
         <v>0</v>
       </c>
       <c r="P11" s="7"/>
@@ -8119,7 +8475,7 @@
       <c r="A12" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="103">
+      <c r="B12" s="101">
         <v>0</v>
       </c>
       <c r="C12" s="7">
@@ -8156,7 +8512,7 @@
       <c r="N12" s="77">
         <v>0</v>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="101">
         <v>0</v>
       </c>
       <c r="P12" s="7"/>
@@ -8175,7 +8531,7 @@
       <c r="A13" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="103">
+      <c r="B13" s="101">
         <v>0</v>
       </c>
       <c r="C13" s="7"/>
@@ -8212,7 +8568,7 @@
       <c r="N13" s="77">
         <v>0</v>
       </c>
-      <c r="O13" s="103">
+      <c r="O13" s="101">
         <v>0</v>
       </c>
       <c r="P13" s="7"/>
@@ -8231,7 +8587,7 @@
       <c r="A14" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="101">
         <v>0</v>
       </c>
       <c r="C14" s="7">
@@ -8268,7 +8624,7 @@
       <c r="N14" s="77">
         <v>0</v>
       </c>
-      <c r="O14" s="103">
+      <c r="O14" s="101">
         <v>0</v>
       </c>
       <c r="P14" s="7"/>
@@ -8287,7 +8643,7 @@
       <c r="A15" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="101">
         <v>0</v>
       </c>
       <c r="C15" s="7">
@@ -8322,7 +8678,7 @@
       <c r="N15" s="77">
         <v>0</v>
       </c>
-      <c r="O15" s="103">
+      <c r="O15" s="101">
         <v>0</v>
       </c>
       <c r="P15" s="7"/>
@@ -8341,7 +8697,7 @@
       <c r="A16" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="103">
+      <c r="B16" s="101">
         <v>0</v>
       </c>
       <c r="C16" s="7">
@@ -8376,7 +8732,7 @@
       <c r="N16" s="77">
         <v>0</v>
       </c>
-      <c r="O16" s="103">
+      <c r="O16" s="101">
         <v>0</v>
       </c>
       <c r="P16" s="7"/>
@@ -8395,7 +8751,7 @@
       <c r="A17" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="111">
+      <c r="B17" s="109">
         <v>0</v>
       </c>
       <c r="C17" s="78">
@@ -8434,7 +8790,7 @@
       <c r="N17" s="79">
         <v>0</v>
       </c>
-      <c r="O17" s="111">
+      <c r="O17" s="109">
         <v>0</v>
       </c>
       <c r="P17" s="78"/>
@@ -8492,7 +8848,7 @@
       <c r="N18" s="77">
         <v>0</v>
       </c>
-      <c r="O18" s="103">
+      <c r="O18" s="101">
         <v>0</v>
       </c>
       <c r="P18" s="7"/>
@@ -8505,7 +8861,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8520,7 +8876,7 @@
       <c r="L19" s="77"/>
       <c r="M19" s="7"/>
       <c r="N19" s="77"/>
-      <c r="O19" s="103"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="77"/>
       <c r="R19" s="7"/>
@@ -8531,7 +8887,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -8546,7 +8902,7 @@
       <c r="L20" s="79"/>
       <c r="M20" s="78"/>
       <c r="N20" s="79"/>
-      <c r="O20" s="111"/>
+      <c r="O20" s="109"/>
       <c r="P20" s="78"/>
       <c r="Q20" s="79"/>
       <c r="R20" s="78"/>
@@ -8598,7 +8954,7 @@
       <c r="N21" s="92">
         <v>0</v>
       </c>
-      <c r="O21" s="115">
+      <c r="O21" s="113">
         <v>0</v>
       </c>
       <c r="P21" s="91"/>
@@ -8654,7 +9010,7 @@
       <c r="N22" s="77">
         <v>0</v>
       </c>
-      <c r="O22" s="103">
+      <c r="O22" s="101">
         <v>0</v>
       </c>
       <c r="P22" s="7"/>
@@ -8710,7 +9066,7 @@
       <c r="N23" s="82">
         <v>0</v>
       </c>
-      <c r="O23" s="104"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="82"/>
       <c r="R23" s="8"/>
@@ -8752,7 +9108,7 @@
   <sheetData>
     <row r="1" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
@@ -8802,61 +9158,61 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="101"/>
-      <c r="BC2" s="101"/>
-      <c r="BD2" s="101"/>
-      <c r="BE2" s="101"/>
-      <c r="BF2" s="101"/>
-      <c r="BG2" s="101"/>
-      <c r="BH2" s="101"/>
-      <c r="BI2" s="101"/>
-      <c r="BJ2" s="101"/>
-      <c r="BK2" s="101"/>
+        <v>237</v>
+      </c>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99"/>
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+      <c r="AL2" s="99"/>
+      <c r="AM2" s="99"/>
+      <c r="AN2" s="99"/>
+      <c r="AO2" s="99"/>
+      <c r="AP2" s="99"/>
+      <c r="AQ2" s="99"/>
+      <c r="AR2" s="99"/>
+      <c r="AS2" s="99"/>
+      <c r="AT2" s="99"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="99"/>
+      <c r="AW2" s="99"/>
+      <c r="AX2" s="99"/>
+      <c r="AY2" s="99"/>
+      <c r="AZ2" s="99"/>
+      <c r="BA2" s="99"/>
+      <c r="BB2" s="99"/>
+      <c r="BC2" s="99"/>
+      <c r="BD2" s="99"/>
+      <c r="BE2" s="99"/>
+      <c r="BF2" s="99"/>
+      <c r="BG2" s="99"/>
+      <c r="BH2" s="99"/>
+      <c r="BI2" s="99"/>
+      <c r="BJ2" s="99"/>
+      <c r="BK2" s="99"/>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -8877,7 +9233,7 @@
       <c r="L3" s="77"/>
       <c r="M3" s="7"/>
       <c r="N3" s="77"/>
-      <c r="O3" s="103"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="77"/>
       <c r="R3" s="7"/>
@@ -8946,7 +9302,7 @@
       <c r="L4" s="77"/>
       <c r="M4" s="7"/>
       <c r="N4" s="77"/>
-      <c r="O4" s="103"/>
+      <c r="O4" s="101"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="77"/>
       <c r="R4" s="7"/>
@@ -9015,7 +9371,7 @@
       <c r="L5" s="77"/>
       <c r="M5" s="7"/>
       <c r="N5" s="77"/>
-      <c r="O5" s="103"/>
+      <c r="O5" s="101"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="77"/>
       <c r="R5" s="7"/>
@@ -9082,7 +9438,7 @@
       <c r="L6" s="79"/>
       <c r="M6" s="78"/>
       <c r="N6" s="79"/>
-      <c r="O6" s="111"/>
+      <c r="O6" s="109"/>
       <c r="P6" s="78"/>
       <c r="Q6" s="79"/>
       <c r="R6" s="78"/>
@@ -9136,26 +9492,26 @@
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113">
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111">
         <v>6</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="114"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="112"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -9203,7 +9559,7 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -9218,7 +9574,7 @@
       <c r="L8" s="79"/>
       <c r="M8" s="78"/>
       <c r="N8" s="79"/>
-      <c r="O8" s="111"/>
+      <c r="O8" s="109"/>
       <c r="P8" s="78"/>
       <c r="Q8" s="79"/>
       <c r="R8" s="78"/>
@@ -9289,7 +9645,7 @@
       <c r="L9" s="77"/>
       <c r="M9" s="7"/>
       <c r="N9" s="77"/>
-      <c r="O9" s="103"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="7"/>
@@ -9360,7 +9716,7 @@
       <c r="L10" s="77"/>
       <c r="M10" s="7"/>
       <c r="N10" s="77"/>
-      <c r="O10" s="103"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="77"/>
       <c r="R10" s="7"/>
@@ -9429,7 +9785,7 @@
       <c r="L11" s="77"/>
       <c r="M11" s="7"/>
       <c r="N11" s="77"/>
-      <c r="O11" s="103"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="7"/>
@@ -9500,7 +9856,7 @@
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="77"/>
-      <c r="O12" s="103"/>
+      <c r="O12" s="101"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="7"/>
@@ -9569,7 +9925,7 @@
       <c r="L13" s="77"/>
       <c r="M13" s="7"/>
       <c r="N13" s="77"/>
-      <c r="O13" s="103"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="7"/>
@@ -9638,7 +9994,7 @@
       <c r="L14" s="77"/>
       <c r="M14" s="7"/>
       <c r="N14" s="77"/>
-      <c r="O14" s="103"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="7"/>
@@ -9707,7 +10063,7 @@
       <c r="L15" s="77"/>
       <c r="M15" s="7"/>
       <c r="N15" s="77"/>
-      <c r="O15" s="103"/>
+      <c r="O15" s="101"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="77"/>
       <c r="R15" s="7"/>
@@ -9774,7 +10130,7 @@
       <c r="L16" s="77"/>
       <c r="M16" s="7"/>
       <c r="N16" s="77"/>
-      <c r="O16" s="103"/>
+      <c r="O16" s="101"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="77"/>
       <c r="R16" s="7"/>
@@ -9841,7 +10197,7 @@
       <c r="L17" s="79"/>
       <c r="M17" s="78"/>
       <c r="N17" s="79"/>
-      <c r="O17" s="111"/>
+      <c r="O17" s="109"/>
       <c r="P17" s="78"/>
       <c r="Q17" s="79"/>
       <c r="R17" s="78"/>
@@ -9908,7 +10264,7 @@
       <c r="L18" s="77"/>
       <c r="M18" s="7"/>
       <c r="N18" s="77"/>
-      <c r="O18" s="103"/>
+      <c r="O18" s="101"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="77"/>
       <c r="R18" s="7"/>
@@ -9960,7 +10316,7 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -9975,7 +10331,7 @@
       <c r="L19" s="77"/>
       <c r="M19" s="7"/>
       <c r="N19" s="77"/>
-      <c r="O19" s="103"/>
+      <c r="O19" s="101"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="77"/>
       <c r="R19" s="7"/>
@@ -10027,7 +10383,7 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -10042,7 +10398,7 @@
       <c r="L20" s="79"/>
       <c r="M20" s="78"/>
       <c r="N20" s="79"/>
-      <c r="O20" s="111"/>
+      <c r="O20" s="109"/>
       <c r="P20" s="78"/>
       <c r="Q20" s="79"/>
       <c r="R20" s="78"/>
@@ -10109,7 +10465,7 @@
       <c r="L21" s="92"/>
       <c r="M21" s="91"/>
       <c r="N21" s="92"/>
-      <c r="O21" s="115"/>
+      <c r="O21" s="113"/>
       <c r="P21" s="91"/>
       <c r="Q21" s="92"/>
       <c r="R21" s="91">
@@ -10178,7 +10534,7 @@
       <c r="L22" s="77"/>
       <c r="M22" s="7"/>
       <c r="N22" s="77"/>
-      <c r="O22" s="103"/>
+      <c r="O22" s="101"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="77"/>
       <c r="R22" s="7"/>
@@ -10245,7 +10601,7 @@
       <c r="L23" s="82"/>
       <c r="M23" s="8"/>
       <c r="N23" s="82"/>
-      <c r="O23" s="104"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="82"/>
       <c r="R23" s="8"/>
@@ -10296,7 +10652,7 @@
       <c r="BK23" s="6"/>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -10361,7 +10717,7 @@
       <c r="BK24" s="6"/>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -10426,7 +10782,7 @@
       <c r="BK25" s="6"/>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -10491,7 +10847,7 @@
       <c r="BK26" s="6"/>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -10556,7 +10912,7 @@
       <c r="BK27" s="6"/>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
+      <c r="A28" s="100"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -10621,7 +10977,7 @@
       <c r="BK28" s="6"/>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -10686,7 +11042,7 @@
       <c r="BK29" s="6"/>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -10751,7 +11107,7 @@
       <c r="BK30" s="6"/>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -10816,7 +11172,7 @@
       <c r="BK31" s="6"/>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
+      <c r="A32" s="100"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -10881,7 +11237,7 @@
       <c r="BK32" s="6"/>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
+      <c r="A33" s="100"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -10946,7 +11302,7 @@
       <c r="BK33" s="6"/>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
+      <c r="A34" s="100"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -11011,7 +11367,7 @@
       <c r="BK34" s="6"/>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A35" s="102"/>
+      <c r="A35" s="100"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -11076,7 +11432,7 @@
       <c r="BK35" s="6"/>
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A36" s="102"/>
+      <c r="A36" s="100"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -11141,7 +11497,7 @@
       <c r="BK36" s="6"/>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A37" s="102"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -11206,7 +11562,7 @@
       <c r="BK37" s="6"/>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A38" s="102"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -11271,7 +11627,7 @@
       <c r="BK38" s="6"/>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A39" s="102"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -11336,7 +11692,7 @@
       <c r="BK39" s="6"/>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A40" s="102"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -11401,7 +11757,7 @@
       <c r="BK40" s="6"/>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A41" s="102"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -11466,7 +11822,7 @@
       <c r="BK41" s="6"/>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A42" s="102"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -11531,7 +11887,7 @@
       <c r="BK42" s="6"/>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A43" s="102"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -11596,7 +11952,7 @@
       <c r="BK43" s="6"/>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A44" s="102"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -11661,7 +12017,7 @@
       <c r="BK44" s="6"/>
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A45" s="102"/>
+      <c r="A45" s="100"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -11726,7 +12082,7 @@
       <c r="BK45" s="6"/>
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A46" s="102"/>
+      <c r="A46" s="100"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -11791,7 +12147,7 @@
       <c r="BK46" s="6"/>
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A47" s="102"/>
+      <c r="A47" s="100"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -11856,7 +12212,7 @@
       <c r="BK47" s="6"/>
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A48" s="102"/>
+      <c r="A48" s="100"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -11921,7 +12277,7 @@
       <c r="BK48" s="6"/>
     </row>
     <row r="49" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A49" s="102"/>
+      <c r="A49" s="100"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -11986,7 +12342,7 @@
       <c r="BK49" s="6"/>
     </row>
     <row r="50" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A50" s="102"/>
+      <c r="A50" s="100"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -12051,7 +12407,7 @@
       <c r="BK50" s="6"/>
     </row>
     <row r="51" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A51" s="102"/>
+      <c r="A51" s="100"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -12116,7 +12472,7 @@
       <c r="BK51" s="6"/>
     </row>
     <row r="52" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A52" s="102"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -12181,7 +12537,7 @@
       <c r="BK52" s="6"/>
     </row>
     <row r="53" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
+      <c r="A53" s="100"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -12246,7 +12602,7 @@
       <c r="BK53" s="6"/>
     </row>
     <row r="54" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A54" s="102"/>
+      <c r="A54" s="100"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -12311,7 +12667,7 @@
       <c r="BK54" s="6"/>
     </row>
     <row r="55" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A55" s="102"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -12376,7 +12732,7 @@
       <c r="BK55" s="6"/>
     </row>
     <row r="56" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -12441,7 +12797,7 @@
       <c r="BK56" s="6"/>
     </row>
     <row r="57" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -12506,7 +12862,7 @@
       <c r="BK57" s="6"/>
     </row>
     <row r="58" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A58" s="102"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -12571,7 +12927,7 @@
       <c r="BK58" s="6"/>
     </row>
     <row r="59" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A59" s="102"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -12636,7 +12992,7 @@
       <c r="BK59" s="6"/>
     </row>
     <row r="60" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A60" s="102"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -12701,7 +13057,7 @@
       <c r="BK60" s="6"/>
     </row>
     <row r="61" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A61" s="102"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -12766,7 +13122,7 @@
       <c r="BK61" s="6"/>
     </row>
     <row r="62" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A62" s="102"/>
+      <c r="A62" s="100"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -12831,7 +13187,7 @@
       <c r="BK62" s="6"/>
     </row>
     <row r="63" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A63" s="102"/>
+      <c r="A63" s="100"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -12996,7 +13352,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="35">
         <v>0</v>
@@ -13004,7 +13360,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="37">
         <v>0</v>
@@ -13050,10 +13406,10 @@
         <v>120</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>211</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -13121,7 +13477,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>177</v>
@@ -13156,7 +13512,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -13191,7 +13547,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -13226,7 +13582,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -13289,7 +13645,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>177</v>
@@ -13324,7 +13680,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="34">
         <v>36000</v>
@@ -13359,7 +13715,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="34">
         <v>12580</v>
@@ -13394,7 +13750,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="36">
         <v>51112</v>
@@ -13577,7 +13933,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="37">
         <v>0</v>
@@ -13626,7 +13982,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -13683,7 +14039,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="37">
         <v>30000</v>
@@ -13927,7 +14283,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -14075,7 +14431,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="29">
         <v>0.5</v>
@@ -14086,7 +14442,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="29">
         <v>0.5</v>
@@ -14097,7 +14453,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
@@ -14108,7 +14464,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -14155,13 +14511,13 @@
       <c r="A3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="114">
+      <c r="B3" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -14245,25 +14601,25 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="S2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>228</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>230</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>109</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -14309,7 +14665,7 @@
       <c r="N3" s="77">
         <v>0</v>
       </c>
-      <c r="O3" s="103">
+      <c r="O3" s="101">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -14377,7 +14733,7 @@
       <c r="N4" s="77">
         <v>0</v>
       </c>
-      <c r="O4" s="103">
+      <c r="O4" s="101">
         <v>0</v>
       </c>
       <c r="P4" s="7">
@@ -14445,7 +14801,7 @@
       <c r="N5" s="77">
         <v>0</v>
       </c>
-      <c r="O5" s="103">
+      <c r="O5" s="101">
         <v>0</v>
       </c>
       <c r="P5" s="7">
@@ -14513,7 +14869,7 @@
       <c r="N6" s="79">
         <v>0</v>
       </c>
-      <c r="O6" s="111">
+      <c r="O6" s="109">
         <v>0</v>
       </c>
       <c r="P6" s="78">
@@ -14542,73 +14898,73 @@
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="113">
-        <v>0</v>
-      </c>
-      <c r="C7" s="113">
-        <v>0</v>
-      </c>
-      <c r="D7" s="113">
-        <v>0</v>
-      </c>
-      <c r="E7" s="113">
-        <v>0</v>
-      </c>
-      <c r="F7" s="113">
-        <v>0</v>
-      </c>
-      <c r="G7" s="113">
-        <v>0</v>
-      </c>
-      <c r="H7" s="113">
-        <v>0</v>
-      </c>
-      <c r="I7" s="113">
+      <c r="B7" s="111">
+        <v>0</v>
+      </c>
+      <c r="C7" s="111">
+        <v>0</v>
+      </c>
+      <c r="D7" s="111">
+        <v>0</v>
+      </c>
+      <c r="E7" s="111">
+        <v>0</v>
+      </c>
+      <c r="F7" s="111">
+        <v>0</v>
+      </c>
+      <c r="G7" s="111">
+        <v>0</v>
+      </c>
+      <c r="H7" s="111">
+        <v>0</v>
+      </c>
+      <c r="I7" s="111">
         <v>1E-4</v>
       </c>
-      <c r="J7" s="110">
-        <v>0</v>
-      </c>
-      <c r="K7" s="113">
-        <v>0</v>
-      </c>
-      <c r="L7" s="110">
-        <v>0</v>
-      </c>
-      <c r="M7" s="113">
-        <v>0</v>
-      </c>
-      <c r="N7" s="110">
-        <v>0</v>
-      </c>
-      <c r="O7" s="112">
-        <v>0</v>
-      </c>
-      <c r="P7" s="113">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="110">
-        <v>0</v>
-      </c>
-      <c r="R7" s="113">
-        <v>0</v>
-      </c>
-      <c r="S7" s="113">
-        <v>0</v>
-      </c>
-      <c r="T7" s="110">
-        <v>0</v>
-      </c>
-      <c r="U7" s="113">
-        <v>0</v>
-      </c>
-      <c r="V7" s="114">
+      <c r="J7" s="108">
+        <v>0</v>
+      </c>
+      <c r="K7" s="111">
+        <v>0</v>
+      </c>
+      <c r="L7" s="108">
+        <v>0</v>
+      </c>
+      <c r="M7" s="111">
+        <v>0</v>
+      </c>
+      <c r="N7" s="108">
+        <v>0</v>
+      </c>
+      <c r="O7" s="110">
+        <v>0</v>
+      </c>
+      <c r="P7" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="108">
+        <v>0</v>
+      </c>
+      <c r="R7" s="111">
+        <v>0</v>
+      </c>
+      <c r="S7" s="111">
+        <v>0</v>
+      </c>
+      <c r="T7" s="108">
+        <v>0</v>
+      </c>
+      <c r="U7" s="111">
+        <v>0</v>
+      </c>
+      <c r="V7" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="78">
         <v>0</v>
@@ -14649,7 +15005,7 @@
       <c r="N8" s="79">
         <v>0</v>
       </c>
-      <c r="O8" s="111">
+      <c r="O8" s="109">
         <v>0</v>
       </c>
       <c r="P8" s="78">
@@ -14717,7 +15073,7 @@
       <c r="N9" s="77">
         <v>0</v>
       </c>
-      <c r="O9" s="103">
+      <c r="O9" s="101">
         <v>0</v>
       </c>
       <c r="P9" s="7">
@@ -14785,7 +15141,7 @@
       <c r="N10" s="77">
         <v>0</v>
       </c>
-      <c r="O10" s="103">
+      <c r="O10" s="101">
         <v>0</v>
       </c>
       <c r="P10" s="7">
@@ -14853,7 +15209,7 @@
       <c r="N11" s="77">
         <v>0</v>
       </c>
-      <c r="O11" s="103">
+      <c r="O11" s="101">
         <v>0</v>
       </c>
       <c r="P11" s="7">
@@ -14921,7 +15277,7 @@
       <c r="N12" s="77">
         <v>0</v>
       </c>
-      <c r="O12" s="103">
+      <c r="O12" s="101">
         <v>0</v>
       </c>
       <c r="P12" s="7">
@@ -14989,7 +15345,7 @@
       <c r="N13" s="77">
         <v>0</v>
       </c>
-      <c r="O13" s="103">
+      <c r="O13" s="101">
         <v>0</v>
       </c>
       <c r="P13" s="7">
@@ -15057,7 +15413,7 @@
       <c r="N14" s="77">
         <v>0</v>
       </c>
-      <c r="O14" s="103">
+      <c r="O14" s="101">
         <v>0</v>
       </c>
       <c r="P14" s="7">
@@ -15125,7 +15481,7 @@
       <c r="N15" s="77">
         <v>0</v>
       </c>
-      <c r="O15" s="103">
+      <c r="O15" s="101">
         <v>0</v>
       </c>
       <c r="P15" s="7">
@@ -15193,7 +15549,7 @@
       <c r="N16" s="77">
         <v>0</v>
       </c>
-      <c r="O16" s="103">
+      <c r="O16" s="101">
         <v>0</v>
       </c>
       <c r="P16" s="7">
@@ -15261,7 +15617,7 @@
       <c r="N17" s="79">
         <v>1E-4</v>
       </c>
-      <c r="O17" s="111">
+      <c r="O17" s="109">
         <v>0</v>
       </c>
       <c r="P17" s="78">
@@ -15329,7 +15685,7 @@
       <c r="N18" s="77">
         <v>0</v>
       </c>
-      <c r="O18" s="103">
+      <c r="O18" s="101">
         <v>0</v>
       </c>
       <c r="P18" s="7">
@@ -15338,13 +15694,13 @@
       <c r="Q18" s="77">
         <v>0</v>
       </c>
-      <c r="R18" s="112">
-        <v>0</v>
-      </c>
-      <c r="S18" s="113">
-        <v>0</v>
-      </c>
-      <c r="T18" s="110">
+      <c r="R18" s="110">
+        <v>0</v>
+      </c>
+      <c r="S18" s="111">
+        <v>0</v>
+      </c>
+      <c r="T18" s="108">
         <v>0</v>
       </c>
       <c r="U18" s="7">
@@ -15356,7 +15712,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -15397,7 +15753,7 @@
       <c r="N19" s="77">
         <v>0</v>
       </c>
-      <c r="O19" s="103">
+      <c r="O19" s="101">
         <v>0</v>
       </c>
       <c r="P19" s="7">
@@ -15406,7 +15762,7 @@
       <c r="Q19" s="77">
         <v>0</v>
       </c>
-      <c r="R19" s="103">
+      <c r="R19" s="101">
         <v>1E-4</v>
       </c>
       <c r="S19" s="7">
@@ -15424,7 +15780,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" s="78">
         <v>0</v>
@@ -15465,7 +15821,7 @@
       <c r="N20" s="79">
         <v>0</v>
       </c>
-      <c r="O20" s="111">
+      <c r="O20" s="109">
         <v>0</v>
       </c>
       <c r="P20" s="78">
@@ -15474,7 +15830,7 @@
       <c r="Q20" s="79">
         <v>0</v>
       </c>
-      <c r="R20" s="111">
+      <c r="R20" s="109">
         <v>0</v>
       </c>
       <c r="S20" s="78">
@@ -15533,7 +15889,7 @@
       <c r="N21" s="92">
         <v>0</v>
       </c>
-      <c r="O21" s="115">
+      <c r="O21" s="113">
         <v>0</v>
       </c>
       <c r="P21" s="91">
@@ -15601,7 +15957,7 @@
       <c r="N22" s="77">
         <v>0</v>
       </c>
-      <c r="O22" s="103">
+      <c r="O22" s="101">
         <v>0</v>
       </c>
       <c r="P22" s="7">
@@ -15669,7 +16025,7 @@
       <c r="N23" s="82">
         <v>0</v>
       </c>
-      <c r="O23" s="104">
+      <c r="O23" s="102">
         <v>1E-4</v>
       </c>
       <c r="P23" s="8">
@@ -15812,13 +16168,13 @@
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="114">
+      <c r="B7" s="112">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="81">
         <v>95</v>
@@ -15928,7 +16284,7 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="8">
         <v>3.5</v>
@@ -16081,10 +16437,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16093,51 +16449,70 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="97">
+        <v>111</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="97">
+      <c r="D3" s="34">
         <v>20000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="96">
+      <c r="E3" s="43">
         <v>50000</v>
       </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="36">
+        <v>20000</v>
+      </c>
+      <c r="E4" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="134"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="134"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16204,7 +16579,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="34">
         <v>18</v>
@@ -16221,7 +16596,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="36">
         <v>21</v>
@@ -16267,7 +16642,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -16440,7 +16815,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="34">
         <v>1000</v>
@@ -16460,7 +16835,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="34">
         <v>1000</v>
@@ -16480,7 +16855,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="34">
         <v>500</v>
@@ -16500,7 +16875,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="36">
         <v>500</v>
@@ -16548,7 +16923,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>143</v>
@@ -16599,7 +16974,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="34">
         <v>0</v>
@@ -16616,7 +16991,7 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="36">
         <v>0</v>
@@ -16672,12 +17047,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" s="37">
         <v>300000</v>
@@ -16759,25 +17134,25 @@
         <v>115</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="S2" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="T2" s="80" t="s">
         <v>228</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="T2" s="80" t="s">
-        <v>230</v>
       </c>
       <c r="U2" s="73" t="s">
         <v>109</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -16788,626 +17163,626 @@
         <v>1.4259999999999999</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L3" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N3" s="77"/>
-      <c r="O3" s="103" t="s">
-        <v>199</v>
+      <c r="O3" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="77"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="77"/>
-      <c r="U3" s="103" t="s">
-        <v>199</v>
-      </c>
-      <c r="V3" s="119"/>
+      <c r="U3" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="V3" s="117"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>90</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7">
         <v>1.6847000000000001</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L4" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N4" s="77"/>
-      <c r="O4" s="103" t="s">
-        <v>199</v>
+      <c r="O4" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="77"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="77"/>
-      <c r="U4" s="103" t="s">
-        <v>199</v>
-      </c>
-      <c r="V4" s="119"/>
+      <c r="U4" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="V4" s="117"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7">
         <v>1.2563</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L5" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N5" s="77"/>
-      <c r="O5" s="103" t="s">
-        <v>199</v>
+      <c r="O5" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="77"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="77"/>
-      <c r="U5" s="103" t="s">
-        <v>199</v>
-      </c>
-      <c r="V5" s="119"/>
+      <c r="U5" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="V5" s="117"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J6" s="79">
         <v>2.5074000000000001</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L6" s="79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N6" s="79"/>
-      <c r="O6" s="111" t="s">
-        <v>199</v>
+      <c r="O6" s="109" t="s">
+        <v>198</v>
       </c>
       <c r="P6" s="78"/>
       <c r="Q6" s="79"/>
       <c r="R6" s="78"/>
       <c r="S6" s="78"/>
       <c r="T6" s="79"/>
-      <c r="U6" s="111" t="s">
-        <v>199</v>
-      </c>
-      <c r="V6" s="124"/>
+      <c r="U6" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="V6" s="122"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="F7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="I7" s="113">
+      <c r="B7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="111">
         <v>3.3694000000000002</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="112"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="128"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="110"/>
+      <c r="V7" s="126"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I8" s="78"/>
       <c r="J8" s="79" t="s">
-        <v>199</v>
-      </c>
-      <c r="K8" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" s="126" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="K8" s="123" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="124" t="s">
+        <v>198</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="79"/>
-      <c r="O8" s="111" t="s">
-        <v>199</v>
+      <c r="O8" s="109" t="s">
+        <v>198</v>
       </c>
       <c r="P8" s="78"/>
       <c r="Q8" s="79"/>
       <c r="R8" s="78"/>
       <c r="S8" s="78"/>
       <c r="T8" s="79"/>
-      <c r="U8" s="127" t="s">
-        <v>199</v>
-      </c>
-      <c r="V8" s="124"/>
+      <c r="U8" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="V8" s="122"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="122" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="122">
+      <c r="B9" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="120">
         <v>4.0752409775985399</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" s="122">
+        <v>198</v>
+      </c>
+      <c r="K9" s="120">
         <v>4.1717000000000004</v>
       </c>
       <c r="L9" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N9" s="77"/>
-      <c r="O9" s="103"/>
+      <c r="O9" s="101"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="77"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="119"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="117"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="122">
+      <c r="B10" s="120">
         <v>4.0752409775985399</v>
       </c>
-      <c r="C10" s="122" t="s">
-        <v>199</v>
+      <c r="C10" s="120" t="s">
+        <v>198</v>
       </c>
       <c r="D10" s="7">
         <v>8.2970000000000006</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7">
         <v>1.8142</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L10" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N10" s="77"/>
-      <c r="O10" s="103"/>
+      <c r="O10" s="101"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="77"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="77"/>
-      <c r="U10" s="103"/>
-      <c r="V10" s="119"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="117"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="7">
         <v>8.2970000000000006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" s="7">
         <v>8.3129999999999988</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L11" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>1.4</v>
       </c>
       <c r="N11" s="77"/>
-      <c r="O11" s="103"/>
+      <c r="O11" s="101"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="77"/>
-      <c r="U11" s="103"/>
-      <c r="V11" s="119"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="117"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="7">
         <v>8.3129999999999988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G12" s="7">
         <v>1.2533000000000001</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L12" s="77">
         <v>1.3163</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N12" s="77"/>
-      <c r="O12" s="103"/>
+      <c r="O12" s="101"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="77"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="77"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="119"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="117"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="122">
+        <v>198</v>
+      </c>
+      <c r="C13" s="120">
         <v>1.8142</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I13" s="7">
         <v>1.4431</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L13" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N13" s="77"/>
-      <c r="O13" s="103"/>
+      <c r="O13" s="101"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="77"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="77"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="119"/>
+      <c r="U13" s="101"/>
+      <c r="V13" s="117"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>127</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="7">
         <v>1.2533000000000001</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>1.153</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J14" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N14" s="77"/>
-      <c r="O14" s="103"/>
+      <c r="O14" s="101"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="77"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="77"/>
-      <c r="U14" s="103"/>
-      <c r="V14" s="119"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="117"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G15" s="7">
         <v>1.153</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I15" s="7">
         <v>6.0780000000000003</v>
@@ -17416,122 +17791,122 @@
         <v>2.4449000000000001</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L15" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N15" s="77"/>
-      <c r="O15" s="103"/>
+      <c r="O15" s="101"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="77"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="77"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="119"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="117"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>129</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7">
         <v>1.4431</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
         <v>6.0780000000000003</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L16" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="77"/>
-      <c r="O16" s="103"/>
+      <c r="O16" s="101"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="77"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="77"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="119"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="117"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>130</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>2.4449000000000001</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J17" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L17" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N17" s="77">
         <v>2.5</v>
       </c>
-      <c r="O17" s="103"/>
+      <c r="O17" s="101"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="77"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="77"/>
-      <c r="U17" s="103"/>
+      <c r="U17" s="101"/>
       <c r="V17" s="81">
         <v>2</v>
       </c>
@@ -17540,33 +17915,33 @@
       <c r="A18" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="113"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="113"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="112">
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="110">
         <v>2</v>
       </c>
-      <c r="V18" s="119"/>
+      <c r="V18" s="117"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -17591,12 +17966,12 @@
         <v>50</v>
       </c>
       <c r="T19" s="77"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="119"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="117"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -17619,102 +17994,102 @@
       <c r="T20" s="79">
         <v>2</v>
       </c>
-      <c r="U20" s="111"/>
-      <c r="V20" s="119"/>
+      <c r="U20" s="109"/>
+      <c r="V20" s="117"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>114</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L21" s="92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M21" s="91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N21" s="92"/>
-      <c r="O21" s="115" t="s">
-        <v>199</v>
+      <c r="O21" s="113" t="s">
+        <v>198</v>
       </c>
       <c r="P21" s="91"/>
       <c r="Q21" s="92"/>
       <c r="R21" s="91"/>
       <c r="S21" s="91"/>
       <c r="T21" s="92"/>
-      <c r="U21" s="115">
+      <c r="U21" s="113">
         <v>2.6</v>
       </c>
-      <c r="V21" s="123"/>
+      <c r="V21" s="121"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>117</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L22" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N22" s="77"/>
-      <c r="O22" s="103" t="s">
-        <v>199</v>
+      <c r="O22" s="101" t="s">
+        <v>198</v>
       </c>
       <c r="P22" s="7">
         <v>0.01</v>
@@ -17731,47 +18106,47 @@
       <c r="T22" s="77">
         <v>2</v>
       </c>
-      <c r="U22" s="103"/>
-      <c r="V22" s="119"/>
+      <c r="U22" s="101"/>
+      <c r="V22" s="117"/>
     </row>
     <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>118</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J23" s="82"/>
       <c r="K23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L23" s="82" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N23" s="82"/>
-      <c r="O23" s="104">
+      <c r="O23" s="102">
         <v>0.01</v>
       </c>
       <c r="P23" s="8"/>
@@ -17779,8 +18154,8 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="82"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="118"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="116"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -18106,7 +18481,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18169,7 +18544,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="29">
         <v>0.5</v>
@@ -18180,7 +18555,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="29">
         <v>0.5</v>
@@ -18191,7 +18566,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="29">
         <v>0.5</v>
@@ -18202,7 +18577,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="9">
         <v>0.5</v>
@@ -18233,7 +18608,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18244,7 +18619,7 @@
         <v>190</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -18296,7 +18671,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="29">
         <v>0.99</v>
@@ -18307,7 +18682,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="29">
         <v>0.99</v>
@@ -18318,7 +18693,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="29">
         <v>0.99</v>
@@ -18329,7 +18704,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="9">
         <v>0.99</v>
@@ -18359,7 +18734,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18388,15 +18763,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="116" t="s">
-        <v>212</v>
+      <c r="A6" s="114" t="s">
+        <v>211</v>
       </c>
       <c r="B6" s="37">
         <v>1</v>
@@ -18426,7 +18801,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18482,7 +18857,7 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -18490,7 +18865,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="29">
         <v>0</v>
@@ -18498,7 +18873,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="29">
         <v>0</v>
@@ -18506,7 +18881,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -18542,7 +18917,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>46</v>
@@ -18550,7 +18925,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B3" s="29">
         <v>0.21</v>
@@ -18558,7 +18933,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="29">
         <v>0.25</v>
@@ -18566,7 +18941,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="9">
         <v>1.55</v>
@@ -18596,7 +18971,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18617,7 +18992,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="37">
         <v>1</v>
@@ -18649,7 +19024,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -18657,12 +19032,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="35">
         <v>110</v>
@@ -18670,7 +19045,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="41">
         <v>0.03</v>
@@ -18678,24 +19053,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="35">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="37">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -18722,7 +19097,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -18730,12 +19105,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="41">
         <v>0.08</v>
@@ -18743,7 +19118,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="37">
         <v>20</v>
@@ -18780,7 +19155,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -18790,7 +19165,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -18798,7 +19173,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -18839,10 +19214,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -18917,10 +19292,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -18933,7 +19308,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="49">
         <v>150000</v>
@@ -18941,7 +19316,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="50">
         <v>150000</v>
@@ -18983,7 +19358,7 @@
         <v>155</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -18996,7 +19371,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="50">
         <v>150000</v>
@@ -19077,19 +19452,19 @@
       <c r="A4" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="129">
-        <v>0</v>
-      </c>
-      <c r="D4" s="130">
+      <c r="C4" s="127">
+        <v>0</v>
+      </c>
+      <c r="D4" s="128">
         <v>68</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="128">
         <v>70</v>
       </c>
-      <c r="F4" s="131">
+      <c r="F4" s="129">
         <v>72</v>
       </c>
     </row>
@@ -19117,19 +19492,19 @@
       <c r="A6" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="129">
-        <v>0</v>
-      </c>
-      <c r="D6" s="130">
+      <c r="C6" s="127">
+        <v>0</v>
+      </c>
+      <c r="D6" s="128">
         <v>68</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="128">
         <v>70</v>
       </c>
-      <c r="F6" s="131">
+      <c r="F6" s="129">
         <v>72</v>
       </c>
     </row>
@@ -19138,7 +19513,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="34">
         <v>0</v>
@@ -19157,19 +19532,19 @@
       <c r="A8" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="126" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="129">
-        <v>0</v>
-      </c>
-      <c r="D8" s="130">
+      <c r="B8" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="127">
+        <v>0</v>
+      </c>
+      <c r="D8" s="128">
         <v>68</v>
       </c>
-      <c r="E8" s="130">
+      <c r="E8" s="128">
         <v>70</v>
       </c>
-      <c r="F8" s="131">
+      <c r="F8" s="129">
         <v>72</v>
       </c>
     </row>
@@ -19178,7 +19553,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="34">
         <v>0</v>
@@ -19198,7 +19573,7 @@
         <v>118</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="42">
         <v>0</v>
@@ -19357,7 +19732,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -19374,7 +19749,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -19422,14 +19797,14 @@
         <v>45</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="132">
+        <v>241</v>
+      </c>
+      <c r="B3" s="130">
         <v>0.2</v>
       </c>
     </row>
@@ -19445,7 +19820,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -19487,7 +19862,7 @@
       <c r="A3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="131" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="7">
@@ -19510,7 +19885,7 @@
       <c r="A4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="131" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="7">
@@ -19533,7 +19908,7 @@
       <c r="A5" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="131" t="s">
         <v>126</v>
       </c>
       <c r="C5" s="7">
@@ -19556,7 +19931,7 @@
       <c r="A6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="132" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="8">
@@ -19579,4 +19954,56 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC520D4-C260-43C9-829A-0168818F0C13}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A67AB7E-C43E-4460-BBE5-7CAF7901DC39}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4E34A-E56C-4522-A24E-1187745489F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62D072A-EEFB-43BC-A0FE-EDC6764271FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="10920" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="ProductionTanks" sheetId="34" state="hidden" r:id="rId5"/>
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
     <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
-    <sheet name="FreshwaterSources" sheetId="35" r:id="rId8"/>
+    <sheet name="ExternalWaterSources" sheetId="35" r:id="rId8"/>
     <sheet name="WaterQualityComponents" sheetId="144" r:id="rId9"/>
     <sheet name="StorageSites" sheetId="36" r:id="rId10"/>
     <sheet name="TreatmentSites" sheetId="37" r:id="rId11"/>
@@ -71,7 +71,7 @@
     <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId56"/>
     <sheet name="ReuseMinimum" sheetId="125" r:id="rId57"/>
     <sheet name="ReuseCapacity" sheetId="126" r:id="rId58"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId59"/>
+    <sheet name="ExtWaterSourcingAvailability" sheetId="47" r:id="rId59"/>
     <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId60"/>
     <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId61"/>
     <sheet name="NodeCapacities" sheetId="102" r:id="rId62"/>
@@ -80,7 +80,7 @@
     <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId65"/>
     <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId66"/>
     <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId67"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId68"/>
+    <sheet name="ExternalSourcingCost" sheetId="52" r:id="rId68"/>
     <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId69"/>
     <sheet name="TruckingTime" sheetId="7" r:id="rId70"/>
     <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId71"/>
@@ -103,7 +103,7 @@
     <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId88"/>
     <sheet name="Hydraulics" sheetId="93" r:id="rId89"/>
     <sheet name="Economics" sheetId="95" r:id="rId90"/>
-    <sheet name="FreshwaterQuality" sheetId="145" r:id="rId91"/>
+    <sheet name="ExternalWaterQuality" sheetId="145" r:id="rId91"/>
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId92"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId93"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId94"/>
@@ -241,12 +241,6 @@
     <t>Forecasted disposal capacity</t>
   </si>
   <si>
-    <t>Freshwater Costs</t>
-  </si>
-  <si>
-    <t>Cost for sourcing freshwater for frac</t>
-  </si>
-  <si>
     <t>Figure 1: Illustration of the optimization workflow</t>
   </si>
   <si>
@@ -487,9 +481,6 @@
     <t>K02</t>
   </si>
   <si>
-    <t>List of all Freshwater Source Identifiers [-]</t>
-  </si>
-  <si>
     <t>F01</t>
   </si>
   <si>
@@ -640,12 +631,6 @@
     <t>Storage Sites to Network Nodes Piping Arcs [-]</t>
   </si>
   <si>
-    <t>Freshwater Sources to Completions Pads Piping Arcs [-]</t>
-  </si>
-  <si>
-    <t>FreshwaterSources</t>
-  </si>
-  <si>
     <t>Treatment Sites to Completions Sites Piping Arcs [-]</t>
   </si>
   <si>
@@ -664,9 +649,6 @@
     <t>Production Pads to Completions Pads Trucking Arcs [-]</t>
   </si>
   <si>
-    <t>Freshwater Sources to Completions Pads Trucking Arcs [-]</t>
-  </si>
-  <si>
     <t>Production Pads to Disposal Sites Trucking Arcs [-]</t>
   </si>
   <si>
@@ -944,6 +926,24 @@
   </si>
   <si>
     <t>List of all Water Quality Components [-]</t>
+  </si>
+  <si>
+    <t>Cost for sourcing external water for frac</t>
+  </si>
+  <si>
+    <t>External Water Costs</t>
+  </si>
+  <si>
+    <t>List of all External Water Source Identifiers [-]</t>
+  </si>
+  <si>
+    <t>External Water Sources to Completions Pads Piping Arcs [-]</t>
+  </si>
+  <si>
+    <t>ExternalWaterSources</t>
+  </si>
+  <si>
+    <t>External Water Sources to Completions Pads Trucking Arcs [-]</t>
   </si>
 </sst>
 </file>
@@ -2041,8 +2041,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6955974" y="1113310"/>
-          <a:ext cx="3166753" cy="4167290"/>
+          <a:off x="6556419" y="1156605"/>
+          <a:ext cx="2931721" cy="4330576"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2828,12 +2828,12 @@
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="20" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
@@ -2841,18 +2841,18 @@
       <c r="J31" s="17"/>
       <c r="K31" s="18"/>
       <c r="M31" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -2863,12 +2863,12 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
@@ -2879,12 +2879,12 @@
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -2895,12 +2895,12 @@
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
       <c r="C35" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -2911,12 +2911,12 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
@@ -2946,7 +2946,7 @@
     <hyperlink ref="C28" location="FlowbackRates!A1" display="Flowback Rates" xr:uid="{7AB55603-1A43-41A6-9693-1B89B6DCD5C2}"/>
     <hyperlink ref="C29" location="PadRates!A1" display="Production Rates" xr:uid="{60EE3CB2-6945-4EF9-994B-D4937DBB327B}"/>
     <hyperlink ref="C30" location="DisposalOperatingCapacity!A1" display="Disposal Capacity" xr:uid="{CAE3DFDA-8B08-4283-9205-309B32142AC6}"/>
-    <hyperlink ref="C31" location="FreshSourcingCost!A1" display="Freshwater Costs" xr:uid="{88138AE4-1159-418A-A895-39D1A4152B0C}"/>
+    <hyperlink ref="C31" location="ExternalSourcingCost!A1" display="External Water Costs" xr:uid="{88138AE4-1159-418A-A895-39D1A4152B0C}"/>
     <hyperlink ref="C32" location="ReuseOperationalCost!A1" display="Reuse Costs" xr:uid="{146BA03C-3C08-4957-9F2D-51584E8F9494}"/>
     <hyperlink ref="C33" location="DisposalOperationalCost!A1" display="Disposal Costs" xr:uid="{906CEF7C-3D67-4EB0-9995-1E45CB542C7C}"/>
     <hyperlink ref="C34" location="TruckingHourlyCost!A1" display="Hauling Rates" xr:uid="{E573813D-C46B-4CBC-BD31-9C5E10AF7D7A}"/>
@@ -2984,17 +2984,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +3029,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3055,7 +3055,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3081,7 +3081,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3107,7 +3107,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3133,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3159,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +3185,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3212,23 +3212,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="135" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="138" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C2" s="136"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="139" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B3" s="140">
         <v>1.86</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="139" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B4" s="140">
         <v>2</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="139" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B5" s="140">
         <v>1.86</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="139" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B6" s="140">
         <v>2</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="139" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B7" s="140">
         <v>5.59</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="139" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B8" s="140">
         <v>1</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="139" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B9" s="140">
         <v>5.59</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="139" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B10" s="140">
         <v>1</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="139" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B11" s="140">
         <v>1.86</v>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="139" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B12" s="140">
         <v>2</v>
@@ -3318,24 +3318,24 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="139" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B13" s="140">
         <v>0.7</v>
       </c>
       <c r="C13" s="136" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="141" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B14" s="142">
         <v>0.5</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3369,17 +3369,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3430,17 +3430,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3448,12 +3448,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3491,17 +3491,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3544,17 +3544,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3562,37 +3562,37 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -3688,32 +3688,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3748,17 +3748,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3766,12 +3766,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3812,17 +3812,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3830,12 +3830,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3877,17 +3877,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -3895,12 +3895,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3934,45 +3934,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4134,45 +4134,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4227,30 +4227,30 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="112"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="102"/>
       <c r="C4" s="9"/>
@@ -4281,45 +4281,45 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7">
@@ -4335,7 +4335,7 @@
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -4355,7 +4355,7 @@
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7">
@@ -4373,7 +4373,7 @@
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7">
@@ -4409,7 +4409,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4522,79 +4522,79 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="101"/>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="101"/>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="101"/>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="101"/>
       <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="101"/>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="9">
@@ -4631,23 +4631,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -4656,21 +4656,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="29">
@@ -4679,35 +4679,35 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -4743,37 +4743,37 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -4782,42 +4782,42 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="9">
@@ -4855,26 +4855,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="7"/>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="7"/>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="101"/>
       <c r="C5" s="7"/>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="101"/>
       <c r="C6" s="7"/>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="101"/>
       <c r="C7" s="7"/>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="101"/>
       <c r="C8" s="7"/>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="101"/>
       <c r="C9" s="7"/>
@@ -4930,7 +4930,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="101"/>
       <c r="C10" s="7"/>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="8"/>
@@ -4969,26 +4969,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="103"/>
       <c r="C3" s="7"/>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="103"/>
       <c r="C4" s="7"/>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="103"/>
       <c r="C5" s="7"/>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="103"/>
       <c r="C6" s="7"/>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="103"/>
       <c r="C7" s="7"/>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="103"/>
       <c r="C8" s="7"/>
@@ -5036,7 +5036,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="103"/>
       <c r="C9" s="7"/>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="103"/>
       <c r="C10" s="7"/>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="104"/>
       <c r="C11" s="8"/>
@@ -5083,44 +5083,44 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5185,26 +5185,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="115"/>
       <c r="C5" s="115"/>
@@ -5266,21 +5266,21 @@
   <sheetData>
     <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="E2" s="69" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>48</v>
       </c>
       <c r="F2" s="61"/>
       <c r="G2" s="61"/>
@@ -5291,52 +5291,52 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="E3" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="G3" s="51" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>53</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J3" s="58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3" s="53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="E4" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="F4" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>60</v>
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="51"/>
@@ -5345,13 +5345,13 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>61</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="59"/>
       <c r="F5" s="52"/>
@@ -5363,22 +5363,22 @@
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="E6" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>67</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="52"/>
@@ -5387,22 +5387,22 @@
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="E7" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="F7" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>70</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>72</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="52"/>
@@ -5411,13 +5411,13 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>73</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>75</v>
       </c>
       <c r="E8" s="59"/>
       <c r="F8" s="52"/>
@@ -5427,87 +5427,87 @@
       <c r="J8" s="52"/>
       <c r="K8" s="54"/>
       <c r="AT8" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AU8" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AV8" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AW8" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AX8" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AY8" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AZ8" s="30" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="BA8" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
       <c r="K9" s="54"/>
       <c r="AT9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AU9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="52"/>
@@ -5517,72 +5517,72 @@
       <c r="J10" s="52"/>
       <c r="K10" s="54"/>
       <c r="AT10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AW10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="BA10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="E11" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="F11" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="66" t="s">
         <v>79</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>81</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J11" s="65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AU12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BA12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5630,29 +5630,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="102">
         <v>1</v>
@@ -5685,30 +5685,30 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="102"/>
       <c r="C4" s="9"/>
@@ -5739,26 +5739,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -5798,23 +5798,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -5823,14 +5823,14 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="133"/>
       <c r="C4" s="117"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="115"/>
       <c r="C5" s="116"/>
@@ -5860,44 +5860,44 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="4" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -5948,26 +5948,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="7"/>
@@ -5975,7 +5975,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="102"/>
       <c r="C4" s="8"/>
@@ -6004,30 +6004,30 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="102"/>
       <c r="C4" s="9"/>
@@ -6056,44 +6056,44 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="101"/>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="102"/>
       <c r="C6" s="9"/>
@@ -6118,29 +6118,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="102">
         <v>1</v>
@@ -6173,23 +6173,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -6262,28 +6262,28 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6342,23 +6342,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="111">
         <v>1</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -6400,30 +6400,30 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="118"/>
       <c r="C3" s="119"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="104"/>
       <c r="C4" s="33"/>
@@ -6454,26 +6454,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="102"/>
       <c r="C4" s="8"/>
@@ -6513,26 +6513,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="7"/>
@@ -6540,7 +6540,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="102">
         <v>1</v>
@@ -6572,26 +6572,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="7"/>
@@ -6599,7 +6599,7 @@
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="102"/>
       <c r="C4" s="8"/>
@@ -6629,26 +6629,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6693,30 +6693,30 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="101"/>
       <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="102"/>
       <c r="C4" s="9"/>
@@ -6752,20 +6752,20 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="98">
         <v>650</v>
@@ -6773,7 +6773,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="98">
         <v>550</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="98">
         <v>550</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="98">
         <v>450</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="98">
         <v>650</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B8" s="98">
         <v>600</v>
@@ -6814,7 +6814,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="98">
         <v>550</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="98">
         <v>600</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="98">
         <v>650</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="97" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="98">
         <v>350</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B13" s="98">
         <v>500</v>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="97" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B14" s="98">
         <v>500</v>
@@ -6862,7 +6862,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B15" s="98">
         <v>500</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="97" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B16" s="98">
         <v>250</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B17" s="98">
         <v>500</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="97" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B18" s="98">
         <v>500</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="97" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B19" s="98">
         <v>500</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="97" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B20" s="98">
         <v>600</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="97" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B21" s="98">
         <v>600</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="97" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B22" s="98">
         <v>600</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="97" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B23" s="98">
         <v>600</v>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="97" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B24" s="98">
         <v>550</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B25" s="98">
         <v>550</v>
@@ -6950,7 +6950,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="97" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B26" s="98">
         <v>550</v>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="97" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B27" s="98">
         <v>550</v>
@@ -6966,7 +6966,7 @@
     </row>
     <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="106" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B28" s="107">
         <v>500</v>
@@ -7008,42 +7008,42 @@
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="111">
         <v>50000</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -7132,42 +7132,42 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="34">
         <f>(5000*7)/7</f>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="34">
         <f>(13000*7)/7</f>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="34">
         <f>(8000*7)/7</f>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="36">
         <v>10000</v>
@@ -7383,28 +7383,28 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -7412,52 +7412,52 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7493,42 +7493,42 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="111"/>
       <c r="C3" s="111"/>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="115"/>
       <c r="C4" s="115"/>
@@ -7608,43 +7608,43 @@
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>186</v>
       </c>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="34">
         <v>50</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="34">
         <v>130</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="34">
         <v>80</v>
@@ -7754,7 +7754,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="128">
         <v>20</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="34">
         <v>0</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B8" s="36">
         <v>0</v>
@@ -8055,75 +8055,75 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>130</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L2" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="73" t="s">
-        <v>115</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="T2" s="80" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="110">
         <v>14206</v>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="101">
         <v>0</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="101">
         <v>0</v>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="109">
         <v>0</v>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="111">
         <v>0</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B8" s="78">
         <v>0</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="110">
         <v>0</v>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="101"/>
       <c r="C10" s="7">
@@ -8563,7 +8563,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="101">
         <v>0</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="101">
         <v>0</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="101">
         <v>0</v>
@@ -8731,7 +8731,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="101">
         <v>0</v>
@@ -8787,7 +8787,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="101">
         <v>0</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="101">
         <v>0</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="109">
         <v>0</v>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B21" s="91">
         <v>0</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B22" s="7">
         <v>0</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B23" s="8">
         <v>0</v>
@@ -9254,66 +9254,66 @@
   <sheetData>
     <row r="1" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>130</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L2" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="73" t="s">
-        <v>115</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T2" s="99"/>
       <c r="U2" s="99"/>
@@ -9362,7 +9362,7 @@
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>6</v>
@@ -9431,7 +9431,7 @@
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="78"/>
       <c r="C6" s="78"/>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="111"/>
       <c r="C7" s="111"/>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B8" s="78"/>
       <c r="C8" s="78"/>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7">
@@ -9843,7 +9843,7 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -9914,7 +9914,7 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -10192,7 +10192,7 @@
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="78"/>
       <c r="C17" s="78"/>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -10462,7 +10462,7 @@
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -10596,7 +10596,7 @@
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B21" s="91"/>
       <c r="C21" s="91"/>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -10732,7 +10732,7 @@
     </row>
     <row r="23" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -13429,15 +13429,15 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="35">
         <v>20000</v>
@@ -13445,7 +13445,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="37">
         <v>20000</v>
@@ -13482,15 +13482,15 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="35">
         <v>0</v>
@@ -13498,7 +13498,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="35">
         <v>0</v>
@@ -13506,7 +13506,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="37">
         <v>0</v>
@@ -13543,24 +13543,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="71">
         <v>0</v>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="42">
         <v>0</v>
@@ -13623,42 +13623,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -13693,7 +13693,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -13791,42 +13791,42 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" s="34">
         <v>36000</v>
@@ -13861,7 +13861,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" s="34">
         <v>12580</v>
@@ -13896,7 +13896,7 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B5" s="36">
         <v>51112</v>
@@ -13947,54 +13947,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
+        <f>_xlfn.CONCAT( "Table of External Water Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of External Water Sourcing Availability [bbl/day]</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="36">
         <v>80000</v>
@@ -14063,17 +14063,17 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
@@ -14115,15 +14115,15 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="43">
         <v>0</v>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="37">
         <v>0</v>
@@ -14169,15 +14169,15 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="43">
         <v>30000</v>
@@ -14185,7 +14185,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="37">
         <v>30000</v>
@@ -14224,63 +14224,63 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="35"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="35"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="37"/>
     </row>
@@ -14321,42 +14321,42 @@
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -14391,7 +14391,7 @@
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -14429,7 +14429,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -14464,15 +14464,15 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="29">
         <v>2</v>
@@ -14480,7 +14480,7 @@
     </row>
     <row r="4" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
@@ -14519,21 +14519,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="29">
         <v>0.2</v>
@@ -14541,10 +14541,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="29">
         <v>0.2</v>
@@ -14552,10 +14552,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="84" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>120</v>
       </c>
       <c r="C5" s="29">
         <v>0.3</v>
@@ -14563,10 +14563,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="29">
         <v>0.3</v>
@@ -14574,10 +14574,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C7" s="29">
         <v>0.5</v>
@@ -14585,10 +14585,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" s="29">
         <v>0.5</v>
@@ -14596,10 +14596,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C9" s="29">
         <v>1</v>
@@ -14607,10 +14607,10 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -14647,15 +14647,15 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="112">
         <v>0</v>
@@ -14663,7 +14663,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -14702,75 +14702,75 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>130</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L2" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="73" t="s">
-        <v>115</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="T2" s="80" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>1E-4</v>
@@ -14838,7 +14838,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -14906,7 +14906,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="78">
         <v>0</v>
@@ -15042,7 +15042,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="111">
         <v>0</v>
@@ -15110,7 +15110,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B8" s="78">
         <v>0</v>
@@ -15178,7 +15178,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -15246,7 +15246,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="7">
         <v>1E-4</v>
@@ -15314,7 +15314,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -15382,7 +15382,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -15450,7 +15450,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
@@ -15518,7 +15518,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -15586,7 +15586,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -15722,7 +15722,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="78">
         <v>0</v>
@@ -15790,7 +15790,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -15858,7 +15858,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -15926,7 +15926,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B20" s="78">
         <v>0</v>
@@ -15994,7 +15994,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B21" s="91">
         <v>0</v>
@@ -16062,7 +16062,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B22" s="7">
         <v>0</v>
@@ -16130,7 +16130,7 @@
     </row>
     <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B23" s="8">
         <v>0</v>
@@ -16210,33 +16210,31 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Freshwater Souring Cost [USD/bbl]</v>
+        <f>_xlfn.CONCAT( "Table of External Water Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of External Water Souring Cost [USD/bbl]</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="9">
         <v>1.5</v>
@@ -16272,15 +16270,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="29">
         <v>95</v>
@@ -16288,7 +16286,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="29">
         <v>93</v>
@@ -16296,7 +16294,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="29">
         <v>97</v>
@@ -16304,7 +16302,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="81">
         <v>94</v>
@@ -16312,7 +16310,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="112">
         <v>90</v>
@@ -16320,7 +16318,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B8" s="81">
         <v>95</v>
@@ -16328,7 +16326,7 @@
     </row>
     <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" s="9">
         <v>110</v>
@@ -16364,17 +16362,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -16411,23 +16409,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
@@ -16438,7 +16436,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>2.5</v>
@@ -16449,7 +16447,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
@@ -16460,7 +16458,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="78">
         <v>3</v>
@@ -16471,7 +16469,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="7">
         <v>3</v>
@@ -16482,7 +16480,7 @@
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B8" s="8">
         <v>3.5</v>
@@ -16522,24 +16520,24 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -16556,7 +16554,7 @@
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="36">
         <v>0</v>
@@ -16603,24 +16601,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -16637,7 +16635,7 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="36">
         <v>0</v>
@@ -16691,24 +16689,24 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="34">
         <v>2</v>
@@ -16725,7 +16723,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="34">
         <v>18</v>
@@ -16742,7 +16740,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="36">
         <v>21</v>
@@ -16788,15 +16786,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B3" s="35">
         <v>0</v>
@@ -16804,7 +16802,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="35">
         <v>50000</v>
@@ -16812,7 +16810,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" s="35">
         <v>100000</v>
@@ -16820,7 +16818,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="37">
         <v>350000</v>
@@ -16858,30 +16856,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="34">
         <v>75</v>
@@ -16898,10 +16896,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="34">
         <v>75</v>
@@ -16918,10 +16916,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>120</v>
       </c>
       <c r="C5" s="34">
         <v>100</v>
@@ -16938,10 +16936,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="34">
         <v>100</v>
@@ -16958,10 +16956,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C7" s="34">
         <v>1000</v>
@@ -16978,10 +16976,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" s="34">
         <v>1000</v>
@@ -16998,10 +16996,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C9" s="34">
         <v>500</v>
@@ -17018,10 +17016,10 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C10" s="36">
         <v>500</v>
@@ -17069,24 +17067,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -17103,7 +17101,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -17120,7 +17118,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B5" s="34">
         <v>0</v>
@@ -17137,7 +17135,7 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B6" s="36">
         <v>0</v>
@@ -17190,15 +17188,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B3" s="37">
         <v>300000</v>
@@ -17235,115 +17233,115 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="80" t="s">
-        <v>130</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L2" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N2" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="73" t="s">
-        <v>115</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="T2" s="80" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="U2" s="73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>1.4259999999999999</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L3" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N3" s="77"/>
       <c r="O3" s="101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="77"/>
@@ -17351,53 +17349,53 @@
       <c r="S3" s="7"/>
       <c r="T3" s="77"/>
       <c r="U3" s="101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="V3" s="117"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7">
         <v>1.6847000000000001</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L4" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N4" s="77"/>
       <c r="O4" s="101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="77"/>
@@ -17405,53 +17403,53 @@
       <c r="S4" s="7"/>
       <c r="T4" s="77"/>
       <c r="U4" s="101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="V4" s="117"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7">
         <v>1.2563</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L5" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N5" s="77"/>
       <c r="O5" s="101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="77"/>
@@ -17459,53 +17457,53 @@
       <c r="S5" s="7"/>
       <c r="T5" s="77"/>
       <c r="U5" s="101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="V5" s="117"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J6" s="79">
         <v>2.5074000000000001</v>
       </c>
       <c r="K6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L6" s="79" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M6" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N6" s="79"/>
       <c r="O6" s="109" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P6" s="78"/>
       <c r="Q6" s="79"/>
@@ -17513,32 +17511,32 @@
       <c r="S6" s="78"/>
       <c r="T6" s="79"/>
       <c r="U6" s="109" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="V6" s="122"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C7" s="111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D7" s="111"/>
       <c r="E7" s="111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F7" s="111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G7" s="111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H7" s="111" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I7" s="111">
         <v>3.3694000000000002</v>
@@ -17559,41 +17557,41 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D8" s="78"/>
       <c r="E8" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F8" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G8" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I8" s="78"/>
       <c r="J8" s="79" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K8" s="123" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L8" s="124" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M8" s="78"/>
       <c r="N8" s="79"/>
       <c r="O8" s="109" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P8" s="78"/>
       <c r="Q8" s="79"/>
@@ -17601,49 +17599,49 @@
       <c r="S8" s="78"/>
       <c r="T8" s="79"/>
       <c r="U8" s="125" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="V8" s="122"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C9" s="120">
         <v>4.0752409775985399</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J9" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K9" s="120">
         <v>4.1717000000000004</v>
       </c>
       <c r="L9" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N9" s="77"/>
       <c r="O9" s="101"/>
@@ -17657,43 +17655,43 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B10" s="120">
         <v>4.0752409775985399</v>
       </c>
       <c r="C10" s="120" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D10" s="7">
         <v>8.2970000000000006</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7">
         <v>1.8142</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J10" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L10" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N10" s="77"/>
       <c r="O10" s="101"/>
@@ -17707,40 +17705,40 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C11" s="7">
         <v>8.2970000000000006</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E11" s="7">
         <v>8.3129999999999988</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L11" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1.4</v>
@@ -17757,43 +17755,43 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D12" s="7">
         <v>8.3129999999999988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G12" s="7">
         <v>1.2533000000000001</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J12" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L12" s="77">
         <v>1.3163</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N12" s="77"/>
       <c r="O12" s="101"/>
@@ -17807,43 +17805,43 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C13" s="120">
         <v>1.8142</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I13" s="7">
         <v>1.4431</v>
       </c>
       <c r="J13" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L13" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N13" s="77"/>
       <c r="O13" s="101"/>
@@ -17857,43 +17855,43 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E14" s="7">
         <v>1.2533000000000001</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>1.153</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J14" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L14" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N14" s="77"/>
       <c r="O14" s="101"/>
@@ -17907,28 +17905,28 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G15" s="7">
         <v>1.153</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I15" s="7">
         <v>6.0780000000000003</v>
@@ -17937,13 +17935,13 @@
         <v>2.4449000000000001</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L15" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N15" s="77"/>
       <c r="O15" s="101"/>
@@ -17957,40 +17955,40 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7">
         <v>1.4431</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>6.0780000000000003</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L16" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="77"/>
@@ -18005,43 +18003,43 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>2.4449000000000001</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J17" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L17" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N17" s="77">
         <v>2.5</v>
@@ -18059,7 +18057,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B18" s="111"/>
       <c r="C18" s="111"/>
@@ -18087,7 +18085,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -18117,7 +18115,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="78"/>
@@ -18145,47 +18143,47 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J21" s="92" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L21" s="92" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M21" s="91" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N21" s="92"/>
       <c r="O21" s="113" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P21" s="91"/>
       <c r="Q21" s="92"/>
@@ -18199,43 +18197,43 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L22" s="77" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N22" s="77"/>
       <c r="O22" s="101" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7">
         <v>0.01</v>
@@ -18257,39 +18255,39 @@
     </row>
     <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J23" s="82"/>
       <c r="K23" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L23" s="82" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="N23" s="82"/>
       <c r="O23" s="102">
@@ -18333,33 +18331,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="7">
         <v>30</v>
@@ -18379,10 +18377,10 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="8">
         <v>30</v>
@@ -18432,12 +18430,12 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -18478,15 +18476,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" s="35">
         <v>0</v>
@@ -18494,7 +18492,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="35">
         <v>14285.714285714286</v>
@@ -18502,7 +18500,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" s="35">
         <v>35714.285714285717</v>
@@ -18510,7 +18508,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" s="35">
         <v>42857.142857142855</v>
@@ -18518,7 +18516,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B7" s="37">
         <v>50000</v>
@@ -18555,15 +18553,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" s="35">
         <v>0</v>
@@ -18571,7 +18569,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="35">
         <v>4</v>
@@ -18579,7 +18577,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B5" s="35">
         <v>6</v>
@@ -18587,7 +18585,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" s="35">
         <v>8</v>
@@ -18595,7 +18593,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B7" s="37">
         <v>12</v>
@@ -18627,26 +18625,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="29">
         <v>0.95</v>
@@ -18654,10 +18652,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="29">
         <v>0.95</v>
@@ -18665,10 +18663,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="84" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>120</v>
       </c>
       <c r="C5" s="29">
         <v>0.95</v>
@@ -18676,10 +18674,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="29">
         <v>0.95</v>
@@ -18687,10 +18685,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C7" s="29">
         <v>0.5</v>
@@ -18698,10 +18696,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" s="29">
         <v>0.5</v>
@@ -18709,10 +18707,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C9" s="29">
         <v>0.5</v>
@@ -18720,10 +18718,10 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C10" s="9">
         <v>0.5</v>
@@ -18754,26 +18752,26 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="29">
         <v>0</v>
@@ -18781,10 +18779,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="29">
         <v>0</v>
@@ -18792,10 +18790,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="84" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>120</v>
       </c>
       <c r="C5" s="29">
         <v>0</v>
@@ -18803,10 +18801,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="29">
         <v>0</v>
@@ -18814,10 +18812,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C7" s="29">
         <v>0.99</v>
@@ -18825,10 +18823,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" s="29">
         <v>0.99</v>
@@ -18836,10 +18834,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C9" s="29">
         <v>0.99</v>
@@ -18847,10 +18845,10 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="87" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C10" s="9">
         <v>0.99</v>
@@ -18880,20 +18878,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" s="35">
         <v>0</v>
@@ -18901,7 +18899,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="35">
         <v>0</v>
@@ -18909,7 +18907,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="88" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B5" s="35">
         <v>1</v>
@@ -18917,7 +18915,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="114" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B6" s="37">
         <v>1</v>
@@ -18947,20 +18945,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -18968,7 +18966,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -19003,15 +19001,15 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" s="29">
         <v>0</v>
@@ -19019,7 +19017,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" s="29">
         <v>0</v>
@@ -19027,7 +19025,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -19063,15 +19061,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B3" s="29">
         <v>0.21</v>
@@ -19079,7 +19077,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" s="29">
         <v>0.25</v>
@@ -19087,7 +19085,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B5" s="9">
         <v>1.55</v>
@@ -19117,20 +19115,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="43">
         <v>0</v>
@@ -19138,7 +19136,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="37">
         <v>1</v>
@@ -19170,20 +19168,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B3" s="35">
         <v>110</v>
@@ -19191,7 +19189,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B4" s="41">
         <v>0.03</v>
@@ -19199,24 +19197,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B5" s="35">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B6" s="37">
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -19242,12 +19240,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -19274,20 +19272,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B3" s="41">
         <v>0.08</v>
@@ -19295,7 +19293,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B4" s="37">
         <v>20</v>
@@ -19319,27 +19317,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Freshwater Sources [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Freshwater Sources [mg/liter]</v>
+        <f>_xlfn.CONCAT( "Table of Water Quality of External Water Sources [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of External Water Sources [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="143" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="144">
         <v>0</v>
@@ -19382,15 +19380,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="48">
         <v>142277</v>
@@ -19398,7 +19396,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="49">
         <v>140998</v>
@@ -19406,7 +19404,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="49">
         <v>172490.2</v>
@@ -19414,7 +19412,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="95">
         <v>257547</v>
@@ -19422,7 +19420,7 @@
     </row>
     <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="50">
         <v>165376</v>
@@ -19460,15 +19458,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="48">
         <v>150000</v>
@@ -19476,7 +19474,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="49">
         <v>150000</v>
@@ -19484,7 +19482,7 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="50">
         <v>150000</v>
@@ -19523,15 +19521,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" s="48">
         <v>150000</v>
@@ -19539,7 +19537,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B4" s="50">
         <v>150000</v>
@@ -19578,30 +19576,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" s="34">
         <v>0</v>
@@ -19618,10 +19616,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" s="124" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="127">
         <v>0</v>
@@ -19638,10 +19636,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>120</v>
       </c>
       <c r="C5" s="34">
         <v>0</v>
@@ -19658,10 +19656,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" s="127">
         <v>0</v>
@@ -19678,10 +19676,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C7" s="34">
         <v>0</v>
@@ -19698,10 +19696,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C8" s="127">
         <v>0</v>
@@ -19718,10 +19716,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C9" s="34">
         <v>0</v>
@@ -19738,10 +19736,10 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C10" s="42">
         <v>0</v>
@@ -19786,24 +19784,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -19820,7 +19818,7 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="36">
         <v>0</v>
@@ -19866,24 +19864,24 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="34">
         <v>0</v>
@@ -19900,7 +19898,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B4" s="34">
         <v>0</v>
@@ -19917,7 +19915,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B5" s="36">
         <v>0</v>
@@ -19962,15 +19960,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B3" s="130">
         <v>0.2</v>
@@ -20005,33 +20003,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -20051,10 +20049,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B4" s="131" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -20074,10 +20072,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="131" t="s">
         <v>123</v>
-      </c>
-      <c r="B5" s="131" t="s">
-        <v>126</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -20097,10 +20095,10 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="132" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62D072A-EEFB-43BC-A0FE-EDC6764271FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A5ADF4-9514-40C3-9AD8-C89FA4E65423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="266">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1629,7 +1629,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1978,6 +1978,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3016,20 +3019,45 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3042,20 +3070,45 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -3068,20 +3121,45 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -3094,20 +3172,45 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -3120,20 +3223,45 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5.46</v>
       </c>
     </row>
   </sheetData>
@@ -3146,20 +3274,45 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9">
+        <v>4.1900000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -3172,20 +3325,45 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A5ADF4-9514-40C3-9AD8-C89FA4E65423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5083F-A81B-41DF-9433-E9BEB1BECCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="267">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -944,6 +944,9 @@
   </si>
   <si>
     <t>External Water Sources to Completions Pads Trucking Arcs [-]</t>
+  </si>
+  <si>
+    <t>K03</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1632,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1981,6 +1984,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3019,10 +3028,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3052,15 +3061,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3070,10 +3088,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3103,15 +3121,24 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
         <v>0.65</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3121,10 +3148,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3154,15 +3181,24 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
         <v>0.27</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3172,10 +3208,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3205,15 +3241,24 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
         <v>0.35</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3223,10 +3268,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3256,15 +3301,24 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
         <v>5.46</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3274,10 +3328,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3307,15 +3361,24 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
         <v>4.1900000000000004</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3325,10 +3388,10 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3358,15 +3421,24 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
         <v>2.8</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4795,10 +4867,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4807,90 +4879,104 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="146"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="146"/>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="146"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="29">
+      <c r="C6" s="146">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>123</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="146"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="146"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="146"/>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="146"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -6169,10 +6255,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6180,37 +6266,43 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="101"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="146"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="102"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6337,10 +6429,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6349,67 +6441,83 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="146">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="146">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="146">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6506,10 +6614,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6518,39 +6626,46 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="111">
         <v>1</v>
       </c>
-      <c r="C3" s="112">
+      <c r="C3" s="111">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>231</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6858,10 +6973,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6869,37 +6984,43 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="101"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="146"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="102"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6909,10 +7030,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7008,31 +7129,31 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="B11" s="98">
-        <v>650</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="98">
-        <v>350</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="B13" s="98">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="98">
         <v>500</v>
@@ -7040,7 +7161,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="B15" s="98">
         <v>500</v>
@@ -7048,23 +7169,23 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="98">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="B17" s="98">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="98">
         <v>500</v>
@@ -7072,7 +7193,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="98">
         <v>500</v>
@@ -7080,15 +7201,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="97" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="B20" s="98">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="98">
         <v>600</v>
@@ -7096,7 +7217,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="98">
         <v>600</v>
@@ -7104,7 +7225,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="98">
         <v>600</v>
@@ -7112,15 +7233,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="98">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="98">
         <v>550</v>
@@ -7128,7 +7249,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="98">
         <v>550</v>
@@ -7136,21 +7257,30 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="98">
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="106" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="98">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="107">
+      <c r="B29" s="107">
         <v>500</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8214,10 +8344,10 @@
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8225,13 +8355,13 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -8265,41 +8395,44 @@
       <c r="K2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="P2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="U2" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="W2" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
@@ -8333,31 +8466,34 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="77">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="77">
-        <v>0</v>
-      </c>
-      <c r="O3" s="101">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="7"/>
+      <c r="L3" s="146">
+        <v>0</v>
+      </c>
+      <c r="M3" s="77">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="77">
+        <v>0</v>
+      </c>
+      <c r="P3" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="77"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="7"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
@@ -8391,31 +8527,34 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="77">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="77">
-        <v>0</v>
-      </c>
-      <c r="O4" s="101">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="7"/>
+      <c r="L4" s="146">
+        <v>0</v>
+      </c>
+      <c r="M4" s="77">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="77">
+        <v>0</v>
+      </c>
+      <c r="P4" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="77"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T4" s="7"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
@@ -8449,31 +8588,34 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="77">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="77">
-        <v>0</v>
-      </c>
-      <c r="O5" s="101">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="7"/>
+      <c r="L5" s="146">
+        <v>0</v>
+      </c>
+      <c r="M5" s="77">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="77">
+        <v>0</v>
+      </c>
+      <c r="P5" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="77"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T5" s="7"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
@@ -8505,31 +8647,34 @@
       <c r="K6" s="78">
         <v>0</v>
       </c>
-      <c r="L6" s="79">
-        <v>0</v>
-      </c>
-      <c r="M6" s="78">
-        <v>0</v>
-      </c>
-      <c r="N6" s="79">
-        <v>0</v>
-      </c>
-      <c r="O6" s="109">
-        <v>0</v>
-      </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="78"/>
+      <c r="L6" s="78">
+        <v>0</v>
+      </c>
+      <c r="M6" s="79">
+        <v>0</v>
+      </c>
+      <c r="N6" s="78">
+        <v>0</v>
+      </c>
+      <c r="O6" s="79">
+        <v>0</v>
+      </c>
+      <c r="P6" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
       <c r="S6" s="78"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="78">
-        <v>0</v>
-      </c>
-      <c r="V6" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T6" s="78"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="78">
+        <v>0</v>
+      </c>
+      <c r="W6" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>107</v>
       </c>
@@ -8559,19 +8704,20 @@
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="111"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="108"/>
       <c r="S7" s="111"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="112"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T7" s="111"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="112"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>231</v>
       </c>
@@ -8603,31 +8749,34 @@
       <c r="K8" s="78">
         <v>0</v>
       </c>
-      <c r="L8" s="79">
-        <v>0</v>
-      </c>
-      <c r="M8" s="78">
-        <v>0</v>
-      </c>
-      <c r="N8" s="79">
-        <v>0</v>
-      </c>
-      <c r="O8" s="109">
-        <v>0</v>
-      </c>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="78"/>
+      <c r="L8" s="78">
+        <v>0</v>
+      </c>
+      <c r="M8" s="79">
+        <v>0</v>
+      </c>
+      <c r="N8" s="78">
+        <v>0</v>
+      </c>
+      <c r="O8" s="79">
+        <v>0</v>
+      </c>
+      <c r="P8" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
       <c r="S8" s="78"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="78">
-        <v>0</v>
-      </c>
-      <c r="V8" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T8" s="78"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="78">
+        <v>0</v>
+      </c>
+      <c r="W8" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -8661,31 +8810,34 @@
       <c r="K9" s="7">
         <v>42857</v>
       </c>
-      <c r="L9" s="77">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="77">
-        <v>0</v>
-      </c>
-      <c r="O9" s="101">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="146">
+        <v>0</v>
+      </c>
+      <c r="M9" s="77">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="77">
+        <v>0</v>
+      </c>
+      <c r="P9" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T9" s="7"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -8715,31 +8867,34 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="77">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="77">
-        <v>0</v>
-      </c>
-      <c r="O10" s="101">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="146">
+        <v>0</v>
+      </c>
+      <c r="M10" s="77">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="77">
+        <v>0</v>
+      </c>
+      <c r="P10" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T10" s="7"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>121</v>
       </c>
@@ -8771,31 +8926,34 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="77">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="77">
-        <v>0</v>
-      </c>
-      <c r="O11" s="101">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="146">
+        <v>0</v>
+      </c>
+      <c r="M11" s="77">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="77">
+        <v>0</v>
+      </c>
+      <c r="P11" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="77"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="7"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>122</v>
       </c>
@@ -8827,31 +8985,32 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="146">
         <v>42857</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="77">
-        <v>0</v>
-      </c>
-      <c r="O12" s="101">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="7"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="77">
+        <v>0</v>
+      </c>
+      <c r="P12" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="77"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T12" s="7"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -8883,31 +9042,32 @@
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="77">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="77">
-        <v>0</v>
-      </c>
-      <c r="O13" s="101">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="77">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="77">
+        <v>0</v>
+      </c>
+      <c r="P13" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="77"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T13" s="7"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -8939,31 +9099,32 @@
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="77">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="77">
-        <v>0</v>
-      </c>
-      <c r="O14" s="101">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="77">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="77">
+        <v>0</v>
+      </c>
+      <c r="P14" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="77"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="7"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>125</v>
       </c>
@@ -8993,31 +9154,32 @@
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="77">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="77">
-        <v>0</v>
-      </c>
-      <c r="O15" s="101">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="77">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="77">
+        <v>0</v>
+      </c>
+      <c r="P15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="7"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>126</v>
       </c>
@@ -9047,31 +9209,32 @@
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="77">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="77">
-        <v>0</v>
-      </c>
-      <c r="O16" s="101">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="77">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="77">
+        <v>0</v>
+      </c>
+      <c r="P16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="77"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T16" s="7"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>127</v>
       </c>
@@ -9105,31 +9268,32 @@
       <c r="K17" s="78">
         <v>0</v>
       </c>
-      <c r="L17" s="79">
-        <v>0</v>
-      </c>
-      <c r="M17" s="78">
-        <v>0</v>
-      </c>
-      <c r="N17" s="79">
-        <v>0</v>
-      </c>
-      <c r="O17" s="109">
-        <v>0</v>
-      </c>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79">
+        <v>0</v>
+      </c>
+      <c r="N17" s="78">
+        <v>0</v>
+      </c>
+      <c r="O17" s="79">
+        <v>0</v>
+      </c>
+      <c r="P17" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="79"/>
       <c r="S17" s="78"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="78">
-        <v>0</v>
-      </c>
-      <c r="V17" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T17" s="78"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="78">
+        <v>0</v>
+      </c>
+      <c r="W17" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>112</v>
       </c>
@@ -9163,27 +9327,28 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="77">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="77">
-        <v>0</v>
-      </c>
-      <c r="O18" s="101">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="77">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="77">
+        <v>0</v>
+      </c>
+      <c r="P18" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="77"/>
       <c r="S18" s="7"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="29"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T18" s="7"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="29"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>218</v>
       </c>
@@ -9197,19 +9362,20 @@
       <c r="I19" s="7"/>
       <c r="J19" s="77"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="77"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="29"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T19" s="7"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="29"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>219</v>
       </c>
@@ -9223,19 +9389,20 @@
       <c r="I20" s="78"/>
       <c r="J20" s="79"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
       <c r="S20" s="78"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="81"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T20" s="78"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="81"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>111</v>
       </c>
@@ -9269,29 +9436,30 @@
       <c r="K21" s="91">
         <v>0</v>
       </c>
-      <c r="L21" s="92">
-        <v>0</v>
-      </c>
-      <c r="M21" s="91">
-        <v>0</v>
-      </c>
-      <c r="N21" s="92">
-        <v>0</v>
-      </c>
-      <c r="O21" s="113">
-        <v>0</v>
-      </c>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="92">
+        <v>0</v>
+      </c>
+      <c r="N21" s="91">
+        <v>0</v>
+      </c>
+      <c r="O21" s="92">
+        <v>0</v>
+      </c>
+      <c r="P21" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
       <c r="S21" s="91"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="91">
+      <c r="T21" s="91"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="91">
         <v>42857</v>
       </c>
-      <c r="V21" s="90"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="90"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
@@ -9325,29 +9493,30 @@
       <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="77">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="77">
-        <v>0</v>
-      </c>
-      <c r="O22" s="101">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="77">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="77">
+        <v>0</v>
+      </c>
+      <c r="P22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="77"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T22" s="7"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>115</v>
       </c>
@@ -9381,23 +9550,24 @@
       <c r="K23" s="8">
         <v>0</v>
       </c>
-      <c r="L23" s="82">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="82">
-        <v>0</v>
-      </c>
-      <c r="O23" s="102"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="82">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="82">
+        <v>0</v>
+      </c>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="82"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="9">
+      <c r="T23" s="8"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="9">
         <v>0</v>
       </c>
     </row>
@@ -9412,30 +9582,30 @@
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BL63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="21" width="9.28515625" style="1"/>
-    <col min="22" max="22" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.28515625" style="1"/>
+    <col min="3" max="22" width="9.28515625" style="1"/>
+    <col min="23" max="23" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -9469,31 +9639,33 @@
       <c r="K2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="P2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="T2" s="99"/>
       <c r="U2" s="99"/>
       <c r="V2" s="99"/>
       <c r="W2" s="99"/>
@@ -9537,8 +9709,9 @@
       <c r="BI2" s="99"/>
       <c r="BJ2" s="99"/>
       <c r="BK2" s="99"/>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL2" s="99"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
@@ -9554,15 +9727,15 @@
       <c r="I3" s="7"/>
       <c r="J3" s="77"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="6"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="29"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
@@ -9606,8 +9779,9 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
       <c r="BK3" s="6"/>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL3" s="6"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
@@ -9623,15 +9797,15 @@
       <c r="I4" s="7"/>
       <c r="J4" s="77"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="6"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="29"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
@@ -9675,8 +9849,9 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
       <c r="BK4" s="6"/>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL4" s="6"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
@@ -9692,15 +9867,15 @@
       <c r="I5" s="7"/>
       <c r="J5" s="77"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="6"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="29"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -9744,8 +9919,9 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
       <c r="BK5" s="6"/>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL5" s="6"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
@@ -9759,15 +9935,15 @@
       <c r="I6" s="78"/>
       <c r="J6" s="79"/>
       <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="6"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="81"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -9811,8 +9987,9 @@
       <c r="BI6" s="6"/>
       <c r="BJ6" s="6"/>
       <c r="BK6" s="6"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL6" s="6"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>107</v>
       </c>
@@ -9828,15 +10005,15 @@
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="111"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="6"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="112"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -9880,8 +10057,9 @@
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
       <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL7" s="6"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>231</v>
       </c>
@@ -9895,15 +10073,15 @@
       <c r="I8" s="78"/>
       <c r="J8" s="79"/>
       <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="6"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="81"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -9947,8 +10125,9 @@
       <c r="BI8" s="6"/>
       <c r="BJ8" s="6"/>
       <c r="BK8" s="6"/>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL8" s="6"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -9966,15 +10145,15 @@
       <c r="K9" s="7">
         <v>8</v>
       </c>
-      <c r="L9" s="77"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="6"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="29"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -10018,8 +10197,9 @@
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
       <c r="BK9" s="6"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL9" s="6"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -10037,15 +10217,15 @@
       <c r="I10" s="7"/>
       <c r="J10" s="77"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="6"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="29"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -10089,8 +10269,9 @@
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL10" s="6"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>121</v>
       </c>
@@ -10106,15 +10287,15 @@
       <c r="I11" s="7"/>
       <c r="J11" s="77"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="6"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -10158,8 +10339,9 @@
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
       <c r="BK11" s="6"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL11" s="6"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>122</v>
       </c>
@@ -10175,17 +10357,17 @@
       <c r="I12" s="7"/>
       <c r="J12" s="77"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="77">
+      <c r="L12" s="146">
         <v>8</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="6"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="29"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -10229,8 +10411,9 @@
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL12" s="6"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -10246,15 +10429,15 @@
       </c>
       <c r="J13" s="77"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -10298,8 +10481,9 @@
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL13" s="6"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -10315,15 +10499,15 @@
       <c r="I14" s="7"/>
       <c r="J14" s="77"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="29"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -10367,8 +10551,9 @@
       <c r="BI14" s="6"/>
       <c r="BJ14" s="6"/>
       <c r="BK14" s="6"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL14" s="6"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>125</v>
       </c>
@@ -10384,15 +10569,15 @@
       </c>
       <c r="J15" s="77"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="6"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="29"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -10436,8 +10621,9 @@
       <c r="BI15" s="6"/>
       <c r="BJ15" s="6"/>
       <c r="BK15" s="6"/>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL15" s="6"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>126</v>
       </c>
@@ -10451,15 +10637,15 @@
       <c r="I16" s="7"/>
       <c r="J16" s="77"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="29"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
@@ -10503,8 +10689,9 @@
       <c r="BI16" s="6"/>
       <c r="BJ16" s="6"/>
       <c r="BK16" s="6"/>
-    </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL16" s="6"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>127</v>
       </c>
@@ -10518,15 +10705,15 @@
       <c r="I17" s="78"/>
       <c r="J17" s="79"/>
       <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="6"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="81"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -10570,8 +10757,9 @@
       <c r="BI17" s="6"/>
       <c r="BJ17" s="6"/>
       <c r="BK17" s="6"/>
-    </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL17" s="6"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>112</v>
       </c>
@@ -10585,15 +10773,15 @@
       <c r="I18" s="7"/>
       <c r="J18" s="77"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="29"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -10637,8 +10825,9 @@
       <c r="BI18" s="6"/>
       <c r="BJ18" s="6"/>
       <c r="BK18" s="6"/>
-    </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL18" s="6"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>218</v>
       </c>
@@ -10652,15 +10841,15 @@
       <c r="I19" s="7"/>
       <c r="J19" s="77"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="29"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -10704,8 +10893,9 @@
       <c r="BI19" s="6"/>
       <c r="BJ19" s="6"/>
       <c r="BK19" s="6"/>
-    </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL19" s="6"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>219</v>
       </c>
@@ -10719,15 +10909,15 @@
       <c r="I20" s="78"/>
       <c r="J20" s="79"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="6"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="81"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -10771,8 +10961,9 @@
       <c r="BI20" s="6"/>
       <c r="BJ20" s="6"/>
       <c r="BK20" s="6"/>
-    </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL20" s="6"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>111</v>
       </c>
@@ -10786,17 +10977,17 @@
       <c r="I21" s="91"/>
       <c r="J21" s="92"/>
       <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="91">
+      <c r="L21" s="91"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="91">
         <v>8</v>
       </c>
-      <c r="S21" s="90"/>
-      <c r="T21" s="6"/>
+      <c r="T21" s="90"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -10840,8 +11031,9 @@
       <c r="BI21" s="6"/>
       <c r="BJ21" s="6"/>
       <c r="BK21" s="6"/>
-    </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL21" s="6"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
@@ -10855,15 +11047,15 @@
       <c r="I22" s="7"/>
       <c r="J22" s="77"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="29"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -10907,8 +11099,9 @@
       <c r="BI22" s="6"/>
       <c r="BJ22" s="6"/>
       <c r="BK22" s="6"/>
-    </row>
-    <row r="23" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BL22" s="6"/>
+    </row>
+    <row r="23" spans="1:64" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>115</v>
       </c>
@@ -10922,15 +11115,15 @@
       <c r="I23" s="8"/>
       <c r="J23" s="82"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="6"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -10974,8 +11167,9 @@
       <c r="BI23" s="6"/>
       <c r="BJ23" s="6"/>
       <c r="BK23" s="6"/>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL23" s="6"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -11039,8 +11233,9 @@
       <c r="BI24" s="6"/>
       <c r="BJ24" s="6"/>
       <c r="BK24" s="6"/>
-    </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL24" s="6"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -11104,8 +11299,9 @@
       <c r="BI25" s="6"/>
       <c r="BJ25" s="6"/>
       <c r="BK25" s="6"/>
-    </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL25" s="6"/>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="100"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -11169,8 +11365,9 @@
       <c r="BI26" s="6"/>
       <c r="BJ26" s="6"/>
       <c r="BK26" s="6"/>
-    </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL26" s="6"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="100"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -11234,8 +11431,9 @@
       <c r="BI27" s="6"/>
       <c r="BJ27" s="6"/>
       <c r="BK27" s="6"/>
-    </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL27" s="6"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -11299,8 +11497,9 @@
       <c r="BI28" s="6"/>
       <c r="BJ28" s="6"/>
       <c r="BK28" s="6"/>
-    </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL28" s="6"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -11364,8 +11563,9 @@
       <c r="BI29" s="6"/>
       <c r="BJ29" s="6"/>
       <c r="BK29" s="6"/>
-    </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL29" s="6"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="100"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -11429,8 +11629,9 @@
       <c r="BI30" s="6"/>
       <c r="BJ30" s="6"/>
       <c r="BK30" s="6"/>
-    </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL30" s="6"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="100"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -11494,8 +11695,9 @@
       <c r="BI31" s="6"/>
       <c r="BJ31" s="6"/>
       <c r="BK31" s="6"/>
-    </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL31" s="6"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -11559,8 +11761,9 @@
       <c r="BI32" s="6"/>
       <c r="BJ32" s="6"/>
       <c r="BK32" s="6"/>
-    </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL32" s="6"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -11624,8 +11827,9 @@
       <c r="BI33" s="6"/>
       <c r="BJ33" s="6"/>
       <c r="BK33" s="6"/>
-    </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL33" s="6"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="100"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -11689,8 +11893,9 @@
       <c r="BI34" s="6"/>
       <c r="BJ34" s="6"/>
       <c r="BK34" s="6"/>
-    </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL34" s="6"/>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="100"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -11754,8 +11959,9 @@
       <c r="BI35" s="6"/>
       <c r="BJ35" s="6"/>
       <c r="BK35" s="6"/>
-    </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL35" s="6"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="100"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -11819,8 +12025,9 @@
       <c r="BI36" s="6"/>
       <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
-    </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL36" s="6"/>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="100"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -11884,8 +12091,9 @@
       <c r="BI37" s="6"/>
       <c r="BJ37" s="6"/>
       <c r="BK37" s="6"/>
-    </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL37" s="6"/>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="100"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -11949,8 +12157,9 @@
       <c r="BI38" s="6"/>
       <c r="BJ38" s="6"/>
       <c r="BK38" s="6"/>
-    </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL38" s="6"/>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="100"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -12014,8 +12223,9 @@
       <c r="BI39" s="6"/>
       <c r="BJ39" s="6"/>
       <c r="BK39" s="6"/>
-    </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL39" s="6"/>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" s="100"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -12079,8 +12289,9 @@
       <c r="BI40" s="6"/>
       <c r="BJ40" s="6"/>
       <c r="BK40" s="6"/>
-    </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL40" s="6"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="100"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -12144,8 +12355,9 @@
       <c r="BI41" s="6"/>
       <c r="BJ41" s="6"/>
       <c r="BK41" s="6"/>
-    </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL41" s="6"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="100"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -12209,8 +12421,9 @@
       <c r="BI42" s="6"/>
       <c r="BJ42" s="6"/>
       <c r="BK42" s="6"/>
-    </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL42" s="6"/>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="100"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -12274,8 +12487,9 @@
       <c r="BI43" s="6"/>
       <c r="BJ43" s="6"/>
       <c r="BK43" s="6"/>
-    </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL43" s="6"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" s="100"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -12339,8 +12553,9 @@
       <c r="BI44" s="6"/>
       <c r="BJ44" s="6"/>
       <c r="BK44" s="6"/>
-    </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL44" s="6"/>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="100"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -12404,8 +12619,9 @@
       <c r="BI45" s="6"/>
       <c r="BJ45" s="6"/>
       <c r="BK45" s="6"/>
-    </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL45" s="6"/>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" s="100"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -12469,8 +12685,9 @@
       <c r="BI46" s="6"/>
       <c r="BJ46" s="6"/>
       <c r="BK46" s="6"/>
-    </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL46" s="6"/>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" s="100"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -12534,8 +12751,9 @@
       <c r="BI47" s="6"/>
       <c r="BJ47" s="6"/>
       <c r="BK47" s="6"/>
-    </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL47" s="6"/>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="100"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -12599,8 +12817,9 @@
       <c r="BI48" s="6"/>
       <c r="BJ48" s="6"/>
       <c r="BK48" s="6"/>
-    </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL48" s="6"/>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="100"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -12664,8 +12883,9 @@
       <c r="BI49" s="6"/>
       <c r="BJ49" s="6"/>
       <c r="BK49" s="6"/>
-    </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL49" s="6"/>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="100"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -12729,8 +12949,9 @@
       <c r="BI50" s="6"/>
       <c r="BJ50" s="6"/>
       <c r="BK50" s="6"/>
-    </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL50" s="6"/>
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="100"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -12794,8 +13015,9 @@
       <c r="BI51" s="6"/>
       <c r="BJ51" s="6"/>
       <c r="BK51" s="6"/>
-    </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL51" s="6"/>
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="100"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -12859,8 +13081,9 @@
       <c r="BI52" s="6"/>
       <c r="BJ52" s="6"/>
       <c r="BK52" s="6"/>
-    </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL52" s="6"/>
+    </row>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="100"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -12924,8 +13147,9 @@
       <c r="BI53" s="6"/>
       <c r="BJ53" s="6"/>
       <c r="BK53" s="6"/>
-    </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL53" s="6"/>
+    </row>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="100"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -12989,8 +13213,9 @@
       <c r="BI54" s="6"/>
       <c r="BJ54" s="6"/>
       <c r="BK54" s="6"/>
-    </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL54" s="6"/>
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="100"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -13054,8 +13279,9 @@
       <c r="BI55" s="6"/>
       <c r="BJ55" s="6"/>
       <c r="BK55" s="6"/>
-    </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL55" s="6"/>
+    </row>
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="100"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -13119,8 +13345,9 @@
       <c r="BI56" s="6"/>
       <c r="BJ56" s="6"/>
       <c r="BK56" s="6"/>
-    </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL56" s="6"/>
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="100"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -13184,8 +13411,9 @@
       <c r="BI57" s="6"/>
       <c r="BJ57" s="6"/>
       <c r="BK57" s="6"/>
-    </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL57" s="6"/>
+    </row>
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="100"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -13249,8 +13477,9 @@
       <c r="BI58" s="6"/>
       <c r="BJ58" s="6"/>
       <c r="BK58" s="6"/>
-    </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL58" s="6"/>
+    </row>
+    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" s="100"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -13314,8 +13543,9 @@
       <c r="BI59" s="6"/>
       <c r="BJ59" s="6"/>
       <c r="BK59" s="6"/>
-    </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL59" s="6"/>
+    </row>
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="100"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -13379,8 +13609,9 @@
       <c r="BI60" s="6"/>
       <c r="BJ60" s="6"/>
       <c r="BK60" s="6"/>
-    </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL60" s="6"/>
+    </row>
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="100"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -13444,8 +13675,9 @@
       <c r="BI61" s="6"/>
       <c r="BJ61" s="6"/>
       <c r="BK61" s="6"/>
-    </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL61" s="6"/>
+    </row>
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="100"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -13509,8 +13741,9 @@
       <c r="BI62" s="6"/>
       <c r="BJ62" s="6"/>
       <c r="BK62" s="6"/>
-    </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL62" s="6"/>
+    </row>
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" s="100"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -13574,6 +13807,7 @@
       <c r="BI63" s="6"/>
       <c r="BJ63" s="6"/>
       <c r="BK63" s="6"/>
+      <c r="BL63" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13587,10 +13821,10 @@
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13621,15 +13855,24 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="35">
         <v>20000</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14480,7 +14723,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14567,38 +14810,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="146">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="146">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="146">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="146">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="146">
         <v>1</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="146">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="146">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="146">
         <v>1</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="146">
         <v>1</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -14612,6 +14890,7 @@
       <c r="F9" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14622,10 +14901,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14656,11 +14935,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
         <v>2</v>
       </c>
     </row>
@@ -14859,10 +15146,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14872,13 +15159,13 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -14912,41 +15199,44 @@
       <c r="K2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="P2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="U2" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="W2" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
@@ -14980,41 +15270,44 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="77">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="77">
-        <v>0</v>
-      </c>
-      <c r="O3" s="101">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="77">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
+      <c r="L3" s="146">
+        <v>0</v>
+      </c>
+      <c r="M3" s="77">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="77">
+        <v>0</v>
+      </c>
+      <c r="P3" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="77">
         <v>0</v>
       </c>
       <c r="S3" s="7">
         <v>0</v>
       </c>
-      <c r="T3" s="77">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="77">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
@@ -15048,41 +15341,44 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="77">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="77">
-        <v>0</v>
-      </c>
-      <c r="O4" s="101">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="77">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
+      <c r="L4" s="146">
+        <v>0</v>
+      </c>
+      <c r="M4" s="77">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="77">
+        <v>0</v>
+      </c>
+      <c r="P4" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="77">
         <v>0</v>
       </c>
       <c r="S4" s="7">
         <v>0</v>
       </c>
-      <c r="T4" s="77">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="77">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
@@ -15116,41 +15412,44 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="77">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="77">
-        <v>0</v>
-      </c>
-      <c r="O5" s="101">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="77">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
+      <c r="L5" s="146">
+        <v>0</v>
+      </c>
+      <c r="M5" s="77">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="77">
+        <v>0</v>
+      </c>
+      <c r="P5" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="77">
         <v>0</v>
       </c>
       <c r="S5" s="7">
         <v>0</v>
       </c>
-      <c r="T5" s="77">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="77">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
@@ -15184,41 +15483,44 @@
       <c r="K6" s="78">
         <v>0</v>
       </c>
-      <c r="L6" s="79">
-        <v>0</v>
-      </c>
-      <c r="M6" s="78">
-        <v>0</v>
-      </c>
-      <c r="N6" s="79">
-        <v>0</v>
-      </c>
-      <c r="O6" s="109">
-        <v>0</v>
-      </c>
-      <c r="P6" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="79">
-        <v>0</v>
-      </c>
-      <c r="R6" s="78">
+      <c r="L6" s="78">
+        <v>0</v>
+      </c>
+      <c r="M6" s="79">
+        <v>0</v>
+      </c>
+      <c r="N6" s="78">
+        <v>0</v>
+      </c>
+      <c r="O6" s="79">
+        <v>0</v>
+      </c>
+      <c r="P6" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="78">
+        <v>0</v>
+      </c>
+      <c r="R6" s="79">
         <v>0</v>
       </c>
       <c r="S6" s="78">
         <v>0</v>
       </c>
-      <c r="T6" s="79">
-        <v>0</v>
-      </c>
-      <c r="U6" s="78">
-        <v>0</v>
-      </c>
-      <c r="V6" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T6" s="78">
+        <v>0</v>
+      </c>
+      <c r="U6" s="79">
+        <v>0</v>
+      </c>
+      <c r="V6" s="78">
+        <v>0</v>
+      </c>
+      <c r="W6" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>107</v>
       </c>
@@ -15252,41 +15554,44 @@
       <c r="K7" s="111">
         <v>0</v>
       </c>
-      <c r="L7" s="108">
-        <v>0</v>
-      </c>
-      <c r="M7" s="111">
-        <v>0</v>
-      </c>
-      <c r="N7" s="108">
-        <v>0</v>
-      </c>
-      <c r="O7" s="110">
-        <v>0</v>
-      </c>
-      <c r="P7" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="108">
-        <v>0</v>
-      </c>
-      <c r="R7" s="111">
+      <c r="L7" s="111">
+        <v>0</v>
+      </c>
+      <c r="M7" s="108">
+        <v>0</v>
+      </c>
+      <c r="N7" s="111">
+        <v>0</v>
+      </c>
+      <c r="O7" s="108">
+        <v>0</v>
+      </c>
+      <c r="P7" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="111">
+        <v>0</v>
+      </c>
+      <c r="R7" s="108">
         <v>0</v>
       </c>
       <c r="S7" s="111">
         <v>0</v>
       </c>
-      <c r="T7" s="108">
-        <v>0</v>
-      </c>
-      <c r="U7" s="111">
-        <v>0</v>
-      </c>
-      <c r="V7" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T7" s="111">
+        <v>0</v>
+      </c>
+      <c r="U7" s="108">
+        <v>0</v>
+      </c>
+      <c r="V7" s="111">
+        <v>0</v>
+      </c>
+      <c r="W7" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>231</v>
       </c>
@@ -15320,41 +15625,44 @@
       <c r="K8" s="78">
         <v>0</v>
       </c>
-      <c r="L8" s="79">
-        <v>0</v>
-      </c>
-      <c r="M8" s="78">
-        <v>0</v>
-      </c>
-      <c r="N8" s="79">
-        <v>0</v>
-      </c>
-      <c r="O8" s="109">
-        <v>0</v>
-      </c>
-      <c r="P8" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="79">
-        <v>0</v>
-      </c>
-      <c r="R8" s="78">
+      <c r="L8" s="78">
+        <v>0</v>
+      </c>
+      <c r="M8" s="79">
+        <v>0</v>
+      </c>
+      <c r="N8" s="78">
+        <v>0</v>
+      </c>
+      <c r="O8" s="79">
+        <v>0</v>
+      </c>
+      <c r="P8" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="78">
+        <v>0</v>
+      </c>
+      <c r="R8" s="79">
         <v>0</v>
       </c>
       <c r="S8" s="78">
         <v>0</v>
       </c>
-      <c r="T8" s="79">
-        <v>0</v>
-      </c>
-      <c r="U8" s="78">
-        <v>0</v>
-      </c>
-      <c r="V8" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T8" s="78">
+        <v>0</v>
+      </c>
+      <c r="U8" s="79">
+        <v>0</v>
+      </c>
+      <c r="V8" s="78">
+        <v>0</v>
+      </c>
+      <c r="W8" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -15388,41 +15696,44 @@
       <c r="K9" s="7">
         <v>1E-4</v>
       </c>
-      <c r="L9" s="77">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="77">
-        <v>0</v>
-      </c>
-      <c r="O9" s="101">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="77">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="L9" s="146">
+        <v>0</v>
+      </c>
+      <c r="M9" s="77">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="77">
+        <v>0</v>
+      </c>
+      <c r="P9" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="77">
         <v>0</v>
       </c>
       <c r="S9" s="7">
         <v>0</v>
       </c>
-      <c r="T9" s="77">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="77">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -15456,41 +15767,44 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="77">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="77">
-        <v>0</v>
-      </c>
-      <c r="O10" s="101">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="77">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
+      <c r="L10" s="146">
+        <v>0</v>
+      </c>
+      <c r="M10" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="77">
+        <v>0</v>
+      </c>
+      <c r="P10" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="77">
         <v>0</v>
       </c>
       <c r="S10" s="7">
         <v>0</v>
       </c>
-      <c r="T10" s="77">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="77">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>121</v>
       </c>
@@ -15524,41 +15838,44 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="77">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="L11" s="146">
+        <v>0</v>
+      </c>
+      <c r="M11" s="77">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
         <v>1E-4</v>
       </c>
-      <c r="N11" s="77">
-        <v>0</v>
-      </c>
-      <c r="O11" s="101">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="77">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="O11" s="77">
+        <v>0</v>
+      </c>
+      <c r="P11" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="77">
         <v>0</v>
       </c>
       <c r="S11" s="7">
         <v>0</v>
       </c>
-      <c r="T11" s="77">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="77">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>122</v>
       </c>
@@ -15592,41 +15909,44 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="146">
         <v>1E-4</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="77">
-        <v>0</v>
-      </c>
-      <c r="O12" s="101">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="77">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
+      <c r="M12" s="77">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="77">
+        <v>0</v>
+      </c>
+      <c r="P12" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="77">
         <v>0</v>
       </c>
       <c r="S12" s="7">
         <v>0</v>
       </c>
-      <c r="T12" s="77">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="77">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -15660,41 +15980,44 @@
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="77">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="77">
-        <v>0</v>
-      </c>
-      <c r="O13" s="101">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="77">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
+      <c r="L13" s="146">
+        <v>0</v>
+      </c>
+      <c r="M13" s="77">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="77">
+        <v>0</v>
+      </c>
+      <c r="P13" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="77">
         <v>0</v>
       </c>
       <c r="S13" s="7">
         <v>0</v>
       </c>
-      <c r="T13" s="77">
-        <v>0</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="77">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -15728,41 +16051,44 @@
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="77">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="77">
-        <v>0</v>
-      </c>
-      <c r="O14" s="101">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="77">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
+      <c r="L14" s="146">
+        <v>0</v>
+      </c>
+      <c r="M14" s="77">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="77">
+        <v>0</v>
+      </c>
+      <c r="P14" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="77">
         <v>0</v>
       </c>
       <c r="S14" s="7">
         <v>0</v>
       </c>
-      <c r="T14" s="77">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="77">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>125</v>
       </c>
@@ -15796,41 +16122,44 @@
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="77">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="77">
-        <v>0</v>
-      </c>
-      <c r="O15" s="101">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="77">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="L15" s="146">
+        <v>0</v>
+      </c>
+      <c r="M15" s="77">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="77">
+        <v>0</v>
+      </c>
+      <c r="P15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="77">
         <v>0</v>
       </c>
       <c r="S15" s="7">
         <v>0</v>
       </c>
-      <c r="T15" s="77">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="77">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>126</v>
       </c>
@@ -15864,41 +16193,44 @@
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="77">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="77">
-        <v>0</v>
-      </c>
-      <c r="O16" s="101">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="77">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="L16" s="146">
+        <v>0</v>
+      </c>
+      <c r="M16" s="77">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="77">
+        <v>0</v>
+      </c>
+      <c r="P16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="77">
         <v>0</v>
       </c>
       <c r="S16" s="7">
         <v>0</v>
       </c>
-      <c r="T16" s="77">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="77">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>127</v>
       </c>
@@ -15932,41 +16264,44 @@
       <c r="K17" s="78">
         <v>0</v>
       </c>
-      <c r="L17" s="79">
-        <v>0</v>
-      </c>
-      <c r="M17" s="78">
-        <v>0</v>
-      </c>
-      <c r="N17" s="79">
+      <c r="L17" s="78">
+        <v>0</v>
+      </c>
+      <c r="M17" s="79">
+        <v>0</v>
+      </c>
+      <c r="N17" s="78">
+        <v>0</v>
+      </c>
+      <c r="O17" s="79">
         <v>1E-4</v>
       </c>
-      <c r="O17" s="109">
-        <v>0</v>
-      </c>
-      <c r="P17" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="79">
-        <v>0</v>
-      </c>
-      <c r="R17" s="78">
+      <c r="P17" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="78">
+        <v>0</v>
+      </c>
+      <c r="R17" s="79">
         <v>0</v>
       </c>
       <c r="S17" s="78">
         <v>0</v>
       </c>
-      <c r="T17" s="79">
-        <v>0</v>
-      </c>
-      <c r="U17" s="78">
-        <v>0</v>
-      </c>
-      <c r="V17" s="81">
+      <c r="T17" s="78">
+        <v>0</v>
+      </c>
+      <c r="U17" s="79">
+        <v>0</v>
+      </c>
+      <c r="V17" s="78">
+        <v>0</v>
+      </c>
+      <c r="W17" s="81">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>112</v>
       </c>
@@ -16000,41 +16335,44 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="77">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="77">
-        <v>0</v>
-      </c>
-      <c r="O18" s="101">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="77">
-        <v>0</v>
-      </c>
-      <c r="R18" s="110">
-        <v>0</v>
-      </c>
-      <c r="S18" s="111">
-        <v>0</v>
-      </c>
-      <c r="T18" s="108">
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
+      <c r="L18" s="146">
+        <v>0</v>
+      </c>
+      <c r="M18" s="77">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="77">
+        <v>0</v>
+      </c>
+      <c r="P18" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="77">
+        <v>0</v>
+      </c>
+      <c r="S18" s="110">
+        <v>0</v>
+      </c>
+      <c r="T18" s="111">
+        <v>0</v>
+      </c>
+      <c r="U18" s="108">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
         <v>1E-4</v>
       </c>
-      <c r="V18" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>218</v>
       </c>
@@ -16068,41 +16406,44 @@
       <c r="K19" s="7">
         <v>0</v>
       </c>
-      <c r="L19" s="77">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="77">
-        <v>0</v>
-      </c>
-      <c r="O19" s="101">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="77">
-        <v>0</v>
-      </c>
-      <c r="R19" s="101">
+      <c r="L19" s="146">
+        <v>0</v>
+      </c>
+      <c r="M19" s="77">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="77">
+        <v>0</v>
+      </c>
+      <c r="P19" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="77">
+        <v>0</v>
+      </c>
+      <c r="S19" s="101">
         <v>1E-4</v>
       </c>
-      <c r="S19" s="7">
+      <c r="T19" s="7">
         <v>1E-4</v>
       </c>
-      <c r="T19" s="77">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U19" s="77">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>219</v>
       </c>
@@ -16136,41 +16477,44 @@
       <c r="K20" s="78">
         <v>0</v>
       </c>
-      <c r="L20" s="79">
-        <v>0</v>
-      </c>
-      <c r="M20" s="78">
-        <v>0</v>
-      </c>
-      <c r="N20" s="79">
-        <v>0</v>
-      </c>
-      <c r="O20" s="109">
-        <v>0</v>
-      </c>
-      <c r="P20" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="79">
-        <v>0</v>
-      </c>
-      <c r="R20" s="109">
-        <v>0</v>
-      </c>
-      <c r="S20" s="78">
-        <v>0</v>
-      </c>
-      <c r="T20" s="79">
+      <c r="L20" s="78">
+        <v>0</v>
+      </c>
+      <c r="M20" s="79">
+        <v>0</v>
+      </c>
+      <c r="N20" s="78">
+        <v>0</v>
+      </c>
+      <c r="O20" s="79">
+        <v>0</v>
+      </c>
+      <c r="P20" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="78">
+        <v>0</v>
+      </c>
+      <c r="R20" s="79">
+        <v>0</v>
+      </c>
+      <c r="S20" s="109">
+        <v>0</v>
+      </c>
+      <c r="T20" s="78">
+        <v>0</v>
+      </c>
+      <c r="U20" s="79">
         <v>1E-4</v>
       </c>
-      <c r="U20" s="78">
-        <v>0</v>
-      </c>
-      <c r="V20" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="78">
+        <v>0</v>
+      </c>
+      <c r="W20" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>111</v>
       </c>
@@ -16204,41 +16548,44 @@
       <c r="K21" s="91">
         <v>0</v>
       </c>
-      <c r="L21" s="92">
-        <v>0</v>
-      </c>
-      <c r="M21" s="91">
-        <v>0</v>
-      </c>
-      <c r="N21" s="92">
-        <v>0</v>
-      </c>
-      <c r="O21" s="113">
-        <v>0</v>
-      </c>
-      <c r="P21" s="91">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="92">
-        <v>0</v>
-      </c>
-      <c r="R21" s="91">
+      <c r="L21" s="91">
+        <v>0</v>
+      </c>
+      <c r="M21" s="92">
+        <v>0</v>
+      </c>
+      <c r="N21" s="91">
+        <v>0</v>
+      </c>
+      <c r="O21" s="92">
+        <v>0</v>
+      </c>
+      <c r="P21" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="91">
+        <v>0</v>
+      </c>
+      <c r="R21" s="92">
         <v>0</v>
       </c>
       <c r="S21" s="91">
         <v>0</v>
       </c>
-      <c r="T21" s="92">
-        <v>0</v>
-      </c>
-      <c r="U21" s="91">
+      <c r="T21" s="91">
+        <v>0</v>
+      </c>
+      <c r="U21" s="92">
+        <v>0</v>
+      </c>
+      <c r="V21" s="91">
         <v>1E-4</v>
       </c>
-      <c r="V21" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
@@ -16272,41 +16619,44 @@
       <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="77">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="77">
-        <v>0</v>
-      </c>
-      <c r="O22" s="101">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
+      <c r="L22" s="146">
+        <v>0</v>
+      </c>
+      <c r="M22" s="77">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="77">
+        <v>0</v>
+      </c>
+      <c r="P22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
         <v>1E-4</v>
       </c>
-      <c r="Q22" s="77">
-        <v>1E-4</v>
-      </c>
-      <c r="R22" s="7">
+      <c r="R22" s="77">
         <v>1E-4</v>
       </c>
       <c r="S22" s="7">
         <v>1E-4</v>
       </c>
-      <c r="T22" s="77">
+      <c r="T22" s="7">
         <v>1E-4</v>
       </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-      <c r="V22" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0</v>
+      </c>
+      <c r="W22" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>115</v>
       </c>
@@ -16340,37 +16690,40 @@
       <c r="K23" s="8">
         <v>0</v>
       </c>
-      <c r="L23" s="82">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="82">
-        <v>0</v>
-      </c>
-      <c r="O23" s="102">
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="82">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="82">
+        <v>0</v>
+      </c>
+      <c r="P23" s="102">
         <v>1E-4</v>
       </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="82">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8">
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="82">
         <v>0</v>
       </c>
       <c r="S23" s="8">
         <v>0</v>
       </c>
-      <c r="T23" s="82">
-        <v>0</v>
-      </c>
-      <c r="U23" s="8">
-        <v>0</v>
-      </c>
-      <c r="V23" s="9">
+      <c r="T23" s="8">
+        <v>0</v>
+      </c>
+      <c r="U23" s="82">
+        <v>0</v>
+      </c>
+      <c r="V23" s="8">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
         <v>0</v>
       </c>
     </row>
@@ -16525,7 +16878,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16554,7 +16907,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -16574,10 +16929,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16585,89 +16940,111 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="146">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>2.5</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="146">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="146">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="78">
         <v>3</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="78">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="146">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>231</v>
       </c>
       <c r="B8" s="8">
         <v>3.5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>2</v>
       </c>
+      <c r="D8" s="9">
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16678,10 +17055,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16730,20 +17107,37 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="B4" s="147">
+        <v>0</v>
+      </c>
+      <c r="C4" s="147">
         <v>1000</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="147">
         <v>900</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="36">
+        <v>900</v>
+      </c>
+      <c r="E5" s="37">
         <v>800</v>
       </c>
     </row>
@@ -16762,7 +17156,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16811,32 +17205,46 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="B4" s="147">
+        <v>0</v>
+      </c>
+      <c r="C4" s="147">
         <v>10000</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="147">
         <v>20000</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="134"/>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="134"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17390,12 +17798,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17403,13 +17811,13 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -17443,41 +17851,44 @@
       <c r="K2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="P2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="U2" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="V2" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="W2" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
@@ -17511,27 +17922,30 @@
       <c r="K3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="101" t="s">
+      <c r="N3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="7"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="77"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="101" t="s">
+      <c r="T3" s="7"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="V3" s="117"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="117"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
@@ -17565,27 +17979,30 @@
       <c r="K4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="N4" s="77"/>
-      <c r="O4" s="101" t="s">
+      <c r="N4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="77"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="101" t="s">
+      <c r="T4" s="7"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="V4" s="117"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="117"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
@@ -17619,27 +18036,30 @@
       <c r="K5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="77" t="s">
+      <c r="L5" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="101" t="s">
+      <c r="N5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="77"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="101" t="s">
+      <c r="T5" s="7"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="V5" s="117"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="117"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
@@ -17673,27 +18093,30 @@
       <c r="K6" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="M6" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="79"/>
-      <c r="O6" s="109" t="s">
+      <c r="N6" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="78"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
       <c r="S6" s="78"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="109" t="s">
+      <c r="T6" s="78"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="V6" s="122"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="122"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>107</v>
       </c>
@@ -17721,19 +18144,20 @@
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="111"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="108"/>
       <c r="S7" s="111"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="126"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T7" s="111"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="126"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>231</v>
       </c>
@@ -17763,25 +18187,28 @@
       <c r="K8" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="L8" s="124" t="s">
+      <c r="L8" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="109" t="s">
+      <c r="M8" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
       <c r="S8" s="78"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="125" t="s">
+      <c r="T8" s="78"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="V8" s="122"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="122"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -17815,23 +18242,26 @@
       <c r="K9" s="120">
         <v>4.1717000000000004</v>
       </c>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="77"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="77"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="117"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T9" s="7"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="117"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -17865,23 +18295,26 @@
       <c r="K10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="77">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="7"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="117"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T10" s="7"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="117"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>121</v>
       </c>
@@ -17915,23 +18348,26 @@
       <c r="K11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" s="7">
         <v>1.4</v>
       </c>
-      <c r="N11" s="77"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="7"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="77"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="117"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="7"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="117"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>122</v>
       </c>
@@ -17965,23 +18401,24 @@
       <c r="K12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="146">
         <v>1.3163</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="77"/>
+      <c r="N12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N12" s="77"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="7"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="77"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="117"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T12" s="7"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="117"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -18015,23 +18452,24 @@
       <c r="K13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N13" s="77"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="7"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="77"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="117"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T13" s="7"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="117"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -18065,23 +18503,24 @@
       <c r="K14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N14" s="77"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="7"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="77"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="117"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="7"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="117"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>125</v>
       </c>
@@ -18115,23 +18554,24 @@
       <c r="K15" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N15" s="77"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="7"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="117"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="7"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="117"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>126</v>
       </c>
@@ -18165,21 +18605,22 @@
       <c r="K16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="7"/>
+      <c r="M16" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="77"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="117"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T16" s="7"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="117"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>127</v>
       </c>
@@ -18213,27 +18654,28 @@
       <c r="K17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N17" s="77">
+      <c r="O17" s="77">
         <v>2.5</v>
       </c>
-      <c r="O17" s="101"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="7"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="77"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="81">
+      <c r="T17" s="7"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="81">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>112</v>
       </c>
@@ -18247,21 +18689,22 @@
       <c r="I18" s="111"/>
       <c r="J18" s="108"/>
       <c r="K18" s="111"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="108"/>
       <c r="S18" s="111"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="110">
+      <c r="T18" s="111"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="110">
         <v>2</v>
       </c>
-      <c r="V18" s="117"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="117"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>218</v>
       </c>
@@ -18275,23 +18718,24 @@
       <c r="I19" s="7"/>
       <c r="J19" s="77"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="77"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="7">
-        <v>50</v>
-      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="77"/>
       <c r="S19" s="7">
         <v>50</v>
       </c>
-      <c r="T19" s="77"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="117"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T19" s="7">
+        <v>50</v>
+      </c>
+      <c r="U19" s="77"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="117"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>219</v>
       </c>
@@ -18305,21 +18749,22 @@
       <c r="I20" s="78"/>
       <c r="J20" s="79"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
       <c r="S20" s="78"/>
-      <c r="T20" s="79">
+      <c r="T20" s="78"/>
+      <c r="U20" s="79">
         <v>2</v>
       </c>
-      <c r="U20" s="109"/>
-      <c r="V20" s="117"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="109"/>
+      <c r="W20" s="117"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>111</v>
       </c>
@@ -18353,27 +18798,28 @@
       <c r="K21" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="L21" s="92" t="s">
+      <c r="L21" s="91"/>
+      <c r="M21" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="M21" s="91" t="s">
+      <c r="N21" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="N21" s="92"/>
-      <c r="O21" s="113" t="s">
+      <c r="O21" s="92"/>
+      <c r="P21" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
       <c r="S21" s="91"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="113">
+      <c r="T21" s="91"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="113">
         <v>2.6</v>
       </c>
-      <c r="V21" s="121"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="121"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
@@ -18403,35 +18849,36 @@
       <c r="K22" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L22" s="77" t="s">
+      <c r="L22" s="7"/>
+      <c r="M22" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="77"/>
-      <c r="O22" s="101" t="s">
+      <c r="O22" s="77"/>
+      <c r="P22" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="P22" s="7">
+      <c r="Q22" s="7">
         <v>0.01</v>
       </c>
-      <c r="Q22" s="77">
+      <c r="R22" s="77">
         <v>0.01</v>
-      </c>
-      <c r="R22" s="7">
-        <v>50</v>
       </c>
       <c r="S22" s="7">
         <v>50</v>
       </c>
-      <c r="T22" s="77">
+      <c r="T22" s="7">
+        <v>50</v>
+      </c>
+      <c r="U22" s="77">
         <v>2</v>
       </c>
-      <c r="U22" s="101"/>
-      <c r="V22" s="117"/>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V22" s="101"/>
+      <c r="W22" s="117"/>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>115</v>
       </c>
@@ -18461,23 +18908,24 @@
       <c r="K23" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="8"/>
+      <c r="M23" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="N23" s="82"/>
-      <c r="O23" s="102">
+      <c r="O23" s="82"/>
+      <c r="P23" s="102">
         <v>0.01</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="82"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="116"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="116"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19942,10 +20390,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19994,20 +20442,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="B4" s="147">
+        <v>0</v>
+      </c>
+      <c r="C4" s="147">
         <v>45</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="147">
         <v>50</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>45</v>
+      </c>
+      <c r="D5" s="36">
+        <v>50</v>
+      </c>
+      <c r="E5" s="37">
         <v>55</v>
       </c>
     </row>

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62D072A-EEFB-43BC-A0FE-EDC6764271FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5083F-A81B-41DF-9433-E9BEB1BECCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="267">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -944,6 +944,9 @@
   </si>
   <si>
     <t>External Water Sources to Completions Pads Trucking Arcs [-]</t>
+  </si>
+  <si>
+    <t>K03</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1632,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1977,6 +1980,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3016,23 +3028,57 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>238</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3042,23 +3088,57 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3068,23 +3148,57 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>240</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3094,23 +3208,57 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>241</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3120,23 +3268,57 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>242</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3146,23 +3328,57 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>243</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3172,23 +3388,57 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4617,10 +4867,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4629,90 +4879,104 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>155</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="146"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="146"/>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="146"/>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="29">
+      <c r="C6" s="146">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>123</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="146"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="146"/>
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="146"/>
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="146"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>127</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5991,10 +6255,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6002,37 +6266,43 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="101"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="146"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="102"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6159,10 +6429,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6171,67 +6441,83 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="146">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="146">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="146">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6328,10 +6614,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6340,39 +6626,46 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="111">
         <v>1</v>
       </c>
-      <c r="C3" s="112">
+      <c r="C3" s="111">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>231</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6680,10 +6973,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6691,37 +6984,43 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="101"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="146"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="102"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6731,10 +7030,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6830,31 +7129,31 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="B11" s="98">
-        <v>650</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="98">
-        <v>350</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="B13" s="98">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="98">
         <v>500</v>
@@ -6862,7 +7161,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="B15" s="98">
         <v>500</v>
@@ -6870,23 +7169,23 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="98">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="B17" s="98">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="98">
         <v>500</v>
@@ -6894,7 +7193,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="98">
         <v>500</v>
@@ -6902,15 +7201,15 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="97" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="B20" s="98">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="98">
         <v>600</v>
@@ -6918,7 +7217,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="98">
         <v>600</v>
@@ -6926,7 +7225,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="98">
         <v>600</v>
@@ -6934,15 +7233,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="98">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="98">
         <v>550</v>
@@ -6950,7 +7249,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" s="98">
         <v>550</v>
@@ -6958,21 +7257,30 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" s="98">
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="106" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="98">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="107">
+      <c r="B29" s="107">
         <v>500</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8036,10 +8344,10 @@
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8047,13 +8355,13 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -8087,41 +8395,44 @@
       <c r="K2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="P2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="U2" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="W2" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
@@ -8155,31 +8466,34 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="77">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="77">
-        <v>0</v>
-      </c>
-      <c r="O3" s="101">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="7"/>
+      <c r="L3" s="146">
+        <v>0</v>
+      </c>
+      <c r="M3" s="77">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="77">
+        <v>0</v>
+      </c>
+      <c r="P3" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="77"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="7"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
@@ -8213,31 +8527,34 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="77">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="77">
-        <v>0</v>
-      </c>
-      <c r="O4" s="101">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="7"/>
+      <c r="L4" s="146">
+        <v>0</v>
+      </c>
+      <c r="M4" s="77">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="77">
+        <v>0</v>
+      </c>
+      <c r="P4" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="77"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T4" s="7"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
@@ -8271,31 +8588,34 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="77">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="77">
-        <v>0</v>
-      </c>
-      <c r="O5" s="101">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="7"/>
+      <c r="L5" s="146">
+        <v>0</v>
+      </c>
+      <c r="M5" s="77">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="77">
+        <v>0</v>
+      </c>
+      <c r="P5" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="77"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T5" s="7"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
@@ -8327,31 +8647,34 @@
       <c r="K6" s="78">
         <v>0</v>
       </c>
-      <c r="L6" s="79">
-        <v>0</v>
-      </c>
-      <c r="M6" s="78">
-        <v>0</v>
-      </c>
-      <c r="N6" s="79">
-        <v>0</v>
-      </c>
-      <c r="O6" s="109">
-        <v>0</v>
-      </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="78"/>
+      <c r="L6" s="78">
+        <v>0</v>
+      </c>
+      <c r="M6" s="79">
+        <v>0</v>
+      </c>
+      <c r="N6" s="78">
+        <v>0</v>
+      </c>
+      <c r="O6" s="79">
+        <v>0</v>
+      </c>
+      <c r="P6" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
       <c r="S6" s="78"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="78">
-        <v>0</v>
-      </c>
-      <c r="V6" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T6" s="78"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="78">
+        <v>0</v>
+      </c>
+      <c r="W6" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>107</v>
       </c>
@@ -8381,19 +8704,20 @@
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="111"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="108"/>
       <c r="S7" s="111"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="112"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T7" s="111"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="111"/>
+      <c r="W7" s="112"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>231</v>
       </c>
@@ -8425,31 +8749,34 @@
       <c r="K8" s="78">
         <v>0</v>
       </c>
-      <c r="L8" s="79">
-        <v>0</v>
-      </c>
-      <c r="M8" s="78">
-        <v>0</v>
-      </c>
-      <c r="N8" s="79">
-        <v>0</v>
-      </c>
-      <c r="O8" s="109">
-        <v>0</v>
-      </c>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="78"/>
+      <c r="L8" s="78">
+        <v>0</v>
+      </c>
+      <c r="M8" s="79">
+        <v>0</v>
+      </c>
+      <c r="N8" s="78">
+        <v>0</v>
+      </c>
+      <c r="O8" s="79">
+        <v>0</v>
+      </c>
+      <c r="P8" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
       <c r="S8" s="78"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="78">
-        <v>0</v>
-      </c>
-      <c r="V8" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T8" s="78"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="78">
+        <v>0</v>
+      </c>
+      <c r="W8" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -8483,31 +8810,34 @@
       <c r="K9" s="7">
         <v>42857</v>
       </c>
-      <c r="L9" s="77">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="77">
-        <v>0</v>
-      </c>
-      <c r="O9" s="101">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="7"/>
+      <c r="L9" s="146">
+        <v>0</v>
+      </c>
+      <c r="M9" s="77">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="77">
+        <v>0</v>
+      </c>
+      <c r="P9" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T9" s="7"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -8537,31 +8867,34 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="77">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="77">
-        <v>0</v>
-      </c>
-      <c r="O10" s="101">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="7"/>
+      <c r="L10" s="146">
+        <v>0</v>
+      </c>
+      <c r="M10" s="77">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="77">
+        <v>0</v>
+      </c>
+      <c r="P10" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T10" s="7"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>121</v>
       </c>
@@ -8593,31 +8926,34 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="77">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="77">
-        <v>0</v>
-      </c>
-      <c r="O11" s="101">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="7"/>
+      <c r="L11" s="146">
+        <v>0</v>
+      </c>
+      <c r="M11" s="77">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="77">
+        <v>0</v>
+      </c>
+      <c r="P11" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="77"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="7"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>122</v>
       </c>
@@ -8649,31 +8985,32 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="146">
         <v>42857</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="77">
-        <v>0</v>
-      </c>
-      <c r="O12" s="101">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="7"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="77">
+        <v>0</v>
+      </c>
+      <c r="P12" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="77"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T12" s="7"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -8705,31 +9042,32 @@
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="77">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="77">
-        <v>0</v>
-      </c>
-      <c r="O13" s="101">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="77">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="77">
+        <v>0</v>
+      </c>
+      <c r="P13" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="77"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T13" s="7"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -8761,31 +9099,32 @@
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="77">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="77">
-        <v>0</v>
-      </c>
-      <c r="O14" s="101">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="77">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="77">
+        <v>0</v>
+      </c>
+      <c r="P14" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="77"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="7"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>125</v>
       </c>
@@ -8815,31 +9154,32 @@
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="77">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="77">
-        <v>0</v>
-      </c>
-      <c r="O15" s="101">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="77">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="77">
+        <v>0</v>
+      </c>
+      <c r="P15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="7"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>126</v>
       </c>
@@ -8869,31 +9209,32 @@
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="77">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="77">
-        <v>0</v>
-      </c>
-      <c r="O16" s="101">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="77">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="77">
+        <v>0</v>
+      </c>
+      <c r="P16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="77"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T16" s="7"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>127</v>
       </c>
@@ -8927,31 +9268,32 @@
       <c r="K17" s="78">
         <v>0</v>
       </c>
-      <c r="L17" s="79">
-        <v>0</v>
-      </c>
-      <c r="M17" s="78">
-        <v>0</v>
-      </c>
-      <c r="N17" s="79">
-        <v>0</v>
-      </c>
-      <c r="O17" s="109">
-        <v>0</v>
-      </c>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79">
+        <v>0</v>
+      </c>
+      <c r="N17" s="78">
+        <v>0</v>
+      </c>
+      <c r="O17" s="79">
+        <v>0</v>
+      </c>
+      <c r="P17" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="79"/>
       <c r="S17" s="78"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="78">
-        <v>0</v>
-      </c>
-      <c r="V17" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T17" s="78"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="78">
+        <v>0</v>
+      </c>
+      <c r="W17" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>112</v>
       </c>
@@ -8985,27 +9327,28 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="77">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="77">
-        <v>0</v>
-      </c>
-      <c r="O18" s="101">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="77">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="77">
+        <v>0</v>
+      </c>
+      <c r="P18" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="77"/>
       <c r="S18" s="7"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="29"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T18" s="7"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="29"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>218</v>
       </c>
@@ -9019,19 +9362,20 @@
       <c r="I19" s="7"/>
       <c r="J19" s="77"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="77"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="29"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T19" s="7"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="29"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>219</v>
       </c>
@@ -9045,19 +9389,20 @@
       <c r="I20" s="78"/>
       <c r="J20" s="79"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
       <c r="S20" s="78"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="81"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T20" s="78"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="81"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>111</v>
       </c>
@@ -9091,29 +9436,30 @@
       <c r="K21" s="91">
         <v>0</v>
       </c>
-      <c r="L21" s="92">
-        <v>0</v>
-      </c>
-      <c r="M21" s="91">
-        <v>0</v>
-      </c>
-      <c r="N21" s="92">
-        <v>0</v>
-      </c>
-      <c r="O21" s="113">
-        <v>0</v>
-      </c>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="92">
+        <v>0</v>
+      </c>
+      <c r="N21" s="91">
+        <v>0</v>
+      </c>
+      <c r="O21" s="92">
+        <v>0</v>
+      </c>
+      <c r="P21" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
       <c r="S21" s="91"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="91">
+      <c r="T21" s="91"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="91">
         <v>42857</v>
       </c>
-      <c r="V21" s="90"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="90"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
@@ -9147,29 +9493,30 @@
       <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="77">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="77">
-        <v>0</v>
-      </c>
-      <c r="O22" s="101">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="77">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="77">
+        <v>0</v>
+      </c>
+      <c r="P22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="77"/>
       <c r="S22" s="7"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T22" s="7"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>115</v>
       </c>
@@ -9203,23 +9550,24 @@
       <c r="K23" s="8">
         <v>0</v>
       </c>
-      <c r="L23" s="82">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="82">
-        <v>0</v>
-      </c>
-      <c r="O23" s="102"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="82">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="82">
+        <v>0</v>
+      </c>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="82"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="9">
+      <c r="T23" s="8"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="9">
         <v>0</v>
       </c>
     </row>
@@ -9234,30 +9582,30 @@
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BL63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="21" width="9.28515625" style="1"/>
-    <col min="22" max="22" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.28515625" style="1"/>
+    <col min="3" max="22" width="9.28515625" style="1"/>
+    <col min="23" max="23" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -9291,31 +9639,33 @@
       <c r="K2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="P2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="T2" s="99"/>
       <c r="U2" s="99"/>
       <c r="V2" s="99"/>
       <c r="W2" s="99"/>
@@ -9359,8 +9709,9 @@
       <c r="BI2" s="99"/>
       <c r="BJ2" s="99"/>
       <c r="BK2" s="99"/>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL2" s="99"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
@@ -9376,15 +9727,15 @@
       <c r="I3" s="7"/>
       <c r="J3" s="77"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="6"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="29"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
@@ -9428,8 +9779,9 @@
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
       <c r="BK3" s="6"/>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL3" s="6"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
@@ -9445,15 +9797,15 @@
       <c r="I4" s="7"/>
       <c r="J4" s="77"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="6"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="29"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
@@ -9497,8 +9849,9 @@
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
       <c r="BK4" s="6"/>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL4" s="6"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
@@ -9514,15 +9867,15 @@
       <c r="I5" s="7"/>
       <c r="J5" s="77"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="6"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="29"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -9566,8 +9919,9 @@
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
       <c r="BK5" s="6"/>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL5" s="6"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
@@ -9581,15 +9935,15 @@
       <c r="I6" s="78"/>
       <c r="J6" s="79"/>
       <c r="K6" s="78"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="6"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="81"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -9633,8 +9987,9 @@
       <c r="BI6" s="6"/>
       <c r="BJ6" s="6"/>
       <c r="BK6" s="6"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL6" s="6"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>107</v>
       </c>
@@ -9650,15 +10005,15 @@
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="111"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="111"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="6"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="112"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -9702,8 +10057,9 @@
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
       <c r="BK7" s="6"/>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL7" s="6"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>231</v>
       </c>
@@ -9717,15 +10073,15 @@
       <c r="I8" s="78"/>
       <c r="J8" s="79"/>
       <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="6"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="81"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -9769,8 +10125,9 @@
       <c r="BI8" s="6"/>
       <c r="BJ8" s="6"/>
       <c r="BK8" s="6"/>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL8" s="6"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -9788,15 +10145,15 @@
       <c r="K9" s="7">
         <v>8</v>
       </c>
-      <c r="L9" s="77"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="6"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="29"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -9840,8 +10197,9 @@
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
       <c r="BK9" s="6"/>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL9" s="6"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -9859,15 +10217,15 @@
       <c r="I10" s="7"/>
       <c r="J10" s="77"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="6"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="29"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -9911,8 +10269,9 @@
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL10" s="6"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>121</v>
       </c>
@@ -9928,15 +10287,15 @@
       <c r="I11" s="7"/>
       <c r="J11" s="77"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="6"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -9980,8 +10339,9 @@
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
       <c r="BK11" s="6"/>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL11" s="6"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>122</v>
       </c>
@@ -9997,17 +10357,17 @@
       <c r="I12" s="7"/>
       <c r="J12" s="77"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="77">
+      <c r="L12" s="146">
         <v>8</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="6"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="29"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -10051,8 +10411,9 @@
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL12" s="6"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -10068,15 +10429,15 @@
       </c>
       <c r="J13" s="77"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -10120,8 +10481,9 @@
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL13" s="6"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -10137,15 +10499,15 @@
       <c r="I14" s="7"/>
       <c r="J14" s="77"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="6"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="29"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -10189,8 +10551,9 @@
       <c r="BI14" s="6"/>
       <c r="BJ14" s="6"/>
       <c r="BK14" s="6"/>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL14" s="6"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>125</v>
       </c>
@@ -10206,15 +10569,15 @@
       </c>
       <c r="J15" s="77"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="6"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="29"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -10258,8 +10621,9 @@
       <c r="BI15" s="6"/>
       <c r="BJ15" s="6"/>
       <c r="BK15" s="6"/>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL15" s="6"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>126</v>
       </c>
@@ -10273,15 +10637,15 @@
       <c r="I16" s="7"/>
       <c r="J16" s="77"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="6"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="29"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
@@ -10325,8 +10689,9 @@
       <c r="BI16" s="6"/>
       <c r="BJ16" s="6"/>
       <c r="BK16" s="6"/>
-    </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL16" s="6"/>
+    </row>
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>127</v>
       </c>
@@ -10340,15 +10705,15 @@
       <c r="I17" s="78"/>
       <c r="J17" s="79"/>
       <c r="K17" s="78"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="6"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="81"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -10392,8 +10757,9 @@
       <c r="BI17" s="6"/>
       <c r="BJ17" s="6"/>
       <c r="BK17" s="6"/>
-    </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL17" s="6"/>
+    </row>
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>112</v>
       </c>
@@ -10407,15 +10773,15 @@
       <c r="I18" s="7"/>
       <c r="J18" s="77"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="6"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="29"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -10459,8 +10825,9 @@
       <c r="BI18" s="6"/>
       <c r="BJ18" s="6"/>
       <c r="BK18" s="6"/>
-    </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL18" s="6"/>
+    </row>
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>218</v>
       </c>
@@ -10474,15 +10841,15 @@
       <c r="I19" s="7"/>
       <c r="J19" s="77"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="29"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -10526,8 +10893,9 @@
       <c r="BI19" s="6"/>
       <c r="BJ19" s="6"/>
       <c r="BK19" s="6"/>
-    </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL19" s="6"/>
+    </row>
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>219</v>
       </c>
@@ -10541,15 +10909,15 @@
       <c r="I20" s="78"/>
       <c r="J20" s="79"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="6"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="81"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -10593,8 +10961,9 @@
       <c r="BI20" s="6"/>
       <c r="BJ20" s="6"/>
       <c r="BK20" s="6"/>
-    </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL20" s="6"/>
+    </row>
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>111</v>
       </c>
@@ -10608,17 +10977,17 @@
       <c r="I21" s="91"/>
       <c r="J21" s="92"/>
       <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="91">
+      <c r="L21" s="91"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="91">
         <v>8</v>
       </c>
-      <c r="S21" s="90"/>
-      <c r="T21" s="6"/>
+      <c r="T21" s="90"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -10662,8 +11031,9 @@
       <c r="BI21" s="6"/>
       <c r="BJ21" s="6"/>
       <c r="BK21" s="6"/>
-    </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL21" s="6"/>
+    </row>
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
@@ -10677,15 +11047,15 @@
       <c r="I22" s="7"/>
       <c r="J22" s="77"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="6"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="29"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -10729,8 +11099,9 @@
       <c r="BI22" s="6"/>
       <c r="BJ22" s="6"/>
       <c r="BK22" s="6"/>
-    </row>
-    <row r="23" spans="1:63" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BL22" s="6"/>
+    </row>
+    <row r="23" spans="1:64" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>115</v>
       </c>
@@ -10744,15 +11115,15 @@
       <c r="I23" s="8"/>
       <c r="J23" s="82"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="6"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -10796,8 +11167,9 @@
       <c r="BI23" s="6"/>
       <c r="BJ23" s="6"/>
       <c r="BK23" s="6"/>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL23" s="6"/>
+    </row>
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -10861,8 +11233,9 @@
       <c r="BI24" s="6"/>
       <c r="BJ24" s="6"/>
       <c r="BK24" s="6"/>
-    </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL24" s="6"/>
+    </row>
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -10926,8 +11299,9 @@
       <c r="BI25" s="6"/>
       <c r="BJ25" s="6"/>
       <c r="BK25" s="6"/>
-    </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL25" s="6"/>
+    </row>
+    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="100"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -10991,8 +11365,9 @@
       <c r="BI26" s="6"/>
       <c r="BJ26" s="6"/>
       <c r="BK26" s="6"/>
-    </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL26" s="6"/>
+    </row>
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="100"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -11056,8 +11431,9 @@
       <c r="BI27" s="6"/>
       <c r="BJ27" s="6"/>
       <c r="BK27" s="6"/>
-    </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL27" s="6"/>
+    </row>
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -11121,8 +11497,9 @@
       <c r="BI28" s="6"/>
       <c r="BJ28" s="6"/>
       <c r="BK28" s="6"/>
-    </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL28" s="6"/>
+    </row>
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -11186,8 +11563,9 @@
       <c r="BI29" s="6"/>
       <c r="BJ29" s="6"/>
       <c r="BK29" s="6"/>
-    </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL29" s="6"/>
+    </row>
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="100"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -11251,8 +11629,9 @@
       <c r="BI30" s="6"/>
       <c r="BJ30" s="6"/>
       <c r="BK30" s="6"/>
-    </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL30" s="6"/>
+    </row>
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="100"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -11316,8 +11695,9 @@
       <c r="BI31" s="6"/>
       <c r="BJ31" s="6"/>
       <c r="BK31" s="6"/>
-    </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL31" s="6"/>
+    </row>
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -11381,8 +11761,9 @@
       <c r="BI32" s="6"/>
       <c r="BJ32" s="6"/>
       <c r="BK32" s="6"/>
-    </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL32" s="6"/>
+    </row>
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -11446,8 +11827,9 @@
       <c r="BI33" s="6"/>
       <c r="BJ33" s="6"/>
       <c r="BK33" s="6"/>
-    </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL33" s="6"/>
+    </row>
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="100"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -11511,8 +11893,9 @@
       <c r="BI34" s="6"/>
       <c r="BJ34" s="6"/>
       <c r="BK34" s="6"/>
-    </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL34" s="6"/>
+    </row>
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="100"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -11576,8 +11959,9 @@
       <c r="BI35" s="6"/>
       <c r="BJ35" s="6"/>
       <c r="BK35" s="6"/>
-    </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL35" s="6"/>
+    </row>
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="100"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -11641,8 +12025,9 @@
       <c r="BI36" s="6"/>
       <c r="BJ36" s="6"/>
       <c r="BK36" s="6"/>
-    </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL36" s="6"/>
+    </row>
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="100"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -11706,8 +12091,9 @@
       <c r="BI37" s="6"/>
       <c r="BJ37" s="6"/>
       <c r="BK37" s="6"/>
-    </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL37" s="6"/>
+    </row>
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="100"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -11771,8 +12157,9 @@
       <c r="BI38" s="6"/>
       <c r="BJ38" s="6"/>
       <c r="BK38" s="6"/>
-    </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL38" s="6"/>
+    </row>
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="100"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -11836,8 +12223,9 @@
       <c r="BI39" s="6"/>
       <c r="BJ39" s="6"/>
       <c r="BK39" s="6"/>
-    </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL39" s="6"/>
+    </row>
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" s="100"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -11901,8 +12289,9 @@
       <c r="BI40" s="6"/>
       <c r="BJ40" s="6"/>
       <c r="BK40" s="6"/>
-    </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL40" s="6"/>
+    </row>
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="100"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -11966,8 +12355,9 @@
       <c r="BI41" s="6"/>
       <c r="BJ41" s="6"/>
       <c r="BK41" s="6"/>
-    </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL41" s="6"/>
+    </row>
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="100"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -12031,8 +12421,9 @@
       <c r="BI42" s="6"/>
       <c r="BJ42" s="6"/>
       <c r="BK42" s="6"/>
-    </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL42" s="6"/>
+    </row>
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="100"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -12096,8 +12487,9 @@
       <c r="BI43" s="6"/>
       <c r="BJ43" s="6"/>
       <c r="BK43" s="6"/>
-    </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL43" s="6"/>
+    </row>
+    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" s="100"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -12161,8 +12553,9 @@
       <c r="BI44" s="6"/>
       <c r="BJ44" s="6"/>
       <c r="BK44" s="6"/>
-    </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL44" s="6"/>
+    </row>
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="100"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -12226,8 +12619,9 @@
       <c r="BI45" s="6"/>
       <c r="BJ45" s="6"/>
       <c r="BK45" s="6"/>
-    </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL45" s="6"/>
+    </row>
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" s="100"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -12291,8 +12685,9 @@
       <c r="BI46" s="6"/>
       <c r="BJ46" s="6"/>
       <c r="BK46" s="6"/>
-    </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL46" s="6"/>
+    </row>
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" s="100"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -12356,8 +12751,9 @@
       <c r="BI47" s="6"/>
       <c r="BJ47" s="6"/>
       <c r="BK47" s="6"/>
-    </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL47" s="6"/>
+    </row>
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="100"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -12421,8 +12817,9 @@
       <c r="BI48" s="6"/>
       <c r="BJ48" s="6"/>
       <c r="BK48" s="6"/>
-    </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL48" s="6"/>
+    </row>
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="100"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -12486,8 +12883,9 @@
       <c r="BI49" s="6"/>
       <c r="BJ49" s="6"/>
       <c r="BK49" s="6"/>
-    </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL49" s="6"/>
+    </row>
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="100"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -12551,8 +12949,9 @@
       <c r="BI50" s="6"/>
       <c r="BJ50" s="6"/>
       <c r="BK50" s="6"/>
-    </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL50" s="6"/>
+    </row>
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="100"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -12616,8 +13015,9 @@
       <c r="BI51" s="6"/>
       <c r="BJ51" s="6"/>
       <c r="BK51" s="6"/>
-    </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL51" s="6"/>
+    </row>
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="100"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -12681,8 +13081,9 @@
       <c r="BI52" s="6"/>
       <c r="BJ52" s="6"/>
       <c r="BK52" s="6"/>
-    </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL52" s="6"/>
+    </row>
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="100"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -12746,8 +13147,9 @@
       <c r="BI53" s="6"/>
       <c r="BJ53" s="6"/>
       <c r="BK53" s="6"/>
-    </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL53" s="6"/>
+    </row>
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="100"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -12811,8 +13213,9 @@
       <c r="BI54" s="6"/>
       <c r="BJ54" s="6"/>
       <c r="BK54" s="6"/>
-    </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL54" s="6"/>
+    </row>
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="100"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -12876,8 +13279,9 @@
       <c r="BI55" s="6"/>
       <c r="BJ55" s="6"/>
       <c r="BK55" s="6"/>
-    </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL55" s="6"/>
+    </row>
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="100"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -12941,8 +13345,9 @@
       <c r="BI56" s="6"/>
       <c r="BJ56" s="6"/>
       <c r="BK56" s="6"/>
-    </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL56" s="6"/>
+    </row>
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="100"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -13006,8 +13411,9 @@
       <c r="BI57" s="6"/>
       <c r="BJ57" s="6"/>
       <c r="BK57" s="6"/>
-    </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL57" s="6"/>
+    </row>
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="100"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -13071,8 +13477,9 @@
       <c r="BI58" s="6"/>
       <c r="BJ58" s="6"/>
       <c r="BK58" s="6"/>
-    </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL58" s="6"/>
+    </row>
+    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" s="100"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -13136,8 +13543,9 @@
       <c r="BI59" s="6"/>
       <c r="BJ59" s="6"/>
       <c r="BK59" s="6"/>
-    </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL59" s="6"/>
+    </row>
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="100"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -13201,8 +13609,9 @@
       <c r="BI60" s="6"/>
       <c r="BJ60" s="6"/>
       <c r="BK60" s="6"/>
-    </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL60" s="6"/>
+    </row>
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="100"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -13266,8 +13675,9 @@
       <c r="BI61" s="6"/>
       <c r="BJ61" s="6"/>
       <c r="BK61" s="6"/>
-    </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL61" s="6"/>
+    </row>
+    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="100"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -13331,8 +13741,9 @@
       <c r="BI62" s="6"/>
       <c r="BJ62" s="6"/>
       <c r="BK62" s="6"/>
-    </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL62" s="6"/>
+    </row>
+    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A63" s="100"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -13396,6 +13807,7 @@
       <c r="BI63" s="6"/>
       <c r="BJ63" s="6"/>
       <c r="BK63" s="6"/>
+      <c r="BL63" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13409,10 +13821,10 @@
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13443,15 +13855,24 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="35">
         <v>20000</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14302,7 +14723,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14389,38 +14810,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="146">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="146">
         <v>1</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="146">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="146">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="146">
         <v>1</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="146">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="146">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="146">
         <v>1</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="146">
         <v>1</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
         <v>1</v>
       </c>
     </row>
@@ -14434,6 +14890,7 @@
       <c r="F9" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -14444,10 +14901,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14478,11 +14935,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
         <v>2</v>
       </c>
     </row>
@@ -14681,10 +15146,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14694,13 +15159,13 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -14734,41 +15199,44 @@
       <c r="K2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="P2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="U2" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="W2" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
@@ -14802,41 +15270,44 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="77">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="77">
-        <v>0</v>
-      </c>
-      <c r="O3" s="101">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="77">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
+      <c r="L3" s="146">
+        <v>0</v>
+      </c>
+      <c r="M3" s="77">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="77">
+        <v>0</v>
+      </c>
+      <c r="P3" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="77">
         <v>0</v>
       </c>
       <c r="S3" s="7">
         <v>0</v>
       </c>
-      <c r="T3" s="77">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="77">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
@@ -14870,41 +15341,44 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="77">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="77">
-        <v>0</v>
-      </c>
-      <c r="O4" s="101">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="77">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
+      <c r="L4" s="146">
+        <v>0</v>
+      </c>
+      <c r="M4" s="77">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="77">
+        <v>0</v>
+      </c>
+      <c r="P4" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="77">
         <v>0</v>
       </c>
       <c r="S4" s="7">
         <v>0</v>
       </c>
-      <c r="T4" s="77">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="77">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
@@ -14938,41 +15412,44 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="77">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="77">
-        <v>0</v>
-      </c>
-      <c r="O5" s="101">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="77">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
+      <c r="L5" s="146">
+        <v>0</v>
+      </c>
+      <c r="M5" s="77">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="77">
+        <v>0</v>
+      </c>
+      <c r="P5" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="77">
         <v>0</v>
       </c>
       <c r="S5" s="7">
         <v>0</v>
       </c>
-      <c r="T5" s="77">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="77">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
+        <v>0</v>
+      </c>
+      <c r="W5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
@@ -15006,41 +15483,44 @@
       <c r="K6" s="78">
         <v>0</v>
       </c>
-      <c r="L6" s="79">
-        <v>0</v>
-      </c>
-      <c r="M6" s="78">
-        <v>0</v>
-      </c>
-      <c r="N6" s="79">
-        <v>0</v>
-      </c>
-      <c r="O6" s="109">
-        <v>0</v>
-      </c>
-      <c r="P6" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="79">
-        <v>0</v>
-      </c>
-      <c r="R6" s="78">
+      <c r="L6" s="78">
+        <v>0</v>
+      </c>
+      <c r="M6" s="79">
+        <v>0</v>
+      </c>
+      <c r="N6" s="78">
+        <v>0</v>
+      </c>
+      <c r="O6" s="79">
+        <v>0</v>
+      </c>
+      <c r="P6" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="78">
+        <v>0</v>
+      </c>
+      <c r="R6" s="79">
         <v>0</v>
       </c>
       <c r="S6" s="78">
         <v>0</v>
       </c>
-      <c r="T6" s="79">
-        <v>0</v>
-      </c>
-      <c r="U6" s="78">
-        <v>0</v>
-      </c>
-      <c r="V6" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T6" s="78">
+        <v>0</v>
+      </c>
+      <c r="U6" s="79">
+        <v>0</v>
+      </c>
+      <c r="V6" s="78">
+        <v>0</v>
+      </c>
+      <c r="W6" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>107</v>
       </c>
@@ -15074,41 +15554,44 @@
       <c r="K7" s="111">
         <v>0</v>
       </c>
-      <c r="L7" s="108">
-        <v>0</v>
-      </c>
-      <c r="M7" s="111">
-        <v>0</v>
-      </c>
-      <c r="N7" s="108">
-        <v>0</v>
-      </c>
-      <c r="O7" s="110">
-        <v>0</v>
-      </c>
-      <c r="P7" s="111">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="108">
-        <v>0</v>
-      </c>
-      <c r="R7" s="111">
+      <c r="L7" s="111">
+        <v>0</v>
+      </c>
+      <c r="M7" s="108">
+        <v>0</v>
+      </c>
+      <c r="N7" s="111">
+        <v>0</v>
+      </c>
+      <c r="O7" s="108">
+        <v>0</v>
+      </c>
+      <c r="P7" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="111">
+        <v>0</v>
+      </c>
+      <c r="R7" s="108">
         <v>0</v>
       </c>
       <c r="S7" s="111">
         <v>0</v>
       </c>
-      <c r="T7" s="108">
-        <v>0</v>
-      </c>
-      <c r="U7" s="111">
-        <v>0</v>
-      </c>
-      <c r="V7" s="112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T7" s="111">
+        <v>0</v>
+      </c>
+      <c r="U7" s="108">
+        <v>0</v>
+      </c>
+      <c r="V7" s="111">
+        <v>0</v>
+      </c>
+      <c r="W7" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>231</v>
       </c>
@@ -15142,41 +15625,44 @@
       <c r="K8" s="78">
         <v>0</v>
       </c>
-      <c r="L8" s="79">
-        <v>0</v>
-      </c>
-      <c r="M8" s="78">
-        <v>0</v>
-      </c>
-      <c r="N8" s="79">
-        <v>0</v>
-      </c>
-      <c r="O8" s="109">
-        <v>0</v>
-      </c>
-      <c r="P8" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="79">
-        <v>0</v>
-      </c>
-      <c r="R8" s="78">
+      <c r="L8" s="78">
+        <v>0</v>
+      </c>
+      <c r="M8" s="79">
+        <v>0</v>
+      </c>
+      <c r="N8" s="78">
+        <v>0</v>
+      </c>
+      <c r="O8" s="79">
+        <v>0</v>
+      </c>
+      <c r="P8" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="78">
+        <v>0</v>
+      </c>
+      <c r="R8" s="79">
         <v>0</v>
       </c>
       <c r="S8" s="78">
         <v>0</v>
       </c>
-      <c r="T8" s="79">
-        <v>0</v>
-      </c>
-      <c r="U8" s="78">
-        <v>0</v>
-      </c>
-      <c r="V8" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T8" s="78">
+        <v>0</v>
+      </c>
+      <c r="U8" s="79">
+        <v>0</v>
+      </c>
+      <c r="V8" s="78">
+        <v>0</v>
+      </c>
+      <c r="W8" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -15210,41 +15696,44 @@
       <c r="K9" s="7">
         <v>1E-4</v>
       </c>
-      <c r="L9" s="77">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="77">
-        <v>0</v>
-      </c>
-      <c r="O9" s="101">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="77">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="L9" s="146">
+        <v>0</v>
+      </c>
+      <c r="M9" s="77">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="77">
+        <v>0</v>
+      </c>
+      <c r="P9" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="77">
         <v>0</v>
       </c>
       <c r="S9" s="7">
         <v>0</v>
       </c>
-      <c r="T9" s="77">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="77">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <v>0</v>
+      </c>
+      <c r="W9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -15278,41 +15767,44 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="77">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="77">
-        <v>0</v>
-      </c>
-      <c r="O10" s="101">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="77">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
+      <c r="L10" s="146">
+        <v>0</v>
+      </c>
+      <c r="M10" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="77">
+        <v>0</v>
+      </c>
+      <c r="P10" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="77">
         <v>0</v>
       </c>
       <c r="S10" s="7">
         <v>0</v>
       </c>
-      <c r="T10" s="77">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="77">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>121</v>
       </c>
@@ -15346,41 +15838,44 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="77">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="L11" s="146">
+        <v>0</v>
+      </c>
+      <c r="M11" s="77">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
         <v>1E-4</v>
       </c>
-      <c r="N11" s="77">
-        <v>0</v>
-      </c>
-      <c r="O11" s="101">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="77">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="O11" s="77">
+        <v>0</v>
+      </c>
+      <c r="P11" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="77">
         <v>0</v>
       </c>
       <c r="S11" s="7">
         <v>0</v>
       </c>
-      <c r="T11" s="77">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="77">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>122</v>
       </c>
@@ -15414,41 +15909,44 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="146">
         <v>1E-4</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="77">
-        <v>0</v>
-      </c>
-      <c r="O12" s="101">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="77">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
+      <c r="M12" s="77">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="77">
+        <v>0</v>
+      </c>
+      <c r="P12" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="77">
         <v>0</v>
       </c>
       <c r="S12" s="7">
         <v>0</v>
       </c>
-      <c r="T12" s="77">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="77">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -15482,41 +15980,44 @@
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="77">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="77">
-        <v>0</v>
-      </c>
-      <c r="O13" s="101">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="77">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
+      <c r="L13" s="146">
+        <v>0</v>
+      </c>
+      <c r="M13" s="77">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="77">
+        <v>0</v>
+      </c>
+      <c r="P13" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="77">
         <v>0</v>
       </c>
       <c r="S13" s="7">
         <v>0</v>
       </c>
-      <c r="T13" s="77">
-        <v>0</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0</v>
-      </c>
-      <c r="V13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="77">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0</v>
+      </c>
+      <c r="W13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -15550,41 +16051,44 @@
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="77">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="77">
-        <v>0</v>
-      </c>
-      <c r="O14" s="101">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="77">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
+      <c r="L14" s="146">
+        <v>0</v>
+      </c>
+      <c r="M14" s="77">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="77">
+        <v>0</v>
+      </c>
+      <c r="P14" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="77">
         <v>0</v>
       </c>
       <c r="S14" s="7">
         <v>0</v>
       </c>
-      <c r="T14" s="77">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="77">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>125</v>
       </c>
@@ -15618,41 +16122,44 @@
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="77">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="77">
-        <v>0</v>
-      </c>
-      <c r="O15" s="101">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="77">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="L15" s="146">
+        <v>0</v>
+      </c>
+      <c r="M15" s="77">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="77">
+        <v>0</v>
+      </c>
+      <c r="P15" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="77">
         <v>0</v>
       </c>
       <c r="S15" s="7">
         <v>0</v>
       </c>
-      <c r="T15" s="77">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="77">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>126</v>
       </c>
@@ -15686,41 +16193,44 @@
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="77">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="77">
-        <v>0</v>
-      </c>
-      <c r="O16" s="101">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="77">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="L16" s="146">
+        <v>0</v>
+      </c>
+      <c r="M16" s="77">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="77">
+        <v>0</v>
+      </c>
+      <c r="P16" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="77">
         <v>0</v>
       </c>
       <c r="S16" s="7">
         <v>0</v>
       </c>
-      <c r="T16" s="77">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="77">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="70" t="s">
         <v>127</v>
       </c>
@@ -15754,41 +16264,44 @@
       <c r="K17" s="78">
         <v>0</v>
       </c>
-      <c r="L17" s="79">
-        <v>0</v>
-      </c>
-      <c r="M17" s="78">
-        <v>0</v>
-      </c>
-      <c r="N17" s="79">
+      <c r="L17" s="78">
+        <v>0</v>
+      </c>
+      <c r="M17" s="79">
+        <v>0</v>
+      </c>
+      <c r="N17" s="78">
+        <v>0</v>
+      </c>
+      <c r="O17" s="79">
         <v>1E-4</v>
       </c>
-      <c r="O17" s="109">
-        <v>0</v>
-      </c>
-      <c r="P17" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="79">
-        <v>0</v>
-      </c>
-      <c r="R17" s="78">
+      <c r="P17" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="78">
+        <v>0</v>
+      </c>
+      <c r="R17" s="79">
         <v>0</v>
       </c>
       <c r="S17" s="78">
         <v>0</v>
       </c>
-      <c r="T17" s="79">
-        <v>0</v>
-      </c>
-      <c r="U17" s="78">
-        <v>0</v>
-      </c>
-      <c r="V17" s="81">
+      <c r="T17" s="78">
+        <v>0</v>
+      </c>
+      <c r="U17" s="79">
+        <v>0</v>
+      </c>
+      <c r="V17" s="78">
+        <v>0</v>
+      </c>
+      <c r="W17" s="81">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>112</v>
       </c>
@@ -15822,41 +16335,44 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="77">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="77">
-        <v>0</v>
-      </c>
-      <c r="O18" s="101">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="77">
-        <v>0</v>
-      </c>
-      <c r="R18" s="110">
-        <v>0</v>
-      </c>
-      <c r="S18" s="111">
-        <v>0</v>
-      </c>
-      <c r="T18" s="108">
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
+      <c r="L18" s="146">
+        <v>0</v>
+      </c>
+      <c r="M18" s="77">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="77">
+        <v>0</v>
+      </c>
+      <c r="P18" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="77">
+        <v>0</v>
+      </c>
+      <c r="S18" s="110">
+        <v>0</v>
+      </c>
+      <c r="T18" s="111">
+        <v>0</v>
+      </c>
+      <c r="U18" s="108">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
         <v>1E-4</v>
       </c>
-      <c r="V18" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>218</v>
       </c>
@@ -15890,41 +16406,44 @@
       <c r="K19" s="7">
         <v>0</v>
       </c>
-      <c r="L19" s="77">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="77">
-        <v>0</v>
-      </c>
-      <c r="O19" s="101">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="77">
-        <v>0</v>
-      </c>
-      <c r="R19" s="101">
+      <c r="L19" s="146">
+        <v>0</v>
+      </c>
+      <c r="M19" s="77">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="77">
+        <v>0</v>
+      </c>
+      <c r="P19" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="77">
+        <v>0</v>
+      </c>
+      <c r="S19" s="101">
         <v>1E-4</v>
       </c>
-      <c r="S19" s="7">
+      <c r="T19" s="7">
         <v>1E-4</v>
       </c>
-      <c r="T19" s="77">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U19" s="77">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>219</v>
       </c>
@@ -15958,41 +16477,44 @@
       <c r="K20" s="78">
         <v>0</v>
       </c>
-      <c r="L20" s="79">
-        <v>0</v>
-      </c>
-      <c r="M20" s="78">
-        <v>0</v>
-      </c>
-      <c r="N20" s="79">
-        <v>0</v>
-      </c>
-      <c r="O20" s="109">
-        <v>0</v>
-      </c>
-      <c r="P20" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="79">
-        <v>0</v>
-      </c>
-      <c r="R20" s="109">
-        <v>0</v>
-      </c>
-      <c r="S20" s="78">
-        <v>0</v>
-      </c>
-      <c r="T20" s="79">
+      <c r="L20" s="78">
+        <v>0</v>
+      </c>
+      <c r="M20" s="79">
+        <v>0</v>
+      </c>
+      <c r="N20" s="78">
+        <v>0</v>
+      </c>
+      <c r="O20" s="79">
+        <v>0</v>
+      </c>
+      <c r="P20" s="109">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="78">
+        <v>0</v>
+      </c>
+      <c r="R20" s="79">
+        <v>0</v>
+      </c>
+      <c r="S20" s="109">
+        <v>0</v>
+      </c>
+      <c r="T20" s="78">
+        <v>0</v>
+      </c>
+      <c r="U20" s="79">
         <v>1E-4</v>
       </c>
-      <c r="U20" s="78">
-        <v>0</v>
-      </c>
-      <c r="V20" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="78">
+        <v>0</v>
+      </c>
+      <c r="W20" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>111</v>
       </c>
@@ -16026,41 +16548,44 @@
       <c r="K21" s="91">
         <v>0</v>
       </c>
-      <c r="L21" s="92">
-        <v>0</v>
-      </c>
-      <c r="M21" s="91">
-        <v>0</v>
-      </c>
-      <c r="N21" s="92">
-        <v>0</v>
-      </c>
-      <c r="O21" s="113">
-        <v>0</v>
-      </c>
-      <c r="P21" s="91">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="92">
-        <v>0</v>
-      </c>
-      <c r="R21" s="91">
+      <c r="L21" s="91">
+        <v>0</v>
+      </c>
+      <c r="M21" s="92">
+        <v>0</v>
+      </c>
+      <c r="N21" s="91">
+        <v>0</v>
+      </c>
+      <c r="O21" s="92">
+        <v>0</v>
+      </c>
+      <c r="P21" s="113">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="91">
+        <v>0</v>
+      </c>
+      <c r="R21" s="92">
         <v>0</v>
       </c>
       <c r="S21" s="91">
         <v>0</v>
       </c>
-      <c r="T21" s="92">
-        <v>0</v>
-      </c>
-      <c r="U21" s="91">
+      <c r="T21" s="91">
+        <v>0</v>
+      </c>
+      <c r="U21" s="92">
+        <v>0</v>
+      </c>
+      <c r="V21" s="91">
         <v>1E-4</v>
       </c>
-      <c r="V21" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
@@ -16094,41 +16619,44 @@
       <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="77">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="77">
-        <v>0</v>
-      </c>
-      <c r="O22" s="101">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
+      <c r="L22" s="146">
+        <v>0</v>
+      </c>
+      <c r="M22" s="77">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="77">
+        <v>0</v>
+      </c>
+      <c r="P22" s="101">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
         <v>1E-4</v>
       </c>
-      <c r="Q22" s="77">
-        <v>1E-4</v>
-      </c>
-      <c r="R22" s="7">
+      <c r="R22" s="77">
         <v>1E-4</v>
       </c>
       <c r="S22" s="7">
         <v>1E-4</v>
       </c>
-      <c r="T22" s="77">
+      <c r="T22" s="7">
         <v>1E-4</v>
       </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-      <c r="V22" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="77">
+        <v>1E-4</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0</v>
+      </c>
+      <c r="W22" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>115</v>
       </c>
@@ -16162,37 +16690,40 @@
       <c r="K23" s="8">
         <v>0</v>
       </c>
-      <c r="L23" s="82">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="82">
-        <v>0</v>
-      </c>
-      <c r="O23" s="102">
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="82">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="82">
+        <v>0</v>
+      </c>
+      <c r="P23" s="102">
         <v>1E-4</v>
       </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="82">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8">
+      <c r="Q23" s="8">
+        <v>0</v>
+      </c>
+      <c r="R23" s="82">
         <v>0</v>
       </c>
       <c r="S23" s="8">
         <v>0</v>
       </c>
-      <c r="T23" s="82">
-        <v>0</v>
-      </c>
-      <c r="U23" s="8">
-        <v>0</v>
-      </c>
-      <c r="V23" s="9">
+      <c r="T23" s="8">
+        <v>0</v>
+      </c>
+      <c r="U23" s="82">
+        <v>0</v>
+      </c>
+      <c r="V23" s="8">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
         <v>0</v>
       </c>
     </row>
@@ -16347,7 +16878,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16376,7 +16907,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -16396,10 +16929,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16407,89 +16940,111 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="146">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>2.5</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="146">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="146">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="78">
         <v>3</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="78">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>107</v>
       </c>
       <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="146">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
         <v>231</v>
       </c>
       <c r="B8" s="8">
         <v>3.5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>2</v>
       </c>
+      <c r="D8" s="9">
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16500,10 +17055,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16552,20 +17107,37 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="B4" s="147">
+        <v>0</v>
+      </c>
+      <c r="C4" s="147">
         <v>1000</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="147">
         <v>900</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="36">
+        <v>900</v>
+      </c>
+      <c r="E5" s="37">
         <v>800</v>
       </c>
     </row>
@@ -16584,7 +17156,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16633,32 +17205,46 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="B4" s="147">
+        <v>0</v>
+      </c>
+      <c r="C4" s="147">
         <v>10000</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="147">
         <v>20000</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="134"/>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="134"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17212,12 +17798,12 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17225,13 +17811,13 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>181</v>
       </c>
@@ -17265,41 +17851,44 @@
       <c r="K2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="80" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="P2" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="U2" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="V2" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="W2" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>87</v>
       </c>
@@ -17333,27 +17922,30 @@
       <c r="K3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="101" t="s">
+      <c r="N3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="7"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="77"/>
       <c r="S3" s="7"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="101" t="s">
+      <c r="T3" s="7"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="V3" s="117"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="117"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>88</v>
       </c>
@@ -17387,27 +17979,30 @@
       <c r="K4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="N4" s="77"/>
-      <c r="O4" s="101" t="s">
+      <c r="N4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="7"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="77"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="101" t="s">
+      <c r="T4" s="7"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="V4" s="117"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="117"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>89</v>
       </c>
@@ -17441,27 +18036,30 @@
       <c r="K5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="77" t="s">
+      <c r="L5" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="101" t="s">
+      <c r="N5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="77"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="101" t="s">
+      <c r="T5" s="7"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="V5" s="117"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="117"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
         <v>90</v>
       </c>
@@ -17495,27 +18093,30 @@
       <c r="K6" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="79" t="s">
+      <c r="L6" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="M6" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="N6" s="79"/>
-      <c r="O6" s="109" t="s">
+      <c r="N6" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="78"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
       <c r="S6" s="78"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="109" t="s">
+      <c r="T6" s="78"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="V6" s="122"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="122"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>107</v>
       </c>
@@ -17543,19 +18144,20 @@
       </c>
       <c r="J7" s="108"/>
       <c r="K7" s="111"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="108"/>
       <c r="S7" s="111"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="126"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T7" s="111"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="110"/>
+      <c r="W7" s="126"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
         <v>231</v>
       </c>
@@ -17585,25 +18187,28 @@
       <c r="K8" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="L8" s="124" t="s">
+      <c r="L8" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="109" t="s">
+      <c r="M8" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="109" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79"/>
       <c r="S8" s="78"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="125" t="s">
+      <c r="T8" s="78"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="V8" s="122"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="122"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>119</v>
       </c>
@@ -17637,23 +18242,26 @@
       <c r="K9" s="120">
         <v>4.1717000000000004</v>
       </c>
-      <c r="L9" s="77" t="s">
+      <c r="L9" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="77"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="77"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="77"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="117"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T9" s="7"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="117"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>120</v>
       </c>
@@ -17687,23 +18295,26 @@
       <c r="K10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L10" s="77" t="s">
+      <c r="L10" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="77">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="7"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="7"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="117"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T10" s="7"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="101"/>
+      <c r="W10" s="117"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>121</v>
       </c>
@@ -17737,23 +18348,26 @@
       <c r="K11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="N11" s="7">
         <v>1.4</v>
       </c>
-      <c r="N11" s="77"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="7"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="77"/>
       <c r="S11" s="7"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="117"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="7"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="117"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>122</v>
       </c>
@@ -17787,23 +18401,24 @@
       <c r="K12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="146">
         <v>1.3163</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="77"/>
+      <c r="N12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N12" s="77"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="7"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="77"/>
       <c r="S12" s="7"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="101"/>
-      <c r="V12" s="117"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T12" s="7"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="117"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -17837,23 +18452,24 @@
       <c r="K13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N13" s="77"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="7"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="77"/>
       <c r="S13" s="7"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="117"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T13" s="7"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="117"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -17887,23 +18503,24 @@
       <c r="K14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="7"/>
+      <c r="M14" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N14" s="77"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="7"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="77"/>
       <c r="S14" s="7"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="117"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="7"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="101"/>
+      <c r="W14" s="117"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
         <v>125</v>
       </c>
@@ -17937,23 +18554,24 @@
       <c r="K15" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="7"/>
+      <c r="M15" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="N15" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N15" s="77"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="7"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="117"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="7"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="117"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
         <v>126</v>
       </c>
@@ -17987,21 +18605,22 @@
       <c r="K16" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="7"/>
+      <c r="M16" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="77"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="117"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T16" s="7"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="101"/>
+      <c r="W16" s="117"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>127</v>
       </c>
@@ -18035,27 +18654,28 @@
       <c r="K17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N17" s="77">
+      <c r="O17" s="77">
         <v>2.5</v>
       </c>
-      <c r="O17" s="101"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="7"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="77"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="81">
+      <c r="T17" s="7"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="81">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>112</v>
       </c>
@@ -18069,21 +18689,22 @@
       <c r="I18" s="111"/>
       <c r="J18" s="108"/>
       <c r="K18" s="111"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="108"/>
       <c r="S18" s="111"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="110">
+      <c r="T18" s="111"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="110">
         <v>2</v>
       </c>
-      <c r="V18" s="117"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="117"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>218</v>
       </c>
@@ -18097,23 +18718,24 @@
       <c r="I19" s="7"/>
       <c r="J19" s="77"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="77"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="7">
-        <v>50</v>
-      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="77"/>
       <c r="S19" s="7">
         <v>50</v>
       </c>
-      <c r="T19" s="77"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="117"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T19" s="7">
+        <v>50</v>
+      </c>
+      <c r="U19" s="77"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="117"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="70" t="s">
         <v>219</v>
       </c>
@@ -18127,21 +18749,22 @@
       <c r="I20" s="78"/>
       <c r="J20" s="79"/>
       <c r="K20" s="78"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="78"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="79"/>
       <c r="S20" s="78"/>
-      <c r="T20" s="79">
+      <c r="T20" s="78"/>
+      <c r="U20" s="79">
         <v>2</v>
       </c>
-      <c r="U20" s="109"/>
-      <c r="V20" s="117"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20" s="109"/>
+      <c r="W20" s="117"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="89" t="s">
         <v>111</v>
       </c>
@@ -18175,27 +18798,28 @@
       <c r="K21" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="L21" s="92" t="s">
+      <c r="L21" s="91"/>
+      <c r="M21" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="M21" s="91" t="s">
+      <c r="N21" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="N21" s="92"/>
-      <c r="O21" s="113" t="s">
+      <c r="O21" s="92"/>
+      <c r="P21" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
       <c r="S21" s="91"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="113">
+      <c r="T21" s="91"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="113">
         <v>2.6</v>
       </c>
-      <c r="V21" s="121"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="121"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
@@ -18225,35 +18849,36 @@
       <c r="K22" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L22" s="77" t="s">
+      <c r="L22" s="7"/>
+      <c r="M22" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="N22" s="77"/>
-      <c r="O22" s="101" t="s">
+      <c r="O22" s="77"/>
+      <c r="P22" s="101" t="s">
         <v>192</v>
       </c>
-      <c r="P22" s="7">
+      <c r="Q22" s="7">
         <v>0.01</v>
       </c>
-      <c r="Q22" s="77">
+      <c r="R22" s="77">
         <v>0.01</v>
-      </c>
-      <c r="R22" s="7">
-        <v>50</v>
       </c>
       <c r="S22" s="7">
         <v>50</v>
       </c>
-      <c r="T22" s="77">
+      <c r="T22" s="7">
+        <v>50</v>
+      </c>
+      <c r="U22" s="77">
         <v>2</v>
       </c>
-      <c r="U22" s="101"/>
-      <c r="V22" s="117"/>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V22" s="101"/>
+      <c r="W22" s="117"/>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
         <v>115</v>
       </c>
@@ -18283,23 +18908,24 @@
       <c r="K23" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="82" t="s">
+      <c r="L23" s="8"/>
+      <c r="M23" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="N23" s="82"/>
-      <c r="O23" s="102">
+      <c r="O23" s="82"/>
+      <c r="P23" s="102">
         <v>0.01</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="82"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="102"/>
-      <c r="V23" s="116"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="116"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19764,10 +20390,10 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19816,20 +20442,37 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="36">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="B4" s="147">
+        <v>0</v>
+      </c>
+      <c r="C4" s="147">
         <v>45</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="147">
         <v>50</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>45</v>
+      </c>
+      <c r="D5" s="36">
+        <v>50</v>
+      </c>
+      <c r="E5" s="37">
         <v>55</v>
       </c>
     </row>

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3194126B-32D6-4B8C-B044-2D6C3236B900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65010237-EC1C-42FE-97EB-49F1ADC02CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" firstSheet="93" activeTab="95" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="278">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -983,21 +983,6 @@
   </si>
   <si>
     <t>PM 2.5</t>
-  </si>
-  <si>
-    <t>Trucking (g/hour)</t>
-  </si>
-  <si>
-    <t>Pipeline Operations (g/(bbl-mile))</t>
-  </si>
-  <si>
-    <t>Pipeline Installation (g/mile)</t>
-  </si>
-  <si>
-    <t>Disposal (g/bbl)</t>
-  </si>
-  <si>
-    <t>Storage (g/bbl-week)</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2481,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3056,9 +3041,7 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5848,7 +5831,7 @@
   <dimension ref="A1:BB12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20597,8 +20580,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>278</v>
+      <c r="A3" s="26" t="str">
+        <f>_xlfn.CONCAT("Trucking [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/hour]")</f>
+        <v>Trucking [g/hour]</v>
       </c>
       <c r="B3" s="146">
         <v>2035000</v>
@@ -20617,8 +20601,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>279</v>
+      <c r="A4" s="26" t="str">
+        <f>_xlfn.CONCAT("Pipeline Operations [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "*", VLOOKUP("distance", Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Pipeline Operations [g/(bbl*mile)]</v>
       </c>
       <c r="B4" s="146">
         <v>22</v>
@@ -20637,8 +20622,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>280</v>
+      <c r="A5" s="26" t="str">
+        <f>_xlfn.CONCAT("Pipeline Installation [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("distance", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Pipeline Installation [g/mile]</v>
       </c>
       <c r="B5" s="146">
         <v>310000000</v>
@@ -20657,8 +20643,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>281</v>
+      <c r="A6" s="26" t="str">
+        <f>_xlfn.CONCAT("Disposal [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Disposal [g/bbl]</v>
       </c>
       <c r="B6" s="146">
         <v>970</v>
@@ -20677,8 +20664,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>282</v>
+      <c r="A7" s="27" t="str">
+        <f>_xlfn.CONCAT("Storage [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "*", VLOOKUP("decision period", Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Storage [g/(bbl*week)]</v>
       </c>
       <c r="B7" s="148">
         <v>1000</v>
@@ -20708,7 +20696,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -20719,8 +20707,8 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]")</f>
-        <v>Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]</v>
+        <f>_xlfn.CONCAT("Table of Air Emissions Coefficients for Treatment Technologies [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Table of Air Emissions Coefficients for Treatment Technologies [g/bbl]</v>
       </c>
       <c r="B1" s="1"/>
     </row>

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA5083F-A81B-41DF-9433-E9BEB1BECCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65010237-EC1C-42FE-97EB-49F1ADC02CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -22,108 +22,111 @@
     <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
     <sheet name="ExternalWaterSources" sheetId="35" r:id="rId8"/>
     <sheet name="WaterQualityComponents" sheetId="144" r:id="rId9"/>
-    <sheet name="StorageSites" sheetId="36" r:id="rId10"/>
-    <sheet name="TreatmentSites" sheetId="37" r:id="rId11"/>
-    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId12"/>
-    <sheet name="ReuseOptions" sheetId="38" r:id="rId13"/>
-    <sheet name="NetworkNodes" sheetId="39" r:id="rId14"/>
-    <sheet name="PipelineDiameters" sheetId="53" r:id="rId15"/>
-    <sheet name="StorageCapacities" sheetId="54" r:id="rId16"/>
-    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId17"/>
-    <sheet name="InjectionCapacities" sheetId="55" r:id="rId18"/>
-    <sheet name="PNA" sheetId="56" r:id="rId19"/>
-    <sheet name="CNA" sheetId="57" r:id="rId20"/>
-    <sheet name="CCA" sheetId="73" r:id="rId21"/>
-    <sheet name="NNA" sheetId="58" r:id="rId22"/>
-    <sheet name="NCA" sheetId="59" r:id="rId23"/>
-    <sheet name="NKA" sheetId="60" r:id="rId24"/>
-    <sheet name="NRA" sheetId="61" r:id="rId25"/>
-    <sheet name="NSA" sheetId="76" r:id="rId26"/>
-    <sheet name="NOA" sheetId="119" r:id="rId27"/>
-    <sheet name="SNA" sheetId="77" r:id="rId28"/>
-    <sheet name="SOA" sheetId="120" r:id="rId29"/>
-    <sheet name="FCA" sheetId="41" r:id="rId30"/>
-    <sheet name="RCA" sheetId="83" r:id="rId31"/>
-    <sheet name="RSA" sheetId="105" r:id="rId32"/>
-    <sheet name="SCA" sheetId="108" r:id="rId33"/>
-    <sheet name="RNA" sheetId="62" r:id="rId34"/>
-    <sheet name="ROA" sheetId="121" r:id="rId35"/>
-    <sheet name="RKA" sheetId="133" r:id="rId36"/>
-    <sheet name="PCT" sheetId="42" r:id="rId37"/>
-    <sheet name="FCT" sheetId="70" r:id="rId38"/>
-    <sheet name="PKT" sheetId="43" r:id="rId39"/>
-    <sheet name="CKT" sheetId="44" r:id="rId40"/>
-    <sheet name="CCT" sheetId="74" r:id="rId41"/>
-    <sheet name="CST" sheetId="64" r:id="rId42"/>
-    <sheet name="RST" sheetId="122" r:id="rId43"/>
-    <sheet name="ROT" sheetId="123" r:id="rId44"/>
-    <sheet name="SOT" sheetId="124" r:id="rId45"/>
-    <sheet name="RKT" sheetId="134" r:id="rId46"/>
-    <sheet name="Elevation" sheetId="115" r:id="rId47"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId48"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId49"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId50"/>
-    <sheet name="WellPressure" sheetId="116" r:id="rId51"/>
-    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId52"/>
-    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId53"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId54"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId55"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId56"/>
-    <sheet name="ReuseMinimum" sheetId="125" r:id="rId57"/>
-    <sheet name="ReuseCapacity" sheetId="126" r:id="rId58"/>
-    <sheet name="ExtWaterSourcingAvailability" sheetId="47" r:id="rId59"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId60"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId61"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId62"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId63"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId64"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId65"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId66"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId67"/>
-    <sheet name="ExternalSourcingCost" sheetId="52" r:id="rId68"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId69"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId70"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId71"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId72"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId73"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId74"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId75"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId76"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId77"/>
-    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId78"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId79"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId80"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId81"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId82"/>
-    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId83"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId84"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId85"/>
-    <sheet name="BeneficialReuseCost" sheetId="135" r:id="rId86"/>
-    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId87"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId88"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId89"/>
-    <sheet name="Economics" sheetId="95" r:id="rId90"/>
-    <sheet name="ExternalWaterQuality" sheetId="145" r:id="rId91"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId92"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId93"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId94"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId95"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId96"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId97"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId98"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId99"/>
-    <sheet name="SWDDeep" sheetId="136" r:id="rId100"/>
-    <sheet name="SWDAveragePressure" sheetId="137" r:id="rId101"/>
-    <sheet name="SWDProxPAWell" sheetId="138" r:id="rId102"/>
-    <sheet name="SWDProxInactiveWell" sheetId="139" r:id="rId103"/>
-    <sheet name="SWDProxEQ" sheetId="140" r:id="rId104"/>
-    <sheet name="SWDProxFault" sheetId="141" r:id="rId105"/>
-    <sheet name="SWDProxHpOrLpWell" sheetId="142" r:id="rId106"/>
-    <sheet name="SWDRiskFactors" sheetId="143" r:id="rId107"/>
+    <sheet name="AirEmissionsComponents" sheetId="146" r:id="rId10"/>
+    <sheet name="StorageSites" sheetId="36" r:id="rId11"/>
+    <sheet name="TreatmentSites" sheetId="37" r:id="rId12"/>
+    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId13"/>
+    <sheet name="ReuseOptions" sheetId="38" r:id="rId14"/>
+    <sheet name="NetworkNodes" sheetId="39" r:id="rId15"/>
+    <sheet name="PipelineDiameters" sheetId="53" r:id="rId16"/>
+    <sheet name="StorageCapacities" sheetId="54" r:id="rId17"/>
+    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId18"/>
+    <sheet name="InjectionCapacities" sheetId="55" r:id="rId19"/>
+    <sheet name="PNA" sheetId="56" r:id="rId20"/>
+    <sheet name="CNA" sheetId="57" r:id="rId21"/>
+    <sheet name="CCA" sheetId="73" r:id="rId22"/>
+    <sheet name="NNA" sheetId="58" r:id="rId23"/>
+    <sheet name="NCA" sheetId="59" r:id="rId24"/>
+    <sheet name="NKA" sheetId="60" r:id="rId25"/>
+    <sheet name="NRA" sheetId="61" r:id="rId26"/>
+    <sheet name="NSA" sheetId="76" r:id="rId27"/>
+    <sheet name="NOA" sheetId="119" r:id="rId28"/>
+    <sheet name="SNA" sheetId="77" r:id="rId29"/>
+    <sheet name="SOA" sheetId="120" r:id="rId30"/>
+    <sheet name="FCA" sheetId="41" r:id="rId31"/>
+    <sheet name="RCA" sheetId="83" r:id="rId32"/>
+    <sheet name="RSA" sheetId="105" r:id="rId33"/>
+    <sheet name="SCA" sheetId="108" r:id="rId34"/>
+    <sheet name="RNA" sheetId="62" r:id="rId35"/>
+    <sheet name="ROA" sheetId="121" r:id="rId36"/>
+    <sheet name="RKA" sheetId="133" r:id="rId37"/>
+    <sheet name="PCT" sheetId="42" r:id="rId38"/>
+    <sheet name="FCT" sheetId="70" r:id="rId39"/>
+    <sheet name="PKT" sheetId="43" r:id="rId40"/>
+    <sheet name="CKT" sheetId="44" r:id="rId41"/>
+    <sheet name="CCT" sheetId="74" r:id="rId42"/>
+    <sheet name="CST" sheetId="64" r:id="rId43"/>
+    <sheet name="RST" sheetId="122" r:id="rId44"/>
+    <sheet name="ROT" sheetId="123" r:id="rId45"/>
+    <sheet name="SOT" sheetId="124" r:id="rId46"/>
+    <sheet name="RKT" sheetId="134" r:id="rId47"/>
+    <sheet name="Elevation" sheetId="115" r:id="rId48"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId49"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId50"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId51"/>
+    <sheet name="WellPressure" sheetId="116" r:id="rId52"/>
+    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId53"/>
+    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId54"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId55"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId56"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId57"/>
+    <sheet name="ReuseMinimum" sheetId="125" r:id="rId58"/>
+    <sheet name="ReuseCapacity" sheetId="126" r:id="rId59"/>
+    <sheet name="ExtWaterSourcingAvailability" sheetId="47" r:id="rId60"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId61"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId62"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId63"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId64"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId65"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId66"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId67"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId68"/>
+    <sheet name="ExternalSourcingCost" sheetId="52" r:id="rId69"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId70"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId71"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId72"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId73"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId74"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId75"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId76"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId77"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId78"/>
+    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId79"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId80"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId81"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId82"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId83"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId84"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId85"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId86"/>
+    <sheet name="BeneficialReuseCost" sheetId="135" r:id="rId87"/>
+    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId88"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId89"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId90"/>
+    <sheet name="Economics" sheetId="95" r:id="rId91"/>
+    <sheet name="ExternalWaterQuality" sheetId="145" r:id="rId92"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId93"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId94"/>
+    <sheet name="AirEmissionCoefficients" sheetId="147" r:id="rId95"/>
+    <sheet name="TreatmentEmissionCoeffiecients" sheetId="148" r:id="rId96"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId97"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId98"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId99"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId100"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId101"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId102"/>
+    <sheet name="SWDDeep" sheetId="136" r:id="rId103"/>
+    <sheet name="SWDAveragePressure" sheetId="137" r:id="rId104"/>
+    <sheet name="SWDProxPAWell" sheetId="138" r:id="rId105"/>
+    <sheet name="SWDProxInactiveWell" sheetId="139" r:id="rId106"/>
+    <sheet name="SWDProxEQ" sheetId="140" r:id="rId107"/>
+    <sheet name="SWDProxFault" sheetId="141" r:id="rId108"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="142" r:id="rId109"/>
+    <sheet name="SWDRiskFactors" sheetId="143" r:id="rId110"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="77" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="77">PipelineExpansionDistance!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="78" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="78">PipelineExpansionDistance!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="278">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -947,6 +950,39 @@
   </si>
   <si>
     <t>K03</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Mass units is used for measuring emissions coefficients (e.g. 10g per treated produced water bbl).</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>1000g</t>
+  </si>
+  <si>
+    <t>List of all Air Emissions Components [-]</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>PM 2.5</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1626,13 +1662,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1985,10 +2034,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2971,6 +3035,755 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902ACDCD-3693-478A-9821-7AD6A00BBCAB}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EACECE5-F82F-4E80-B99E-F7DABB62B09A}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Storage Expansion Lead Time [weeks]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
+        <v>88</v>
+      </c>
+      <c r="D3" s="34">
+        <v>89</v>
+      </c>
+      <c r="E3" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
+        <v>88</v>
+      </c>
+      <c r="D4" s="34">
+        <v>89</v>
+      </c>
+      <c r="E4" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>88</v>
+      </c>
+      <c r="D5" s="36">
+        <v>89</v>
+      </c>
+      <c r="E5" s="37">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC23D97D-374C-4B13-BA6B-20365AC2D937}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="130">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F7B70E-50E1-4C11-B6BC-F4B3E009AA2B}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Capacity Based [weeks]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="132" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC520D4-C260-43C9-829A-0168818F0C13}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A67AB7E-C43E-4460-BBE5-7CAF7901DC39}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EF207-8B26-4E93-AAD9-4F6D1F5C590F}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BC5ACA-26E9-4576-B54F-73B77F3A56A8}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6853B7F8-846E-4467-BB0E-C7EF4435D8D7}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet108.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042D7ED9-F43C-4E3C-B3D3-C88C122008A3}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC59DBD-368E-464E-9846-1653485985D2}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="29">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3023,427 +3836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC520D4-C260-43C9-829A-0168818F0C13}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A67AB7E-C43E-4460-BBE5-7CAF7901DC39}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="29">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3EF207-8B26-4E93-AAD9-4F6D1F5C590F}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="29">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BC5ACA-26E9-4576-B54F-73B77F3A56A8}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="29">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6853B7F8-846E-4467-BB0E-C7EF4435D8D7}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="29">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="29">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="9">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042D7ED9-F43C-4E3C-B3D3-C88C122008A3}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="29">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="29">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet106.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC59DBD-368E-464E-9846-1653485985D2}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="29">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="29">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDD4D73-CE90-48D4-AEC0-CA774BB1EF4B}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
@@ -3454,7 +3847,7 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -3593,7 +3986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3654,7 +4047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3715,7 +4108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E027-57F4-45A3-888B-4C0E11BBDC89}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3768,7 +4161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3912,7 +4305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3972,7 +4365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D1DC6-FF6C-4D1F-9E23-B1795807F580}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4036,7 +4429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75646C-6D5B-41D2-BD66-0AABE8C35A83}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4101,7 +4494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691EF25-02B9-4EAE-A04E-51FF0E4ADDCA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4165,132 +4558,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
   <sheetPr>
@@ -4366,6 +4633,132 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4458,7 +4851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10C60C-760C-4F1B-AB9A-B14851122200}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4512,7 +4905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4753,7 +5146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037676BC-0D9E-4EC2-B7DF-9077076036FD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4862,7 +5255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4905,7 +5298,7 @@
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="146"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,7 +5306,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="146"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="29">
         <v>1</v>
       </c>
@@ -4923,7 +5316,7 @@
         <v>121</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="146"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4931,7 +5324,7 @@
         <v>122</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="146">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="29"/>
@@ -4941,7 +5334,7 @@
         <v>123</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="146"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,7 +5342,7 @@
         <v>124</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="146"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4957,7 +5350,7 @@
         <v>125</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="146"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4965,7 +5358,7 @@
         <v>126</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="146"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4988,7 +5381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AC5F8-3DBD-4182-95AF-F72C7FA4D2FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5100,7 +5493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A514516D-9002-4617-9A63-E1CA29CE5849}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5214,7 +5607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA78038-CDE7-4F76-A235-C6722F09C3AA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5225,7 +5618,7 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -5328,7 +5721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5430,80 +5823,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74ECBE8-579F-4C46-8EE6-A1073B2E4481}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="117"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="117"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB10CD-C2F5-4A5B-9D35-9BA20FBC12B6}">
   <sheetPr>
     <tabColor theme="2" tint="-9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BB12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5528,12 +5856,12 @@
     <col min="54" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -5553,7 +5881,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>47</v>
       </c>
@@ -5583,7 +5911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>54</v>
       </c>
@@ -5607,7 +5935,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>59</v>
       </c>
@@ -5625,7 +5953,7 @@
       <c r="J5" s="52"/>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>62</v>
       </c>
@@ -5649,7 +5977,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="54"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>66</v>
       </c>
@@ -5673,7 +6001,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="54"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>71</v>
       </c>
@@ -5715,7 +6043,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>207</v>
       </c>
@@ -5763,7 +6091,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>212</v>
       </c>
@@ -5805,33 +6133,33 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="56"/>
+      <c r="I11" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="54" t="s">
         <v>81</v>
       </c>
       <c r="AU11" s="1" t="s">
@@ -5841,11 +6169,33 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
       <c r="AU12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BB12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5882,6 +6232,71 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74ECBE8-579F-4C46-8EE6-A1073B2E4481}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="117"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="117"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5930,7 +6345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5984,7 +6399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E0DBD1-9C53-4E86-8483-588C08719311}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5995,7 +6410,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -6043,7 +6458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E8874E-11ED-45FA-AE95-642AF80BF911}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6054,7 +6469,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -6105,7 +6520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6193,7 +6608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525A3BF6-1973-4856-86F5-89173E1F6931}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6204,7 +6619,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -6250,7 +6665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37172789-356D-454C-8F35-29F71BAFFC7F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6290,7 +6705,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="101"/>
-      <c r="C3" s="146"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6307,7 +6722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6375,7 +6790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6416,105 +6831,6 @@
         <v>1</v>
       </c>
       <c r="C3" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="146">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="146">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="146">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6610,6 +6926,105 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6674,7 +7089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6728,7 +7143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6787,7 +7202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE35D21-A9CB-462D-A985-6B6D4051745F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6798,7 +7213,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -6846,7 +7261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C8F968-B569-4630-B489-36D60677DD57}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6857,7 +7272,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -6903,7 +7318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6131FC4-DDA8-4CA5-9995-BA95F5C41F90}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6914,7 +7329,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -6968,7 +7383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6613D63-6E3B-4ADA-BB26-770DF5E350F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7008,7 +7423,7 @@
         <v>114</v>
       </c>
       <c r="B3" s="101"/>
-      <c r="C3" s="146"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7025,7 +7440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B5B5E2-5BB6-4D8A-A59D-BCD5CAC9BC96}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7286,7 +7701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -7404,263 +7819,6 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F8" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="34">
-        <f>(5000*7)/7</f>
-        <v>5000</v>
-      </c>
-      <c r="C3" s="34">
-        <f>$B3*(VALUE(RIGHT(C$2,2)))^(-0.21)</f>
-        <v>4322.6861565393256</v>
-      </c>
-      <c r="D3" s="34">
-        <f t="shared" ref="D3:K3" si="0">$B3*(VALUE(RIGHT(D$2,2)))^(-0.21)</f>
-        <v>3969.854054028066</v>
-      </c>
-      <c r="E3" s="34">
-        <f t="shared" si="0"/>
-        <v>3737.1231215873463</v>
-      </c>
-      <c r="F3" s="34">
-        <f t="shared" si="0"/>
-        <v>3566.0407645411756</v>
-      </c>
-      <c r="G3" s="34">
-        <f t="shared" si="0"/>
-        <v>3432.0866325657289</v>
-      </c>
-      <c r="H3" s="34">
-        <f t="shared" si="0"/>
-        <v>3322.7633834431954</v>
-      </c>
-      <c r="I3" s="34">
-        <f t="shared" si="0"/>
-        <v>3230.8820765937307</v>
-      </c>
-      <c r="J3" s="34">
-        <f t="shared" si="0"/>
-        <v>3151.9482420566142</v>
-      </c>
-      <c r="K3" s="35">
-        <f t="shared" si="0"/>
-        <v>3082.9750093074108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="34">
-        <f>(13000*7)/7</f>
-        <v>13000</v>
-      </c>
-      <c r="C4" s="34">
-        <f t="shared" ref="C4:K4" si="1">$B4*(VALUE(RIGHT(C$2,2)))^(-0.35)</f>
-        <v>10199.593272657759</v>
-      </c>
-      <c r="D4" s="34">
-        <f t="shared" si="1"/>
-        <v>8850.1557384298558</v>
-      </c>
-      <c r="E4" s="34">
-        <f t="shared" si="1"/>
-        <v>8002.4386867419562</v>
-      </c>
-      <c r="F4" s="34">
-        <f t="shared" si="1"/>
-        <v>7401.2291525269902</v>
-      </c>
-      <c r="G4" s="34">
-        <f t="shared" si="1"/>
-        <v>6943.6914562817392</v>
-      </c>
-      <c r="H4" s="34">
-        <f t="shared" si="1"/>
-        <v>6578.9871524644777</v>
-      </c>
-      <c r="I4" s="34">
-        <f t="shared" si="1"/>
-        <v>6278.5861380114975</v>
-      </c>
-      <c r="J4" s="34">
-        <f t="shared" si="1"/>
-        <v>6025.0197380356067</v>
-      </c>
-      <c r="K4" s="35">
-        <f t="shared" si="1"/>
-        <v>5806.8866979625209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="34">
-        <f>(8000*7)/7</f>
-        <v>8000</v>
-      </c>
-      <c r="C5" s="34">
-        <f>$B5*(VALUE(RIGHT(C$2,2)))^(-0.25)</f>
-        <v>6727.171322029717</v>
-      </c>
-      <c r="D5" s="34">
-        <f t="shared" ref="D5:K5" si="2">$B5*(VALUE(RIGHT(D$2,2)))^(-0.25)</f>
-        <v>6078.6854852127399</v>
-      </c>
-      <c r="E5" s="34">
-        <f t="shared" si="2"/>
-        <v>5656.8542494923804</v>
-      </c>
-      <c r="F5" s="34">
-        <f t="shared" si="2"/>
-        <v>5349.9224398113756</v>
-      </c>
-      <c r="G5" s="34">
-        <f t="shared" si="2"/>
-        <v>5111.5448339701798</v>
-      </c>
-      <c r="H5" s="34">
-        <f t="shared" si="2"/>
-        <v>4918.3052236101157</v>
-      </c>
-      <c r="I5" s="34">
-        <f t="shared" si="2"/>
-        <v>4756.8284600108846</v>
-      </c>
-      <c r="J5" s="34">
-        <f t="shared" si="2"/>
-        <v>4618.8021535170055</v>
-      </c>
-      <c r="K5" s="35">
-        <f t="shared" si="2"/>
-        <v>4498.7306015227923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="36">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="36">
-        <f>$B6*(VALUE(RIGHT(C$2,2)))^(-0.02)</f>
-        <v>9862.3270449335923</v>
-      </c>
-      <c r="D6" s="36">
-        <f t="shared" ref="D6:K6" si="3">$B6*(VALUE(RIGHT(D$2,2)))^(-0.02)</f>
-        <v>9782.6738572917111</v>
-      </c>
-      <c r="E6" s="36">
-        <f t="shared" si="3"/>
-        <v>9726.5494741228558</v>
-      </c>
-      <c r="F6" s="36">
-        <f t="shared" si="3"/>
-        <v>9683.2378572562975</v>
-      </c>
-      <c r="G6" s="36">
-        <f t="shared" si="3"/>
-        <v>9647.9928954532861</v>
-      </c>
-      <c r="H6" s="36">
-        <f t="shared" si="3"/>
-        <v>9618.2938070479941</v>
-      </c>
-      <c r="I6" s="36">
-        <f t="shared" si="3"/>
-        <v>9592.6411932526426</v>
-      </c>
-      <c r="J6" s="36">
-        <f t="shared" si="3"/>
-        <v>9570.0707798138701</v>
-      </c>
-      <c r="K6" s="37">
-        <f t="shared" si="3"/>
-        <v>9549.9258602143582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7776,6 +7934,263 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="34">
+        <f>(5000*7)/7</f>
+        <v>5000</v>
+      </c>
+      <c r="C3" s="34">
+        <f>$B3*(VALUE(RIGHT(C$2,2)))^(-0.21)</f>
+        <v>4322.6861565393256</v>
+      </c>
+      <c r="D3" s="34">
+        <f t="shared" ref="D3:K3" si="0">$B3*(VALUE(RIGHT(D$2,2)))^(-0.21)</f>
+        <v>3969.854054028066</v>
+      </c>
+      <c r="E3" s="34">
+        <f t="shared" si="0"/>
+        <v>3737.1231215873463</v>
+      </c>
+      <c r="F3" s="34">
+        <f t="shared" si="0"/>
+        <v>3566.0407645411756</v>
+      </c>
+      <c r="G3" s="34">
+        <f t="shared" si="0"/>
+        <v>3432.0866325657289</v>
+      </c>
+      <c r="H3" s="34">
+        <f t="shared" si="0"/>
+        <v>3322.7633834431954</v>
+      </c>
+      <c r="I3" s="34">
+        <f t="shared" si="0"/>
+        <v>3230.8820765937307</v>
+      </c>
+      <c r="J3" s="34">
+        <f t="shared" si="0"/>
+        <v>3151.9482420566142</v>
+      </c>
+      <c r="K3" s="35">
+        <f t="shared" si="0"/>
+        <v>3082.9750093074108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="34">
+        <f>(13000*7)/7</f>
+        <v>13000</v>
+      </c>
+      <c r="C4" s="34">
+        <f t="shared" ref="C4:K4" si="1">$B4*(VALUE(RIGHT(C$2,2)))^(-0.35)</f>
+        <v>10199.593272657759</v>
+      </c>
+      <c r="D4" s="34">
+        <f t="shared" si="1"/>
+        <v>8850.1557384298558</v>
+      </c>
+      <c r="E4" s="34">
+        <f t="shared" si="1"/>
+        <v>8002.4386867419562</v>
+      </c>
+      <c r="F4" s="34">
+        <f t="shared" si="1"/>
+        <v>7401.2291525269902</v>
+      </c>
+      <c r="G4" s="34">
+        <f t="shared" si="1"/>
+        <v>6943.6914562817392</v>
+      </c>
+      <c r="H4" s="34">
+        <f t="shared" si="1"/>
+        <v>6578.9871524644777</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" si="1"/>
+        <v>6278.5861380114975</v>
+      </c>
+      <c r="J4" s="34">
+        <f t="shared" si="1"/>
+        <v>6025.0197380356067</v>
+      </c>
+      <c r="K4" s="35">
+        <f t="shared" si="1"/>
+        <v>5806.8866979625209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="34">
+        <f>(8000*7)/7</f>
+        <v>8000</v>
+      </c>
+      <c r="C5" s="34">
+        <f>$B5*(VALUE(RIGHT(C$2,2)))^(-0.25)</f>
+        <v>6727.171322029717</v>
+      </c>
+      <c r="D5" s="34">
+        <f t="shared" ref="D5:K5" si="2">$B5*(VALUE(RIGHT(D$2,2)))^(-0.25)</f>
+        <v>6078.6854852127399</v>
+      </c>
+      <c r="E5" s="34">
+        <f t="shared" si="2"/>
+        <v>5656.8542494923804</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" si="2"/>
+        <v>5349.9224398113756</v>
+      </c>
+      <c r="G5" s="34">
+        <f t="shared" si="2"/>
+        <v>5111.5448339701798</v>
+      </c>
+      <c r="H5" s="34">
+        <f t="shared" si="2"/>
+        <v>4918.3052236101157</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" si="2"/>
+        <v>4756.8284600108846</v>
+      </c>
+      <c r="J5" s="34">
+        <f t="shared" si="2"/>
+        <v>4618.8021535170055</v>
+      </c>
+      <c r="K5" s="35">
+        <f t="shared" si="2"/>
+        <v>4498.7306015227923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="36">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="36">
+        <f>$B6*(VALUE(RIGHT(C$2,2)))^(-0.02)</f>
+        <v>9862.3270449335923</v>
+      </c>
+      <c r="D6" s="36">
+        <f t="shared" ref="D6:K6" si="3">$B6*(VALUE(RIGHT(D$2,2)))^(-0.02)</f>
+        <v>9782.6738572917111</v>
+      </c>
+      <c r="E6" s="36">
+        <f t="shared" si="3"/>
+        <v>9726.5494741228558</v>
+      </c>
+      <c r="F6" s="36">
+        <f t="shared" si="3"/>
+        <v>9683.2378572562975</v>
+      </c>
+      <c r="G6" s="36">
+        <f t="shared" si="3"/>
+        <v>9647.9928954532861</v>
+      </c>
+      <c r="H6" s="36">
+        <f t="shared" si="3"/>
+        <v>9618.2938070479941</v>
+      </c>
+      <c r="I6" s="36">
+        <f t="shared" si="3"/>
+        <v>9592.6411932526426</v>
+      </c>
+      <c r="J6" s="36">
+        <f t="shared" si="3"/>
+        <v>9570.0707798138701</v>
+      </c>
+      <c r="K6" s="37">
+        <f t="shared" si="3"/>
+        <v>9549.9258602143582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -7888,7 +8303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D444DCF-56F0-450B-930F-1DD02EF4264D}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -8339,7 +8754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44F1704-24BE-48F1-9574-42F155399A4D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -8466,7 +8881,7 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="146">
+      <c r="L3" s="7">
         <v>0</v>
       </c>
       <c r="M3" s="77">
@@ -8527,7 +8942,7 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="146">
+      <c r="L4" s="7">
         <v>0</v>
       </c>
       <c r="M4" s="77">
@@ -8588,7 +9003,7 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="146">
+      <c r="L5" s="7">
         <v>0</v>
       </c>
       <c r="M5" s="77">
@@ -8810,7 +9225,7 @@
       <c r="K9" s="7">
         <v>42857</v>
       </c>
-      <c r="L9" s="146">
+      <c r="L9" s="7">
         <v>0</v>
       </c>
       <c r="M9" s="77">
@@ -8867,7 +9282,7 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="146">
+      <c r="L10" s="7">
         <v>0</v>
       </c>
       <c r="M10" s="77">
@@ -8926,7 +9341,7 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="146">
+      <c r="L11" s="7">
         <v>0</v>
       </c>
       <c r="M11" s="77">
@@ -8985,7 +9400,7 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="146">
+      <c r="L12" s="7">
         <v>42857</v>
       </c>
       <c r="M12" s="77"/>
@@ -9577,7 +9992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E21CA-E0F8-4445-8FC2-328828AC1FFE}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -9727,7 +10142,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="77"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="146"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="77"/>
       <c r="N3" s="7"/>
       <c r="O3" s="77"/>
@@ -9797,7 +10212,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="77"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="146"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="77"/>
       <c r="N4" s="7"/>
       <c r="O4" s="77"/>
@@ -9867,7 +10282,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="77"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="146"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="77"/>
       <c r="N5" s="7"/>
       <c r="O5" s="77"/>
@@ -10145,7 +10560,7 @@
       <c r="K9" s="7">
         <v>8</v>
       </c>
-      <c r="L9" s="146"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="77"/>
       <c r="N9" s="7"/>
       <c r="O9" s="77"/>
@@ -10217,7 +10632,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="77"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="146"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="77"/>
       <c r="N10" s="7"/>
       <c r="O10" s="77"/>
@@ -10287,7 +10702,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="77"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="146"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="77"/>
       <c r="N11" s="7"/>
       <c r="O11" s="77"/>
@@ -10357,7 +10772,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="77"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="146">
+      <c r="L12" s="7">
         <v>8</v>
       </c>
       <c r="M12" s="77"/>
@@ -13816,7 +14231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13878,7 +14293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -13939,7 +14354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -14019,7 +14434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F8A3C4-CDFB-42B9-A561-3BE030B562A7}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -14030,7 +14445,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -14187,7 +14602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F0BCF9-7789-4700-AF4D-19AFDD7DEF21}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -14198,7 +14613,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -14352,109 +14767,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of External Water Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of External Water Sourcing Availability [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="36">
-        <v>80000</v>
-      </c>
-      <c r="C3" s="36">
-        <v>80000</v>
-      </c>
-      <c r="D3" s="36">
-        <v>80000</v>
-      </c>
-      <c r="E3" s="36">
-        <v>80000</v>
-      </c>
-      <c r="F3" s="36">
-        <v>80000</v>
-      </c>
-      <c r="G3" s="36">
-        <v>80000</v>
-      </c>
-      <c r="H3" s="36">
-        <v>80000</v>
-      </c>
-      <c r="I3" s="36">
-        <v>80000</v>
-      </c>
-      <c r="J3" s="36">
-        <v>80000</v>
-      </c>
-      <c r="K3" s="37">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14511,6 +14823,109 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of External Water Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of External Water Sourcing Availability [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="36">
+        <v>80000</v>
+      </c>
+      <c r="C3" s="36">
+        <v>80000</v>
+      </c>
+      <c r="D3" s="36">
+        <v>80000</v>
+      </c>
+      <c r="E3" s="36">
+        <v>80000</v>
+      </c>
+      <c r="F3" s="36">
+        <v>80000</v>
+      </c>
+      <c r="G3" s="36">
+        <v>80000</v>
+      </c>
+      <c r="H3" s="36">
+        <v>80000</v>
+      </c>
+      <c r="I3" s="36">
+        <v>80000</v>
+      </c>
+      <c r="J3" s="36">
+        <v>80000</v>
+      </c>
+      <c r="K3" s="37">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -14565,7 +14980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -14619,7 +15034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -14715,7 +15130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -14814,31 +15229,31 @@
       <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="146">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="146">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="146">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="146">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="146">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="146">
+      <c r="G4" s="7">
         <v>1</v>
       </c>
-      <c r="H4" s="146">
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="146">
+      <c r="I4" s="7">
         <v>1</v>
       </c>
-      <c r="J4" s="146">
+      <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="29">
@@ -14896,7 +15311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -14958,7 +15373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15087,7 +15502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15141,7 +15556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -15270,7 +15685,7 @@
       <c r="K3" s="7">
         <v>0</v>
       </c>
-      <c r="L3" s="146">
+      <c r="L3" s="7">
         <v>0</v>
       </c>
       <c r="M3" s="77">
@@ -15341,7 +15756,7 @@
       <c r="K4" s="7">
         <v>0</v>
       </c>
-      <c r="L4" s="146">
+      <c r="L4" s="7">
         <v>0</v>
       </c>
       <c r="M4" s="77">
@@ -15412,7 +15827,7 @@
       <c r="K5" s="7">
         <v>0</v>
       </c>
-      <c r="L5" s="146">
+      <c r="L5" s="7">
         <v>0</v>
       </c>
       <c r="M5" s="77">
@@ -15696,7 +16111,7 @@
       <c r="K9" s="7">
         <v>1E-4</v>
       </c>
-      <c r="L9" s="146">
+      <c r="L9" s="7">
         <v>0</v>
       </c>
       <c r="M9" s="77">
@@ -15767,7 +16182,7 @@
       <c r="K10" s="7">
         <v>0</v>
       </c>
-      <c r="L10" s="146">
+      <c r="L10" s="7">
         <v>0</v>
       </c>
       <c r="M10" s="77">
@@ -15838,7 +16253,7 @@
       <c r="K11" s="7">
         <v>0</v>
       </c>
-      <c r="L11" s="146">
+      <c r="L11" s="7">
         <v>0</v>
       </c>
       <c r="M11" s="77">
@@ -15909,7 +16324,7 @@
       <c r="K12" s="7">
         <v>0</v>
       </c>
-      <c r="L12" s="146">
+      <c r="L12" s="7">
         <v>1E-4</v>
       </c>
       <c r="M12" s="77">
@@ -15980,7 +16395,7 @@
       <c r="K13" s="7">
         <v>0</v>
       </c>
-      <c r="L13" s="146">
+      <c r="L13" s="7">
         <v>0</v>
       </c>
       <c r="M13" s="77">
@@ -16051,7 +16466,7 @@
       <c r="K14" s="7">
         <v>0</v>
       </c>
-      <c r="L14" s="146">
+      <c r="L14" s="7">
         <v>0</v>
       </c>
       <c r="M14" s="77">
@@ -16122,7 +16537,7 @@
       <c r="K15" s="7">
         <v>0</v>
       </c>
-      <c r="L15" s="146">
+      <c r="L15" s="7">
         <v>0</v>
       </c>
       <c r="M15" s="77">
@@ -16193,7 +16608,7 @@
       <c r="K16" s="7">
         <v>0</v>
       </c>
-      <c r="L16" s="146">
+      <c r="L16" s="7">
         <v>0</v>
       </c>
       <c r="M16" s="77">
@@ -16335,7 +16750,7 @@
       <c r="K18" s="7">
         <v>0</v>
       </c>
-      <c r="L18" s="146">
+      <c r="L18" s="7">
         <v>0</v>
       </c>
       <c r="M18" s="77">
@@ -16406,7 +16821,7 @@
       <c r="K19" s="7">
         <v>0</v>
       </c>
-      <c r="L19" s="146">
+      <c r="L19" s="7">
         <v>0</v>
       </c>
       <c r="M19" s="77">
@@ -16619,7 +17034,7 @@
       <c r="K22" s="7">
         <v>0</v>
       </c>
-      <c r="L22" s="146">
+      <c r="L22" s="7">
         <v>0</v>
       </c>
       <c r="M22" s="77">
@@ -16734,7 +17149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16772,99 +17187,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", "hour","]")</f>
-        <v>Table of Trucking Hourly Cost [USD/hour]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="29">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="29">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="29">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="81">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="112">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="81">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="9">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16925,6 +17247,99 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", "hour","]")</f>
+        <v>Table of Trucking Hourly Cost [USD/hour]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="29">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="29">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="81">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="112">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="81">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="9">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -16966,7 +17381,7 @@
       <c r="B3" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="146">
+      <c r="C3" s="7">
         <v>3.5</v>
       </c>
       <c r="D3" s="29">
@@ -16980,7 +17395,7 @@
       <c r="B4" s="7">
         <v>2.5</v>
       </c>
-      <c r="C4" s="146">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="29">
@@ -16994,7 +17409,7 @@
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="146">
+      <c r="C5" s="7">
         <v>0.5</v>
       </c>
       <c r="D5" s="29">
@@ -17022,7 +17437,7 @@
       <c r="B7" s="7">
         <v>3</v>
       </c>
-      <c r="C7" s="146">
+      <c r="C7" s="7">
         <v>1.5</v>
       </c>
       <c r="D7" s="29">
@@ -17050,7 +17465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17111,13 +17526,13 @@
       <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="147">
-        <v>0</v>
-      </c>
-      <c r="C4" s="147">
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
         <v>1000</v>
       </c>
-      <c r="D4" s="147">
+      <c r="D4" s="34">
         <v>900</v>
       </c>
       <c r="E4" s="35">
@@ -17148,7 +17563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17209,13 +17624,13 @@
       <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="147">
-        <v>0</v>
-      </c>
-      <c r="C4" s="147">
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
         <v>10000</v>
       </c>
-      <c r="D4" s="147">
+      <c r="D4" s="34">
         <v>20000</v>
       </c>
       <c r="E4" s="35">
@@ -17250,7 +17665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17347,7 +17762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17416,7 +17831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17626,7 +18041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17748,7 +18163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17759,7 +18174,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
@@ -17793,7 +18208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE67BAE-6607-47A3-AB16-0544FAF51C24}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -17806,7 +18221,7 @@
       <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -17922,7 +18337,7 @@
       <c r="K3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="L3" s="7" t="s">
         <v>192</v>
       </c>
       <c r="M3" s="77" t="s">
@@ -17979,7 +18394,7 @@
       <c r="K4" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L4" s="146" t="s">
+      <c r="L4" s="7" t="s">
         <v>192</v>
       </c>
       <c r="M4" s="77" t="s">
@@ -18036,7 +18451,7 @@
       <c r="K5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="146" t="s">
+      <c r="L5" s="7" t="s">
         <v>192</v>
       </c>
       <c r="M5" s="77" t="s">
@@ -18242,7 +18657,7 @@
       <c r="K9" s="120">
         <v>4.1717000000000004</v>
       </c>
-      <c r="L9" s="146" t="s">
+      <c r="L9" s="7" t="s">
         <v>192</v>
       </c>
       <c r="M9" s="77" t="s">
@@ -18295,7 +18710,7 @@
       <c r="K10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L10" s="146" t="s">
+      <c r="L10" s="7" t="s">
         <v>192</v>
       </c>
       <c r="M10" s="77">
@@ -18348,7 +18763,7 @@
       <c r="K11" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L11" s="146" t="s">
+      <c r="L11" s="7" t="s">
         <v>192</v>
       </c>
       <c r="M11" s="77" t="s">
@@ -18401,7 +18816,7 @@
       <c r="K12" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="L12" s="146">
+      <c r="L12" s="7">
         <v>1.3163</v>
       </c>
       <c r="M12" s="77"/>
@@ -18930,103 +19345,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
-        <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="93" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="7">
-        <v>30</v>
-      </c>
-      <c r="D3" s="7">
-        <v>30</v>
-      </c>
-      <c r="E3" s="7">
-        <v>30</v>
-      </c>
-      <c r="F3" s="7">
-        <v>30</v>
-      </c>
-      <c r="G3" s="29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="8">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19078,6 +19396,103 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),")]")</f>
+        <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="7">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7">
+        <v>30</v>
+      </c>
+      <c r="F3" s="7">
+        <v>30</v>
+      </c>
+      <c r="G3" s="29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="8">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -19154,7 +19569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -19231,7 +19646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -19242,7 +19657,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -19358,7 +19773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD92FF-3AD4-4D23-8578-311AD898F13B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -19369,7 +19784,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
@@ -19485,7 +19900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -19496,7 +19911,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -19552,7 +19967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -19563,7 +19978,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -19603,7 +20018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7AD71D-4C0B-472C-8430-CF831478B551}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -19662,7 +20077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FBE079-FAED-46A7-9D21-827D4D11C1A7}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -19673,7 +20088,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -19722,7 +20137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -19733,7 +20148,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -19770,80 +20185,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
-  <sheetPr>
-    <tabColor rgb="FFAFF3DE"/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="35">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="41">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="35">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" s="37">
-        <v>150</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19859,7 +20200,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -19880,6 +20221,80 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="41">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="35">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="37">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -19890,7 +20305,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -19930,7 +20345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9F957-332F-455F-B619-43E6DF7BA58A}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -19941,7 +20356,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -19974,7 +20389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -19985,7 +20400,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -20058,7 +20473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -20069,7 +20484,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -20121,7 +20536,288 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FF409C-F3A8-4984-8E35-31CA1CE980C4}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients ")</f>
+        <v xml:space="preserve">Table of Air Emissions Coefficients </v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="str">
+        <f>_xlfn.CONCAT("Trucking [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/hour]")</f>
+        <v>Trucking [g/hour]</v>
+      </c>
+      <c r="B3" s="146">
+        <v>2035000</v>
+      </c>
+      <c r="C3" s="146">
+        <v>35.75</v>
+      </c>
+      <c r="D3" s="146">
+        <v>12649.999999999998</v>
+      </c>
+      <c r="E3" s="146">
+        <v>770.00000000000011</v>
+      </c>
+      <c r="F3" s="147">
+        <v>120.99999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="str">
+        <f>_xlfn.CONCAT("Pipeline Operations [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "*", VLOOKUP("distance", Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Pipeline Operations [g/(bbl*mile)]</v>
+      </c>
+      <c r="B4" s="146">
+        <v>22</v>
+      </c>
+      <c r="C4" s="146">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="146">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="146">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F4" s="147">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="str">
+        <f>_xlfn.CONCAT("Pipeline Installation [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("distance", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Pipeline Installation [g/mile]</v>
+      </c>
+      <c r="B5" s="146">
+        <v>310000000</v>
+      </c>
+      <c r="C5" s="146">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="146">
+        <v>190000</v>
+      </c>
+      <c r="E5" s="146">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="147">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="str">
+        <f>_xlfn.CONCAT("Disposal [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Disposal [g/bbl]</v>
+      </c>
+      <c r="B6" s="146">
+        <v>970</v>
+      </c>
+      <c r="C6" s="146">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="146">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="146">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="147">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="str">
+        <f>_xlfn.CONCAT("Storage [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/(", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "*", VLOOKUP("decision period", Units!A2:B12, 2, FALSE), ")]")</f>
+        <v>Storage [g/(bbl*week)]</v>
+      </c>
+      <c r="B7" s="148">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="148">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D7" s="148">
+        <v>2</v>
+      </c>
+      <c r="E7" s="148">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="149">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2607B09-EA29-4528-9DD7-01BA385C33DA}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Table of Air Emissions Coefficients for Treatment Technologies [", VLOOKUP("mass", Units!A2:B12, 2, FALSE), "/", VLOOKUP("volume", Units!A2:B12, 2, FALSE), "]")</f>
+        <v>Table of Air Emissions Coefficients for Treatment Technologies [g/bbl]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="150" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="151" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="146">
+        <v>9600</v>
+      </c>
+      <c r="C3" s="146">
+        <v>1.45</v>
+      </c>
+      <c r="D3" s="146">
+        <v>12.8</v>
+      </c>
+      <c r="E3" s="146">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="147">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="146">
+        <v>9600</v>
+      </c>
+      <c r="C4" s="146">
+        <v>1.45</v>
+      </c>
+      <c r="D4" s="146">
+        <v>12.8</v>
+      </c>
+      <c r="E4" s="146">
+        <v>13.5</v>
+      </c>
+      <c r="F4" s="147">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="151" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="146">
+        <v>9600</v>
+      </c>
+      <c r="C5" s="146">
+        <v>1.45</v>
+      </c>
+      <c r="D5" s="146">
+        <v>12.8</v>
+      </c>
+      <c r="E5" s="146">
+        <v>13.5</v>
+      </c>
+      <c r="F5" s="147">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="148">
+        <v>9600</v>
+      </c>
+      <c r="C6" s="148">
+        <v>1.45</v>
+      </c>
+      <c r="D6" s="148">
+        <v>12.8</v>
+      </c>
+      <c r="E6" s="148">
+        <v>13.5</v>
+      </c>
+      <c r="F6" s="149">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -20132,7 +20828,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -20176,7 +20872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C23A90-09F8-4256-9A57-7AE4D67F1B30}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -20187,7 +20883,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
@@ -20385,7 +21081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F42A651-E51E-4797-AA8E-6DBE69CB6369}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -20396,7 +21092,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -20446,13 +21142,13 @@
       <c r="A4" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="147">
-        <v>0</v>
-      </c>
-      <c r="C4" s="147">
+      <c r="B4" s="34">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
         <v>45</v>
       </c>
-      <c r="D4" s="147">
+      <c r="D4" s="34">
         <v>50</v>
       </c>
       <c r="E4" s="35">
@@ -20474,289 +21170,6 @@
       </c>
       <c r="E5" s="37">
         <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EACECE5-F82F-4E80-B99E-F7DABB62B09A}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Storage Expansion Lead Time [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Storage Expansion Lead Time [weeks]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="34">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34">
-        <v>88</v>
-      </c>
-      <c r="D3" s="34">
-        <v>89</v>
-      </c>
-      <c r="E3" s="35">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="34">
-        <v>0</v>
-      </c>
-      <c r="C4" s="34">
-        <v>88</v>
-      </c>
-      <c r="D4" s="34">
-        <v>89</v>
-      </c>
-      <c r="E4" s="35">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="36">
-        <v>0</v>
-      </c>
-      <c r="C5" s="36">
-        <v>88</v>
-      </c>
-      <c r="D5" s="36">
-        <v>89</v>
-      </c>
-      <c r="E5" s="37">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC23D97D-374C-4B13-BA6B-20365AC2D937}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="130">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F7B70E-50E1-4C11-B6BC-F4B3E009AA2B}">
-  <sheetPr>
-    <tabColor theme="0"/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Capacity Based [",VLOOKUP("decision period", Units!$A$2:$B$11, 2, FALSE),"s]")</f>
-        <v>Table of Pipeline Expansion Lead Time - Capacity Based [weeks]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2</v>
-      </c>
-      <c r="G3" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>2</v>
-      </c>
-      <c r="G4" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="131" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/workshop_baseline_all_data.xlsx
+++ b/pareto/case_studies/workshop_baseline_all_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65010237-EC1C-42FE-97EB-49F1ADC02CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025A17AA-218D-4B81-A94F-026DBF2B3C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="834" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId93"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId94"/>
     <sheet name="AirEmissionCoefficients" sheetId="147" r:id="rId95"/>
-    <sheet name="TreatmentEmissionCoeffiecients" sheetId="148" r:id="rId96"/>
+    <sheet name="TreatmentEmissionCoefficients" sheetId="148" r:id="rId96"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId97"/>
     <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId98"/>
     <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId99"/>
